--- a/results_excel/_ACGwSD.xlsx
+++ b/results_excel/_ACGwSD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigmu\Desktop\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigmu\Desktop\dataset\doPříloh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA472D69-5F28-49A0-812F-CB88FACE8EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBC7053-B6CA-4D77-A384-AF85439005ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean" sheetId="1" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1061,7 +1061,6 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1660,7 +1659,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -1691,12 +1690,12 @@
         <v>36</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1721,7 +1720,7 @@
       </c>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1">
@@ -1746,11 +1745,11 @@
       </c>
       <c r="H2" s="1">
         <f>AVERAGE('7days'!H2:H8)</f>
-        <v>4.3985714285714286</v>
+        <v>3.5314285714285711</v>
       </c>
       <c r="I2" s="1">
         <f>AVERAGE('7days'!I2:I8)</f>
-        <v>3.5314285714285711</v>
+        <v>4.3985714285714286</v>
       </c>
       <c r="J2" s="1">
         <f>AVERAGE('7days'!J2:J8)</f>
@@ -1778,7 +1777,7 @@
       </c>
       <c r="X2" s="14">
         <f ca="1">YEARFRAC(W2,TODAY())</f>
-        <v>72.541666666666671</v>
+        <v>72.544444444444451</v>
       </c>
       <c r="Y2" s="11" t="s">
         <v>45</v>
@@ -1810,11 +1809,11 @@
       </c>
       <c r="H3" s="1">
         <f>AVERAGE('7days'!H9:H15)</f>
-        <v>5.1757142857142862</v>
+        <v>2.6371428571428575</v>
       </c>
       <c r="I3" s="1">
         <f>AVERAGE('7days'!I9:I15)</f>
-        <v>2.6371428571428575</v>
+        <v>5.1757142857142862</v>
       </c>
       <c r="J3" s="1">
         <f>AVERAGE('7days'!J9:J15)</f>
@@ -1842,7 +1841,7 @@
       </c>
       <c r="X3" s="14">
         <f t="shared" ref="X3:X19" ca="1" si="1">YEARFRAC(W3,TODAY())</f>
-        <v>76.088888888888889</v>
+        <v>76.091666666666669</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>46</v>
@@ -1874,11 +1873,11 @@
       </c>
       <c r="H4" s="1">
         <f>AVERAGE('7days'!H16:H21)</f>
-        <v>2.8949999999999996</v>
+        <v>4.4899999999999993</v>
       </c>
       <c r="I4" s="1">
         <f>AVERAGE('7days'!I16:I21)</f>
-        <v>4.4899999999999993</v>
+        <v>2.8949999999999996</v>
       </c>
       <c r="J4" s="1">
         <f>AVERAGE('7days'!J16:J21)</f>
@@ -1908,7 +1907,7 @@
       </c>
       <c r="X4" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>63.375</v>
+        <v>63.37777777777778</v>
       </c>
       <c r="Y4" s="12" t="s">
         <v>47</v>
@@ -1940,11 +1939,11 @@
       </c>
       <c r="H5" s="1">
         <f>AVERAGE('7days'!H22:H28)</f>
-        <v>5.3485714285714279</v>
+        <v>3.0842857142857136</v>
       </c>
       <c r="I5" s="1">
         <f>AVERAGE('7days'!I22:I28)</f>
-        <v>3.0842857142857136</v>
+        <v>5.3485714285714279</v>
       </c>
       <c r="J5" s="1">
         <f>AVERAGE('7days'!J22:J28)</f>
@@ -1972,7 +1971,7 @@
       </c>
       <c r="X5" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>57.152777777777779</v>
+        <v>57.155555555555559</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -2001,11 +2000,11 @@
       </c>
       <c r="H6" s="1">
         <f>AVERAGE('7days'!H29:H35)</f>
-        <v>2.0614285714285714</v>
+        <v>5.5357142857142856</v>
       </c>
       <c r="I6" s="1">
         <f>AVERAGE('7days'!I29:I35)</f>
-        <v>5.5357142857142856</v>
+        <v>2.0614285714285714</v>
       </c>
       <c r="J6" s="1">
         <f>AVERAGE('7days'!J29:J35)</f>
@@ -2033,7 +2032,7 @@
       </c>
       <c r="X6" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>75.163888888888891</v>
+        <v>75.166666666666671</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -2062,11 +2061,11 @@
       </c>
       <c r="H7" s="1">
         <f>AVERAGE('7days'!H36:H42)</f>
-        <v>4.007142857142858</v>
+        <v>3.677142857142857</v>
       </c>
       <c r="I7" s="1">
         <f>AVERAGE('7days'!I36:I42)</f>
-        <v>3.677142857142857</v>
+        <v>4.007142857142858</v>
       </c>
       <c r="J7" s="1">
         <f>AVERAGE('7days'!J36:J42)</f>
@@ -2094,7 +2093,7 @@
       </c>
       <c r="X7" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>65.49722222222222</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
@@ -2123,11 +2122,11 @@
       </c>
       <c r="H8" s="1">
         <f>AVERAGE('7days'!H43:H46,'7days'!H48,'7days'!H49)</f>
-        <v>5.8549999999999995</v>
+        <v>2.9616666666666664</v>
       </c>
       <c r="I8" s="1">
         <f>AVERAGE('7days'!I43:I46,'7days'!I48,'7days'!I49)</f>
-        <v>2.9616666666666664</v>
+        <v>5.8549999999999995</v>
       </c>
       <c r="J8" s="1">
         <f>AVERAGE('7days'!J43:J46,'7days'!J48,'7days'!J49)</f>
@@ -2157,7 +2156,7 @@
       </c>
       <c r="X8" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>70.269444444444446</v>
+        <v>70.272222222222226</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
@@ -2186,11 +2185,11 @@
       </c>
       <c r="H9" s="1">
         <f>AVERAGE('7days'!H50:H55)</f>
-        <v>6.3449999999999998</v>
+        <v>2.62</v>
       </c>
       <c r="I9" s="1">
         <f>AVERAGE('7days'!I50:I55)</f>
-        <v>2.62</v>
+        <v>6.3449999999999998</v>
       </c>
       <c r="J9" s="1">
         <f>AVERAGE('7days'!J50:J55)</f>
@@ -2220,7 +2219,7 @@
       </c>
       <c r="X9" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>77.311111111111117</v>
+        <v>77.313888888888883</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -2249,11 +2248,11 @@
       </c>
       <c r="H10" s="1">
         <f>AVERAGE('7days'!H57:H63)</f>
-        <v>3.0828571428571427</v>
+        <v>4.2557142857142853</v>
       </c>
       <c r="I10" s="1">
         <f>AVERAGE('7days'!I57:I63)</f>
-        <v>4.2557142857142853</v>
+        <v>3.0828571428571427</v>
       </c>
       <c r="J10" s="1">
         <f>AVERAGE('7days'!J57:J63)</f>
@@ -2281,7 +2280,7 @@
       </c>
       <c r="X10" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>69.733333333333334</v>
+        <v>69.736111111111114</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -2310,11 +2309,11 @@
       </c>
       <c r="H11" s="1">
         <f>AVERAGE('7days'!H64:H70)</f>
-        <v>4.1571428571428566</v>
+        <v>3.7642857142857147</v>
       </c>
       <c r="I11" s="1">
         <f>AVERAGE('7days'!I64:I70)</f>
-        <v>3.7642857142857147</v>
+        <v>4.1571428571428566</v>
       </c>
       <c r="J11" s="1">
         <f>AVERAGE('7days'!J64:J70)</f>
@@ -2342,7 +2341,7 @@
       </c>
       <c r="X11" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>63.011111111111113</v>
+        <v>63.013888888888886</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -2371,11 +2370,11 @@
       </c>
       <c r="H12" s="1">
         <f>AVERAGE('7days'!H71:H77)</f>
-        <v>2.7785714285714285</v>
+        <v>3.9899999999999998</v>
       </c>
       <c r="I12" s="1">
         <f>AVERAGE('7days'!I71:I77)</f>
-        <v>3.9899999999999998</v>
+        <v>2.7785714285714285</v>
       </c>
       <c r="J12" s="1">
         <f>AVERAGE('7days'!J71:J77)</f>
@@ -2403,7 +2402,7 @@
       </c>
       <c r="X12" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>71.224999999999994</v>
+        <v>71.227777777777774</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
@@ -2432,11 +2431,11 @@
       </c>
       <c r="H13" s="1">
         <f>AVERAGE('7days'!H80:H83)</f>
-        <v>2.6124999999999998</v>
+        <v>5.1974999999999998</v>
       </c>
       <c r="I13" s="1">
         <f>AVERAGE('7days'!I80:I83)</f>
-        <v>5.1974999999999998</v>
+        <v>2.6124999999999998</v>
       </c>
       <c r="J13" s="1">
         <f>AVERAGE('7days'!J80:J83)</f>
@@ -2466,7 +2465,7 @@
       </c>
       <c r="X13" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>74.513888888888886</v>
+        <v>74.516666666666666</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -2495,11 +2494,11 @@
       </c>
       <c r="H14" s="1">
         <f>AVERAGE('7days'!H84:H89)</f>
-        <v>3.8366666666666673</v>
+        <v>3.8416666666666668</v>
       </c>
       <c r="I14" s="1">
         <f>AVERAGE('7days'!I84:I89)</f>
-        <v>3.8416666666666668</v>
+        <v>3.8366666666666673</v>
       </c>
       <c r="J14" s="1">
         <f>AVERAGE('7days'!J84:J89)</f>
@@ -2529,7 +2528,7 @@
       </c>
       <c r="X14" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>72.236111111111114</v>
+        <v>72.238888888888894</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -2558,11 +2557,11 @@
       </c>
       <c r="H15" s="1">
         <f>AVERAGE('7days'!H90:H96)</f>
-        <v>3.8728571428571432</v>
+        <v>4.3728571428571428</v>
       </c>
       <c r="I15" s="1">
         <f>AVERAGE('7days'!I90:I96)</f>
-        <v>4.3728571428571428</v>
+        <v>3.8728571428571432</v>
       </c>
       <c r="J15" s="1">
         <f>AVERAGE('7days'!J90:J96)</f>
@@ -2590,7 +2589,7 @@
       </c>
       <c r="X15" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>61.391666666666666</v>
+        <v>61.394444444444446</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -2619,11 +2618,11 @@
       </c>
       <c r="H16" s="1">
         <f>AVERAGE('7days'!H97:H103)</f>
-        <v>3.7642857142857147</v>
+        <v>3.57</v>
       </c>
       <c r="I16" s="1">
         <f>AVERAGE('7days'!I97:I103)</f>
-        <v>3.57</v>
+        <v>3.7642857142857147</v>
       </c>
       <c r="J16" s="1">
         <f>AVERAGE('7days'!J97:J103)</f>
@@ -2651,7 +2650,7 @@
       </c>
       <c r="X16" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>69.361111111111114</v>
+        <v>69.363888888888894</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -2680,11 +2679,11 @@
       </c>
       <c r="H17" s="1">
         <f>AVERAGE('7days'!H104:H110)</f>
-        <v>4.3128571428571423</v>
+        <v>3.0585714285714292</v>
       </c>
       <c r="I17" s="1">
         <f>AVERAGE('7days'!I104:I110)</f>
-        <v>3.0585714285714292</v>
+        <v>4.3128571428571423</v>
       </c>
       <c r="J17" s="1">
         <f>AVERAGE('7days'!J104:J110)</f>
@@ -2712,7 +2711,7 @@
       </c>
       <c r="X17" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>74.349999999999994</v>
+        <v>74.352777777777774</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -2741,11 +2740,11 @@
       </c>
       <c r="H18" s="1">
         <f>AVERAGE('7days'!H111:H117)</f>
-        <v>3.0871428571428572</v>
+        <v>4.0442857142857145</v>
       </c>
       <c r="I18" s="1">
         <f>AVERAGE('7days'!I111:I117)</f>
-        <v>4.0442857142857145</v>
+        <v>3.0871428571428572</v>
       </c>
       <c r="J18" s="1">
         <f>AVERAGE('7days'!J111:J117)</f>
@@ -2773,7 +2772,7 @@
       </c>
       <c r="X18" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>54.991666666666667</v>
+        <v>54.994444444444447</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -2802,11 +2801,11 @@
       </c>
       <c r="H19" s="1">
         <f>AVERAGE('7days'!H118:H124)</f>
-        <v>2.8042857142857147</v>
+        <v>5.0514285714285716</v>
       </c>
       <c r="I19" s="1">
         <f>AVERAGE('7days'!I118:I124)</f>
-        <v>5.0514285714285716</v>
+        <v>2.8042857142857147</v>
       </c>
       <c r="J19" s="1">
         <f>AVERAGE('7days'!J118:J124)</f>
@@ -2834,7 +2833,7 @@
       </c>
       <c r="X19" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>61.608333333333334</v>
+        <v>61.611111111111114</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2863,11 +2862,11 @@
       </c>
       <c r="H20" s="1">
         <f>AVERAGE('7days'!H132:H138)</f>
-        <v>2.6471428571428572</v>
+        <v>5.6028571428571423</v>
       </c>
       <c r="I20" s="1">
         <f>AVERAGE('7days'!I132:I138)</f>
-        <v>5.6028571428571423</v>
+        <v>2.6471428571428572</v>
       </c>
       <c r="J20" s="1">
         <f>AVERAGE('7days'!J132:J138)</f>
@@ -2895,7 +2894,7 @@
       </c>
       <c r="X20" s="14">
         <f t="shared" ref="X20:X28" ca="1" si="2">YEARFRAC(W20,TODAY())</f>
-        <v>69.594444444444449</v>
+        <v>69.597222222222229</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2924,11 +2923,11 @@
       </c>
       <c r="H21" s="1">
         <f>AVERAGE('7days'!H139:H145)</f>
-        <v>5.6471428571428559</v>
+        <v>2.8528571428571428</v>
       </c>
       <c r="I21" s="1">
         <f>AVERAGE('7days'!I139:I145)</f>
-        <v>2.8528571428571428</v>
+        <v>5.6471428571428559</v>
       </c>
       <c r="J21" s="1">
         <f>AVERAGE('7days'!J139:J145)</f>
@@ -2956,7 +2955,7 @@
       </c>
       <c r="X21" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>83.594444444444449</v>
+        <v>83.597222222222229</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2985,11 +2984,11 @@
       </c>
       <c r="H22" s="1">
         <f>AVERAGE('7days'!H146:H152)</f>
-        <v>4.3814285714285708</v>
+        <v>2.9057142857142861</v>
       </c>
       <c r="I22" s="1">
         <f>AVERAGE('7days'!I146:I152)</f>
-        <v>2.9057142857142861</v>
+        <v>4.3814285714285708</v>
       </c>
       <c r="J22" s="1">
         <f>AVERAGE('7days'!J146:J152)</f>
@@ -3017,7 +3016,7 @@
       </c>
       <c r="X22" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>73.730555555555554</v>
+        <v>73.733333333333334</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -3046,11 +3045,11 @@
       </c>
       <c r="H23" s="1">
         <f>AVERAGE('7days'!H153:H159)</f>
-        <v>3.4542857142857142</v>
+        <v>4.4314285714285715</v>
       </c>
       <c r="I23" s="1">
         <f>AVERAGE('7days'!I153:I159)</f>
-        <v>4.4314285714285715</v>
+        <v>3.4542857142857142</v>
       </c>
       <c r="J23" s="1">
         <f>AVERAGE('7days'!J153:J159)</f>
@@ -3078,7 +3077,7 @@
       </c>
       <c r="X23" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>70.155555555555551</v>
+        <v>70.158333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -3107,11 +3106,11 @@
       </c>
       <c r="H24" s="1">
         <f>AVERAGE('7days'!H160:H166)</f>
-        <v>3.2714285714285714</v>
+        <v>4.0185714285714287</v>
       </c>
       <c r="I24" s="1">
         <f>AVERAGE('7days'!I160:I166)</f>
-        <v>4.0185714285714287</v>
+        <v>3.2714285714285714</v>
       </c>
       <c r="J24" s="1">
         <f>AVERAGE('7days'!J160:J166)</f>
@@ -3139,7 +3138,7 @@
       </c>
       <c r="X24" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>67.794444444444451</v>
+        <v>67.797222222222217</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -3168,11 +3167,11 @@
       </c>
       <c r="H25" s="1">
         <f>AVERAGE('7days'!H167:H173)</f>
-        <v>4.0600000000000005</v>
+        <v>3.871428571428571</v>
       </c>
       <c r="I25" s="1">
         <f>AVERAGE('7days'!I167:I173)</f>
-        <v>3.871428571428571</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="J25" s="1">
         <f>AVERAGE('7days'!J167:J173)</f>
@@ -3200,7 +3199,7 @@
       </c>
       <c r="X25" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>56.097222222222221</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -3229,11 +3228,11 @@
       </c>
       <c r="H26" s="1">
         <f>AVERAGE('7days'!H174:H180)</f>
-        <v>4.8014285714285716</v>
+        <v>2.9042857142857139</v>
       </c>
       <c r="I26" s="1">
         <f>AVERAGE('7days'!I174:I180)</f>
-        <v>2.9042857142857139</v>
+        <v>4.8014285714285716</v>
       </c>
       <c r="J26" s="1">
         <f>AVERAGE('7days'!J174:J180)</f>
@@ -3261,7 +3260,7 @@
       </c>
       <c r="X26" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>69.13055555555556</v>
+        <v>69.13333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -3290,11 +3289,11 @@
       </c>
       <c r="H27" s="1">
         <f>AVERAGE('7days'!H181:H187)</f>
-        <v>13.295714285714284</v>
+        <v>2.73</v>
       </c>
       <c r="I27" s="1">
         <f>AVERAGE('7days'!I181:I187)</f>
-        <v>2.73</v>
+        <v>13.295714285714284</v>
       </c>
       <c r="J27" s="1">
         <f>AVERAGE('7days'!J181:J187)</f>
@@ -3322,7 +3321,7 @@
       </c>
       <c r="X27" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>53.383333333333333</v>
+        <v>53.386111111111113</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3351,11 +3350,11 @@
       </c>
       <c r="H28" s="1">
         <f>AVERAGE('7days'!H189:H193)</f>
-        <v>3.254</v>
+        <v>4.0939999999999994</v>
       </c>
       <c r="I28" s="1">
         <f>AVERAGE('7days'!I189:I193)</f>
-        <v>4.0939999999999994</v>
+        <v>3.254</v>
       </c>
       <c r="J28" s="1">
         <f>AVERAGE('7days'!J189:J193)</f>
@@ -3385,7 +3384,7 @@
       </c>
       <c r="X28" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>68.091666666666669</v>
+        <v>68.094444444444449</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3415,10 +3414,10 @@
       <c r="L29" t="s">
         <v>75</v>
       </c>
-      <c r="S29" s="43" t="s">
+      <c r="S29" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="T29" s="44"/>
+      <c r="T29" s="43"/>
       <c r="U29" s="27"/>
       <c r="X29" s="14"/>
     </row>
@@ -3436,7 +3435,7 @@
       <c r="S30" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="T30" s="41">
+      <c r="T30" s="40">
         <f>Q30/(Q30+Q31)*100</f>
         <v>85.714285714285708</v>
       </c>
@@ -3446,7 +3445,7 @@
       </c>
       <c r="X30" s="1">
         <f ca="1">AVERAGE(X2:X29)</f>
-        <v>68.199794238683126</v>
+        <v>68.20257201646092</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3466,15 +3465,14 @@
         <v>36</v>
       </c>
       <c r="H31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="27"/>
       <c r="P31" s="6" t="s">
         <v>53</v>
       </c>
@@ -3485,7 +3483,7 @@
       <c r="S31" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="T31" s="42">
+      <c r="T31" s="41">
         <f>Q32/(Q32+Q33)*100</f>
         <v>38.461538461538467</v>
       </c>
@@ -3495,11 +3493,11 @@
       </c>
       <c r="X31" s="1">
         <f ca="1">_xlfn.STDEV.P(X2:X28)</f>
-        <v>7.2211510730653146</v>
+        <v>7.2211510730651378</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="50" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3526,18 +3524,17 @@
         <v>5.2223985890652562</v>
       </c>
       <c r="H32" s="16">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H2:H28)</f>
+        <v>3.8183271604938276</v>
+      </c>
+      <c r="I32" s="16">
+        <f>AVERAGE(I2:I28)</f>
         <v>4.2669691358024684</v>
-      </c>
-      <c r="I32" s="16">
-        <f t="shared" si="3"/>
-        <v>3.8183271604938276</v>
       </c>
       <c r="J32" s="16">
         <f t="shared" si="3"/>
         <v>74.750865079365084</v>
       </c>
-      <c r="K32" s="40"/>
       <c r="P32" s="6" t="s">
         <v>54</v>
       </c>
@@ -3548,7 +3545,7 @@
       <c r="S32" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="T32" s="42">
+      <c r="T32" s="41">
         <f>(Q30+Q32)/(Q30+Q32+Q33+Q31)*100</f>
         <v>62.962962962962962</v>
       </c>
@@ -3558,7 +3555,7 @@
       </c>
       <c r="X32" s="1">
         <f ca="1">MEDIAN(X2:X28)</f>
-        <v>69.594444444444449</v>
+        <v>69.597222222222229</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3589,18 +3586,17 @@
         <v>2.1150592888709632</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="4"/>
+        <f>_xlfn.STDEV.P(H2:H28)</f>
+        <v>0.85451541752639737</v>
+      </c>
+      <c r="I33" s="1">
+        <f>_xlfn.STDEV.P(I2:I28)</f>
         <v>2.0658328694549941</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="4"/>
-        <v>0.85451541752639737</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="4"/>
         <v>5.4399839797913314</v>
       </c>
-      <c r="K33" s="1"/>
       <c r="P33" s="6" t="s">
         <v>51</v>
       </c>
@@ -3642,18 +3638,17 @@
         <v>5</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="5"/>
+        <f>MEDIAN(H2:H28)</f>
+        <v>3.8416666666666668</v>
+      </c>
+      <c r="I34" s="1">
+        <f>MEDIAN(I2:I28)</f>
         <v>3.8728571428571432</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="5"/>
-        <v>3.8416666666666668</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="5"/>
         <v>75.41857142857144</v>
       </c>
-      <c r="K34" s="1"/>
       <c r="P34" s="27"/>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -3694,10 +3689,10 @@
         <v>36</v>
       </c>
       <c r="H36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>6</v>
@@ -3706,7 +3701,7 @@
       <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="49" t="s">
         <v>95</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3727,13 +3722,13 @@
       <c r="G37" s="16">
         <v>3.2857142857142856</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="8">
+        <v>3.1485714285714286</v>
+      </c>
+      <c r="I37" s="16">
         <v>4.7785714285714276</v>
       </c>
-      <c r="I37" s="8">
-        <v>3.1485714285714286</v>
-      </c>
-      <c r="J37" s="45">
+      <c r="J37" s="44">
         <v>78.735000000000014</v>
       </c>
       <c r="P37" s="27"/>
@@ -3761,11 +3756,11 @@
       <c r="G38" s="1">
         <v>1.2198750911856666</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38">
+        <v>0.71327714509458917</v>
+      </c>
+      <c r="I38" s="1">
         <v>1.0823304882124893</v>
-      </c>
-      <c r="I38">
-        <v>0.71327714509458917</v>
       </c>
       <c r="J38">
         <v>3.6997004383238039</v>
@@ -3790,11 +3785,11 @@
       <c r="G39" s="1">
         <v>3.5</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1">
         <v>4.3849999999999998</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
       </c>
       <c r="J39">
         <v>77.400000000000006</v>
@@ -4053,7 +4048,7 @@
   <dimension ref="A1:AW37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="U1" sqref="U1:U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,10 +4078,10 @@
         <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>65</v>
@@ -4110,10 +4105,10 @@
         <v>64</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>65</v>
@@ -4171,7 +4166,7 @@
       <c r="A2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4190,15 +4185,15 @@
         <v>36</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="45" t="s">
         <v>78</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -4217,79 +4212,79 @@
         <v>36</v>
       </c>
       <c r="T2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>71</v>
       </c>
       <c r="AC2" s="22">
-        <f>_xlfn.NORM.S.DIST(C3,TRUE)</f>
+        <f t="shared" ref="AC2:AC28" si="0">_xlfn.NORM.S.DIST(C3,TRUE)</f>
         <v>8.5766865591234837E-2</v>
       </c>
       <c r="AD2" s="22">
-        <f>_xlfn.NORM.S.DIST(D3,TRUE)</f>
+        <f t="shared" ref="AD2:AD28" si="1">_xlfn.NORM.S.DIST(D3,TRUE)</f>
         <v>0.396223897640608</v>
       </c>
       <c r="AE2" s="22">
-        <f>_xlfn.NORM.S.DIST(E3,TRUE)</f>
+        <f t="shared" ref="AE2:AE28" si="2">_xlfn.NORM.S.DIST(E3,TRUE)</f>
         <v>4.6047963258754682E-2</v>
       </c>
       <c r="AF2" s="22">
-        <f>_xlfn.NORM.S.DIST(F3,TRUE)</f>
+        <f t="shared" ref="AF2:AF28" si="3">_xlfn.NORM.S.DIST(F3,TRUE)</f>
         <v>0.2205828392574454</v>
       </c>
       <c r="AG2" s="22">
-        <f>_xlfn.NORM.S.DIST(G3,TRUE)</f>
+        <f t="shared" ref="AG2:AG28" si="4">_xlfn.NORM.S.DIST(G3,TRUE)</f>
         <v>0.79382240805487347</v>
       </c>
       <c r="AH2" s="22">
+        <f>_xlfn.NORM.S.DIST(I3,TRUE)</f>
+        <v>0.36275882459132197</v>
+      </c>
+      <c r="AI2" s="22">
         <f>_xlfn.NORM.S.DIST(H3,TRUE)</f>
-        <v>0.36275882459132197</v>
-      </c>
-      <c r="AI2" s="22">
-        <f>_xlfn.NORM.S.DIST(I3,TRUE)</f>
         <v>0.704282572292389</v>
       </c>
       <c r="AJ2" s="22">
-        <f>_xlfn.NORM.S.DIST(J3,TRUE)</f>
+        <f t="shared" ref="AJ2:AJ28" si="5">_xlfn.NORM.S.DIST(J3,TRUE)</f>
         <v>0.22521621169180087</v>
       </c>
       <c r="AL2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AN2" s="22">
-        <f>_xlfn.NORM.S.DIST(C3,FALSE)</f>
+        <f t="shared" ref="AN2:AN28" si="6">_xlfn.NORM.S.DIST(C3,FALSE)</f>
         <v>0.15665920018195212</v>
       </c>
       <c r="AO2" s="22">
-        <f>_xlfn.NORM.S.DIST(D3,FALSE)</f>
+        <f t="shared" ref="AO2:AO28" si="7">_xlfn.NORM.S.DIST(D3,FALSE)</f>
         <v>0.38536739973937018</v>
       </c>
       <c r="AP2" s="22">
-        <f>_xlfn.NORM.S.DIST(E3,FALSE)</f>
+        <f t="shared" ref="AP2:AP28" si="8">_xlfn.NORM.S.DIST(E3,FALSE)</f>
         <v>9.655774662092674E-2</v>
       </c>
       <c r="AQ2" s="22">
-        <f>_xlfn.NORM.S.DIST(F3,FALSE)</f>
+        <f t="shared" ref="AQ2:AQ28" si="9">_xlfn.NORM.S.DIST(F3,FALSE)</f>
         <v>0.29654307494599325</v>
       </c>
       <c r="AR2" s="22">
-        <f>_xlfn.NORM.S.DIST(G3,FALSE)</f>
+        <f t="shared" ref="AR2:AR28" si="10">_xlfn.NORM.S.DIST(G3,FALSE)</f>
         <v>0.28509337146181229</v>
       </c>
       <c r="AS2" s="22">
+        <f>_xlfn.NORM.S.DIST(I3,FALSE)</f>
+        <v>0.37509643884374366</v>
+      </c>
+      <c r="AT2" s="22">
         <f>_xlfn.NORM.S.DIST(H3,FALSE)</f>
-        <v>0.37509643884374366</v>
-      </c>
-      <c r="AT2" s="22">
-        <f>_xlfn.NORM.S.DIST(I3,FALSE)</f>
         <v>0.34542039930609653</v>
       </c>
       <c r="AU2" s="22">
-        <f>_xlfn.NORM.S.DIST(J3,FALSE)</f>
+        <f t="shared" ref="AU2:AU28" si="11">_xlfn.NORM.S.DIST(J3,FALSE)</f>
         <v>0.30007576642706679</v>
       </c>
       <c r="AW2" s="3" t="s">
@@ -4325,25 +4320,25 @@
       </c>
       <c r="H3" s="1">
         <f>STANDARDIZE(mean!H2,mean!$H$37,mean!$H$38)</f>
-        <v>-0.35109423982649118</v>
+        <v>0.53675790047411531</v>
       </c>
       <c r="I3" s="1">
         <f>STANDARDIZE(mean!I2,mean!$I$37,mean!$I$38)</f>
-        <v>0.53675790047411531</v>
+        <v>-0.35109423982649118</v>
       </c>
       <c r="J3" s="1">
         <f>STANDARDIZE(mean!J2,mean!$J$37,mean!$J$38)</f>
         <v>-0.75469430665794479</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f>IF(OR(OR(E3&lt;-1.6,H3&lt;-1.6,J3&lt;-1.6),OR(D3&gt;1.6,F3&gt;1.6,G3&gt;1.6,I3&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(E3&lt;-1.6,I3&lt;-1.6,J3&lt;-1.6),OR(D3&gt;1.6,F3&gt;1.6,G3&gt;1.6,H3&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M3" s="3" t="str">
         <f>IF(AND(L3="y",A3="y"),"TP",IF(AND(L3="y",A3="x"),"FP",IF(AND(L3="x",A3="y"),"FN","TN")))</f>
         <v>FP</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="46" t="s">
         <v>89</v>
       </c>
       <c r="O3" s="1">
@@ -4368,18 +4363,18 @@
       </c>
       <c r="T3" s="1">
         <f>STANDARDIZE(mean!H2,mean!$H$39,mean!$H$38)</f>
-        <v>1.2539079993803491E-2</v>
+        <v>0.74505201110586161</v>
       </c>
       <c r="U3" s="1">
         <f>STANDARDIZE(mean!I2,mean!$I$39,mean!$I$38)</f>
-        <v>0.74505201110586161</v>
+        <v>1.2539079993803491E-2</v>
       </c>
       <c r="V3" s="1">
         <f>STANDARDIZE(mean!J2,mean!$J$39,mean!$J$38)</f>
         <v>-0.39385428129501393</v>
       </c>
       <c r="X3" s="3" t="str">
-        <f>IF(OR(OR(Q3&lt;-1.6,T3&lt;-1.6,V3&lt;-1.6),OR(P3&gt;1.6,R3&gt;1.6,S3&gt;1.6,U3&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(Q3&lt;-1.6,U3&lt;-1.6,V3&lt;-1.6),OR(P3&gt;1.6,R3&gt;1.6,S3&gt;1.6,T3&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y3" s="3" t="str">
@@ -4387,70 +4382,70 @@
         <v>TN</v>
       </c>
       <c r="AC3" s="22">
-        <f>_xlfn.NORM.S.DIST(C4,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>0.70997308815864002</v>
       </c>
       <c r="AD3" s="22">
-        <f>_xlfn.NORM.S.DIST(D4,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.38087106445157182</v>
       </c>
       <c r="AE3" s="22">
-        <f>_xlfn.NORM.S.DIST(E4,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.79906290512745448</v>
       </c>
       <c r="AF3" s="22">
-        <f>_xlfn.NORM.S.DIST(F4,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>0.65736457288685535</v>
       </c>
       <c r="AG3" s="22">
-        <f>_xlfn.NORM.S.DIST(G4,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.98248208998659858</v>
       </c>
       <c r="AH3" s="22">
+        <f>_xlfn.NORM.S.DIST(I4,TRUE)</f>
+        <v>0.64316553132862175</v>
+      </c>
+      <c r="AI3" s="22">
         <f>_xlfn.NORM.S.DIST(H4,TRUE)</f>
-        <v>0.64316553132862175</v>
-      </c>
-      <c r="AI3" s="22">
-        <f>_xlfn.NORM.S.DIST(I4,TRUE)</f>
         <v>0.23668321680267773</v>
       </c>
       <c r="AJ3" s="22">
-        <f>_xlfn.NORM.S.DIST(J4,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.7222135585813223</v>
       </c>
       <c r="AL3" t="s">
         <v>9</v>
       </c>
       <c r="AN3" s="22">
-        <f>_xlfn.NORM.S.DIST(C4,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.34231895683322022</v>
       </c>
       <c r="AO3" s="22">
-        <f>_xlfn.NORM.S.DIST(D4,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.38102061748197996</v>
       </c>
       <c r="AP3" s="22">
-        <f>_xlfn.NORM.S.DIST(E4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.28074903248702188</v>
       </c>
       <c r="AQ3" s="22">
-        <f>_xlfn.NORM.S.DIST(F4,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.36748787941055294</v>
       </c>
       <c r="AR3" s="22">
-        <f>_xlfn.NORM.S.DIST(G4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>4.3254551293593423E-2</v>
       </c>
       <c r="AS3" s="22">
+        <f>_xlfn.NORM.S.DIST(I4,FALSE)</f>
+        <v>0.37296955861359143</v>
+      </c>
+      <c r="AT3" s="22">
         <f>_xlfn.NORM.S.DIST(H4,FALSE)</f>
-        <v>0.37296955861359143</v>
-      </c>
-      <c r="AT3" s="22">
-        <f>_xlfn.NORM.S.DIST(I4,FALSE)</f>
         <v>0.30851280231346612</v>
       </c>
       <c r="AU3" s="22">
-        <f>_xlfn.NORM.S.DIST(J4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.33532590384457006</v>
       </c>
       <c r="AW3" s="11" t="s">
@@ -4483,22 +4478,22 @@
       </c>
       <c r="H4" s="1">
         <f>STANDARDIZE(mean!H3,mean!$H$37,mean!$H$38)</f>
-        <v>0.36693307771340283</v>
+        <v>-0.71701241929004966</v>
       </c>
       <c r="I4" s="1">
         <f>STANDARDIZE(mean!I3,mean!$I$37,mean!$I$38)</f>
-        <v>-0.71701241929004966</v>
+        <v>0.36693307771340283</v>
       </c>
       <c r="J4" s="1">
         <f>STANDARDIZE(mean!J3,mean!$J$37,mean!$J$38)</f>
         <v>0.58942996117336677</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" ref="L4:L29" si="0">IF(OR(OR(E4&lt;-1.6,H4&lt;-1.6,J4&lt;-1.6),OR(D4&gt;1.6,F4&gt;1.6,G4&gt;1.6,I4&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(E4&lt;-1.6,I4&lt;-1.6,J4&lt;-1.6),OR(D4&gt;1.6,F4&gt;1.6,G4&gt;1.6,H4&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M29" si="1">IF(AND(L4="y",A4="y"),"TP",IF(AND(L4="y",A4="x"),"FP",IF(AND(L4="x",A4="y"),"FN","TN")))</f>
+        <f t="shared" ref="M4:M29" si="12">IF(AND(L4="y",A4="y"),"TP",IF(AND(L4="y",A4="x"),"FP",IF(AND(L4="x",A4="y"),"FN","TN")))</f>
         <v>TP</v>
       </c>
       <c r="O4" s="1">
@@ -4523,89 +4518,89 @@
       </c>
       <c r="T4" s="1">
         <f>STANDARDIZE(mean!H3,mean!$H$39,mean!$H$38)</f>
-        <v>0.73056639753369745</v>
+        <v>-0.50871830865830325</v>
       </c>
       <c r="U4" s="1">
         <f>STANDARDIZE(mean!I3,mean!$I$39,mean!$I$38)</f>
-        <v>-0.50871830865830325</v>
+        <v>0.73056639753369745</v>
       </c>
       <c r="V4" s="1">
         <f>STANDARDIZE(mean!J3,mean!$J$39,mean!$J$38)</f>
         <v>0.95026998653629768</v>
       </c>
       <c r="X4" s="3" t="str">
-        <f t="shared" ref="X4:X29" si="2">IF(OR(OR(Q4&lt;-1.6,T4&lt;-1.6,V4&lt;-1.6),OR(P4&gt;1.6,R4&gt;1.6,S4&gt;1.6,U4&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(Q4&lt;-1.6,U4&lt;-1.6,V4&lt;-1.6),OR(P4&gt;1.6,R4&gt;1.6,S4&gt;1.6,T4&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y4" s="3" t="str">
-        <f t="shared" ref="Y4:Y29" si="3">IF(AND(X4="y",A4="y"),"TP",IF(AND(X4="y",A4="x"),"FP",IF(AND(X4="x",A4="y"),"FN","TN")))</f>
+        <f t="shared" ref="Y4:Y29" si="13">IF(AND(X4="y",A4="y"),"TP",IF(AND(X4="y",A4="x"),"FP",IF(AND(X4="x",A4="y"),"FN","TN")))</f>
         <v>TP</v>
       </c>
       <c r="AC4" s="22">
-        <f>_xlfn.NORM.S.DIST(C5,TRUE)</f>
+        <f t="shared" si="0"/>
         <v>0.264773115632223</v>
       </c>
       <c r="AD4" s="22">
-        <f>_xlfn.NORM.S.DIST(D5,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0.3572050221827463</v>
       </c>
       <c r="AE4" s="22">
-        <f>_xlfn.NORM.S.DIST(E5,TRUE)</f>
+        <f t="shared" si="2"/>
         <v>0.11486523445835559</v>
       </c>
       <c r="AF4" s="22">
-        <f>_xlfn.NORM.S.DIST(F5,TRUE)</f>
+        <f t="shared" si="3"/>
         <v>0.96855296402526125</v>
       </c>
       <c r="AG4" s="22">
-        <f>_xlfn.NORM.S.DIST(G5,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.9988358564086951</v>
       </c>
       <c r="AH4" s="22">
+        <f>_xlfn.NORM.S.DIST(I5,TRUE)</f>
+        <v>4.0903851587361033E-2</v>
+      </c>
+      <c r="AI4" s="22">
         <f>_xlfn.NORM.S.DIST(H5,TRUE)</f>
-        <v>4.0903851587361033E-2</v>
-      </c>
-      <c r="AI4" s="22">
-        <f>_xlfn.NORM.S.DIST(I5,TRUE)</f>
         <v>0.96999060024606942</v>
       </c>
       <c r="AJ4" s="22">
-        <f>_xlfn.NORM.S.DIST(J5,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>1.5123448045227568E-2</v>
       </c>
       <c r="AL4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="AN4" s="22">
-        <f>_xlfn.NORM.S.DIST(C5,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.32740096876399682</v>
       </c>
       <c r="AO4" s="22">
-        <f>_xlfn.NORM.S.DIST(D5,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.37310534289976727</v>
       </c>
       <c r="AP4" s="22">
-        <f>_xlfn.NORM.S.DIST(E5,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.19394062440859311</v>
       </c>
       <c r="AQ4" s="22">
-        <f>_xlfn.NORM.S.DIST(F5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>7.0748341096749684E-2</v>
       </c>
       <c r="AR4" s="22">
-        <f>_xlfn.NORM.S.DIST(G5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>3.8705173270529611E-3</v>
       </c>
       <c r="AS4" s="22">
+        <f>_xlfn.NORM.S.DIST(I5,FALSE)</f>
+        <v>8.7751423000114681E-2</v>
+      </c>
+      <c r="AT4" s="22">
         <f>_xlfn.NORM.S.DIST(H5,FALSE)</f>
-        <v>8.7751423000114681E-2</v>
-      </c>
-      <c r="AT4" s="22">
-        <f>_xlfn.NORM.S.DIST(I5,FALSE)</f>
         <v>6.8059629764337964E-2</v>
       </c>
       <c r="AU4" s="22">
-        <f>_xlfn.NORM.S.DIST(J5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>3.8138123661940873E-2</v>
       </c>
       <c r="AW4" s="11" t="s">
@@ -4638,22 +4633,22 @@
       </c>
       <c r="H5" s="1">
         <f>STANDARDIZE(mean!H4,mean!$H$37,mean!$H$38)</f>
-        <v>-1.7402923128241716</v>
+        <v>1.8806554796462476</v>
       </c>
       <c r="I5" s="1">
         <f>STANDARDIZE(mean!I4,mean!$I$37,mean!$I$38)</f>
-        <v>1.8806554796462476</v>
+        <v>-1.7402923128241716</v>
       </c>
       <c r="J5" s="1">
         <f>STANDARDIZE(mean!J4,mean!$J$37,mean!$J$38)</f>
         <v>-2.1668420998697755</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E5&lt;-1.6,I5&lt;-1.6,J5&lt;-1.6),OR(D5&gt;1.6,F5&gt;1.6,G5&gt;1.6,H5&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M5" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TP</v>
       </c>
       <c r="O5" s="1">
@@ -4678,89 +4673,89 @@
       </c>
       <c r="T5" s="1">
         <f>STANDARDIZE(mean!H4,mean!$H$39,mean!$H$38)</f>
-        <v>-1.3766589930038771</v>
+        <v>2.088949590277994</v>
       </c>
       <c r="U5" s="1">
         <f>STANDARDIZE(mean!I4,mean!$I$39,mean!$I$38)</f>
-        <v>2.088949590277994</v>
+        <v>-1.3766589930038771</v>
       </c>
       <c r="V5" s="1">
         <f>STANDARDIZE(mean!J4,mean!$J$39,mean!$J$38)</f>
         <v>-1.8060020745068446</v>
       </c>
       <c r="X5" s="3" t="str">
+        <f>IF(OR(OR(Q5&lt;-1.6,U5&lt;-1.6,V5&lt;-1.6),OR(P5&gt;1.6,R5&gt;1.6,S5&gt;1.6,T5&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TP</v>
+      </c>
+      <c r="AC5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.33569395959818316</v>
+      </c>
+      <c r="AD5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.56546113026494549</v>
+      </c>
+      <c r="AE5" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y5" s="3" t="str">
+        <v>0.31358642767420242</v>
+      </c>
+      <c r="AF5" s="22">
         <f t="shared" si="3"/>
-        <v>TP</v>
-      </c>
-      <c r="AC5" s="22">
-        <f>_xlfn.NORM.S.DIST(C6,TRUE)</f>
-        <v>0.33569395959818316</v>
-      </c>
-      <c r="AD5" s="22">
-        <f>_xlfn.NORM.S.DIST(D6,TRUE)</f>
-        <v>0.56546113026494549</v>
-      </c>
-      <c r="AE5" s="22">
-        <f>_xlfn.NORM.S.DIST(E6,TRUE)</f>
-        <v>0.31358642767420242</v>
-      </c>
-      <c r="AF5" s="22">
-        <f>_xlfn.NORM.S.DIST(F6,TRUE)</f>
         <v>0.20170904921716298</v>
       </c>
       <c r="AG5" s="22">
-        <f>_xlfn.NORM.S.DIST(G6,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.27909232471132872</v>
       </c>
       <c r="AH5" s="22">
+        <f>_xlfn.NORM.S.DIST(I6,TRUE)</f>
+        <v>0.70077866771427855</v>
+      </c>
+      <c r="AI5" s="22">
         <f>_xlfn.NORM.S.DIST(H6,TRUE)</f>
-        <v>0.70077866771427855</v>
-      </c>
-      <c r="AI5" s="22">
-        <f>_xlfn.NORM.S.DIST(I6,TRUE)</f>
         <v>0.46409304374539179</v>
       </c>
       <c r="AJ5" s="22">
-        <f>_xlfn.NORM.S.DIST(J6,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.49299134762675639</v>
       </c>
       <c r="AL5" t="s">
         <v>11</v>
       </c>
       <c r="AN5" s="22">
-        <f>_xlfn.NORM.S.DIST(C6,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.36460890492127129</v>
       </c>
       <c r="AO5" s="22">
-        <f>_xlfn.NORM.S.DIST(D6,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.39355950280099439</v>
       </c>
       <c r="AP5" s="22">
-        <f>_xlfn.NORM.S.DIST(E6,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.35455365435855657</v>
       </c>
       <c r="AQ5" s="22">
-        <f>_xlfn.NORM.S.DIST(F6,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.28139508490129922</v>
       </c>
       <c r="AR5" s="22">
-        <f>_xlfn.NORM.S.DIST(G6,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.33609308972659285</v>
       </c>
       <c r="AS5" s="22">
+        <f>_xlfn.NORM.S.DIST(I6,FALSE)</f>
+        <v>0.34728340818509101</v>
+      </c>
+      <c r="AT5" s="22">
         <f>_xlfn.NORM.S.DIST(H6,FALSE)</f>
-        <v>0.34728340818509101</v>
-      </c>
-      <c r="AT5" s="22">
-        <f>_xlfn.NORM.S.DIST(I6,FALSE)</f>
         <v>0.39732527763109393</v>
       </c>
       <c r="AU5" s="22">
-        <f>_xlfn.NORM.S.DIST(J6,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.39888071451335688</v>
       </c>
       <c r="AW5" t="s">
@@ -4793,22 +4788,22 @@
       </c>
       <c r="H6" s="1">
         <f>STANDARDIZE(mean!H5,mean!$H$37,mean!$H$38)</f>
-        <v>0.52664135973973836</v>
+        <v>-9.0127259407968105E-2</v>
       </c>
       <c r="I6" s="1">
         <f>STANDARDIZE(mean!I5,mean!$I$37,mean!$I$38)</f>
-        <v>-9.0127259407968105E-2</v>
+        <v>0.52664135973973836</v>
       </c>
       <c r="J6" s="1">
         <f>STANDARDIZE(mean!J5,mean!$J$37,mean!$J$38)</f>
         <v>-1.7568989998947324E-2</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E6&lt;-1.6,I6&lt;-1.6,J6&lt;-1.6),OR(D6&gt;1.6,F6&gt;1.6,G6&gt;1.6,H6&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TN</v>
       </c>
       <c r="O6" s="1">
@@ -4833,89 +4828,89 @@
       </c>
       <c r="T6" s="1">
         <f>STANDARDIZE(mean!H5,mean!$H$39,mean!$H$38)</f>
-        <v>0.89027467956003303</v>
+        <v>0.11816685122377828</v>
       </c>
       <c r="U6" s="1">
         <f>STANDARDIZE(mean!I5,mean!$I$39,mean!$I$38)</f>
-        <v>0.11816685122377828</v>
+        <v>0.89027467956003303</v>
       </c>
       <c r="V6" s="1">
         <f>STANDARDIZE(mean!J5,mean!$J$39,mean!$J$38)</f>
         <v>0.34327103536398357</v>
       </c>
       <c r="X6" s="3" t="str">
+        <f>IF(OR(OR(Q6&lt;-1.6,U6&lt;-1.6,V6&lt;-1.6),OR(P6&gt;1.6,R6&gt;1.6,S6&gt;1.6,T6&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y6" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TN</v>
+      </c>
+      <c r="AC6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.34036561417756372</v>
+      </c>
+      <c r="AD6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.53407449813013397</v>
+      </c>
+      <c r="AE6" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y6" s="3" t="str">
+        <v>5.3776362445025185E-2</v>
+      </c>
+      <c r="AF6" s="22">
         <f t="shared" si="3"/>
-        <v>TN</v>
-      </c>
-      <c r="AC6" s="22">
-        <f>_xlfn.NORM.S.DIST(C7,TRUE)</f>
-        <v>0.34036561417756372</v>
-      </c>
-      <c r="AD6" s="22">
-        <f>_xlfn.NORM.S.DIST(D7,TRUE)</f>
-        <v>0.53407449813013397</v>
-      </c>
-      <c r="AE6" s="22">
-        <f>_xlfn.NORM.S.DIST(E7,TRUE)</f>
-        <v>5.3776362445025185E-2</v>
-      </c>
-      <c r="AF6" s="22">
-        <f>_xlfn.NORM.S.DIST(F7,TRUE)</f>
         <v>0.99997275979793876</v>
       </c>
       <c r="AG6" s="22">
-        <f>_xlfn.NORM.S.DIST(G7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.99999993173622082</v>
       </c>
       <c r="AH6" s="22">
+        <f>_xlfn.NORM.S.DIST(I7,TRUE)</f>
+        <v>6.0287706986371899E-3</v>
+      </c>
+      <c r="AI6" s="22">
         <f>_xlfn.NORM.S.DIST(H7,TRUE)</f>
-        <v>6.0287706986371899E-3</v>
-      </c>
-      <c r="AI6" s="22">
-        <f>_xlfn.NORM.S.DIST(I7,TRUE)</f>
         <v>0.9995911393953113</v>
       </c>
       <c r="AJ6" s="22">
-        <f>_xlfn.NORM.S.DIST(J7,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>6.7239724851588E-7</v>
       </c>
       <c r="AL6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="AN6" s="22">
-        <f>_xlfn.NORM.S.DIST(C7,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.36656095129075478</v>
       </c>
       <c r="AO6" s="22">
-        <f>_xlfn.NORM.S.DIST(D7,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.39748620700323872</v>
       </c>
       <c r="AP6" s="22">
-        <f>_xlfn.NORM.S.DIST(E7,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.1092794076592029</v>
       </c>
       <c r="AQ6" s="22">
-        <f>_xlfn.NORM.S.DIST(F7,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>1.1602923252784798E-4</v>
       </c>
       <c r="AR6" s="22">
-        <f>_xlfn.NORM.S.DIST(G7,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>3.7189554358486531E-7</v>
       </c>
       <c r="AS6" s="22">
+        <f>_xlfn.NORM.S.DIST(I7,FALSE)</f>
+        <v>1.7075122354814901E-2</v>
+      </c>
+      <c r="AT6" s="22">
         <f>_xlfn.NORM.S.DIST(H7,FALSE)</f>
-        <v>1.7075122354814901E-2</v>
-      </c>
-      <c r="AT6" s="22">
-        <f>_xlfn.NORM.S.DIST(I7,FALSE)</f>
         <v>1.474812316530328E-3</v>
       </c>
       <c r="AU6" s="22">
-        <f>_xlfn.NORM.S.DIST(J7,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>3.3788872683528789E-6</v>
       </c>
       <c r="AW6" s="11" t="s">
@@ -4948,22 +4943,22 @@
       </c>
       <c r="H7" s="1">
         <f>STANDARDIZE(mean!H6,mean!$H$37,mean!$H$38)</f>
-        <v>-2.510455805075142</v>
+        <v>3.3467255660158477</v>
       </c>
       <c r="I7" s="1">
         <f>STANDARDIZE(mean!I6,mean!$I$37,mean!$I$38)</f>
-        <v>3.3467255660158477</v>
+        <v>-2.510455805075142</v>
       </c>
       <c r="J7" s="1">
         <f>STANDARDIZE(mean!J6,mean!$J$37,mean!$J$38)</f>
         <v>-4.8330167763029435</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E7&lt;-1.6,I7&lt;-1.6,J7&lt;-1.6),OR(D7&gt;1.6,F7&gt;1.6,G7&gt;1.6,H7&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TP</v>
       </c>
       <c r="O7" s="1">
@@ -4988,89 +4983,89 @@
       </c>
       <c r="T7" s="1">
         <f>STANDARDIZE(mean!H6,mean!$H$39,mean!$H$38)</f>
-        <v>-2.1468224852548472</v>
+        <v>3.5550196766475941</v>
       </c>
       <c r="U7" s="1">
         <f>STANDARDIZE(mean!I6,mean!$I$39,mean!$I$38)</f>
-        <v>3.5550196766475941</v>
+        <v>-2.1468224852548472</v>
       </c>
       <c r="V7" s="1">
         <f>STANDARDIZE(mean!J6,mean!$J$39,mean!$J$38)</f>
         <v>-4.4721767509400125</v>
       </c>
       <c r="X7" s="3" t="str">
+        <f>IF(OR(OR(Q7&lt;-1.6,U7&lt;-1.6,V7&lt;-1.6),OR(P7&gt;1.6,R7&gt;1.6,S7&gt;1.6,T7&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y7" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TP</v>
+      </c>
+      <c r="AC7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.27533622754614234</v>
+      </c>
+      <c r="AD7" s="22">
+        <f t="shared" si="1"/>
+        <v>0.37134215512536495</v>
+      </c>
+      <c r="AE7" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y7" s="3" t="str">
+        <v>0.22686571366794753</v>
+      </c>
+      <c r="AF7" s="22">
         <f t="shared" si="3"/>
-        <v>TP</v>
-      </c>
-      <c r="AC7" s="22">
-        <f>_xlfn.NORM.S.DIST(C8,TRUE)</f>
-        <v>0.27533622754614234</v>
-      </c>
-      <c r="AD7" s="22">
-        <f>_xlfn.NORM.S.DIST(D8,TRUE)</f>
-        <v>0.37134215512536495</v>
-      </c>
-      <c r="AE7" s="22">
-        <f>_xlfn.NORM.S.DIST(E8,TRUE)</f>
-        <v>0.22686571366794753</v>
-      </c>
-      <c r="AF7" s="22">
-        <f>_xlfn.NORM.S.DIST(F8,TRUE)</f>
         <v>0.54206680326560464</v>
       </c>
       <c r="AG7" s="22">
-        <f>_xlfn.NORM.S.DIST(G8,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.68026216820753871</v>
       </c>
       <c r="AH7" s="22">
+        <f>_xlfn.NORM.S.DIST(I8,TRUE)</f>
+        <v>0.23800094547910097</v>
+      </c>
+      <c r="AI7" s="22">
         <f>_xlfn.NORM.S.DIST(H8,TRUE)</f>
-        <v>0.23800094547910097</v>
-      </c>
-      <c r="AI7" s="22">
-        <f>_xlfn.NORM.S.DIST(I8,TRUE)</f>
         <v>0.77066733284078803</v>
       </c>
       <c r="AJ7" s="22">
-        <f>_xlfn.NORM.S.DIST(J8,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.32913107195394942</v>
       </c>
       <c r="AL7" t="s">
         <v>13</v>
       </c>
       <c r="AN7" s="22">
-        <f>_xlfn.NORM.S.DIST(C8,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.33387270964666144</v>
       </c>
       <c r="AO7" s="22">
-        <f>_xlfn.NORM.S.DIST(D8,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.37801204830059199</v>
       </c>
       <c r="AP7" s="22">
-        <f>_xlfn.NORM.S.DIST(E8,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.30131610880593129</v>
       </c>
       <c r="AQ7" s="22">
-        <f>_xlfn.NORM.S.DIST(F8,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.39672233535656437</v>
       </c>
       <c r="AR7" s="22">
-        <f>_xlfn.NORM.S.DIST(G8,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.35748823770316207</v>
       </c>
       <c r="AS7" s="22">
+        <f>_xlfn.NORM.S.DIST(I8,FALSE)</f>
+        <v>0.3094548188437316</v>
+      </c>
+      <c r="AT7" s="22">
         <f>_xlfn.NORM.S.DIST(H8,FALSE)</f>
-        <v>0.3094548188437316</v>
-      </c>
-      <c r="AT7" s="22">
-        <f>_xlfn.NORM.S.DIST(I8,FALSE)</f>
         <v>0.30315429355367207</v>
       </c>
       <c r="AU7" s="22">
-        <f>_xlfn.NORM.S.DIST(J8,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.3617654217430904</v>
       </c>
       <c r="AW7" t="s">
@@ -5103,22 +5098,22 @@
       </c>
       <c r="H8" s="1">
         <f>STANDARDIZE(mean!H7,mean!$H$37,mean!$H$38)</f>
-        <v>-0.7127477049109221</v>
+        <v>0.74104635513217443</v>
       </c>
       <c r="I8" s="1">
         <f>STANDARDIZE(mean!I7,mean!$I$37,mean!$I$38)</f>
-        <v>0.74104635513217443</v>
+        <v>-0.7127477049109221</v>
       </c>
       <c r="J8" s="1">
         <f>STANDARDIZE(mean!J7,mean!$J$37,mean!$J$38)</f>
         <v>-0.44231380316023644</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E8&lt;-1.6,I8&lt;-1.6,J8&lt;-1.6),OR(D8&gt;1.6,F8&gt;1.6,G8&gt;1.6,H8&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TN</v>
       </c>
       <c r="O8" s="1">
@@ -5143,89 +5138,89 @@
       </c>
       <c r="T8" s="1">
         <f>STANDARDIZE(mean!H7,mean!$H$39,mean!$H$38)</f>
-        <v>-0.34911438509062742</v>
+        <v>0.94934046576392084</v>
       </c>
       <c r="U8" s="1">
         <f>STANDARDIZE(mean!I7,mean!$I$39,mean!$I$38)</f>
-        <v>0.94934046576392084</v>
+        <v>-0.34911438509062742</v>
       </c>
       <c r="V8" s="1">
         <f>STANDARDIZE(mean!J7,mean!$J$39,mean!$J$38)</f>
         <v>-8.1473777797305566E-2</v>
       </c>
       <c r="X8" s="3" t="str">
+        <f>IF(OR(OR(Q8&lt;-1.6,U8&lt;-1.6,V8&lt;-1.6),OR(P8&gt;1.6,R8&gt;1.6,S8&gt;1.6,T8&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y8" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TN</v>
+      </c>
+      <c r="AC8" s="22">
+        <f t="shared" si="0"/>
+        <v>7.0644140492084326E-2</v>
+      </c>
+      <c r="AD8" s="22">
+        <f t="shared" si="1"/>
+        <v>0.33389566813899618</v>
+      </c>
+      <c r="AE8" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y8" s="3" t="str">
+        <v>7.2476291767987269E-2</v>
+      </c>
+      <c r="AF8" s="22">
         <f t="shared" si="3"/>
-        <v>TN</v>
-      </c>
-      <c r="AC8" s="22">
-        <f>_xlfn.NORM.S.DIST(C9,TRUE)</f>
-        <v>7.0644140492084326E-2</v>
-      </c>
-      <c r="AD8" s="22">
-        <f>_xlfn.NORM.S.DIST(D9,TRUE)</f>
-        <v>0.33389566813899618</v>
-      </c>
-      <c r="AE8" s="22">
-        <f>_xlfn.NORM.S.DIST(E9,TRUE)</f>
-        <v>7.2476291767987269E-2</v>
-      </c>
-      <c r="AF8" s="22">
-        <f>_xlfn.NORM.S.DIST(F9,TRUE)</f>
         <v>2.1165702934746018E-2</v>
       </c>
       <c r="AG8" s="22">
-        <f>_xlfn.NORM.S.DIST(G9,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>9.2217281373197471E-2</v>
       </c>
       <c r="AH8" s="22">
+        <f>_xlfn.NORM.S.DIST(I9,TRUE)</f>
+        <v>0.840021689251637</v>
+      </c>
+      <c r="AI8" s="22">
         <f>_xlfn.NORM.S.DIST(H9,TRUE)</f>
-        <v>0.840021689251637</v>
-      </c>
-      <c r="AI8" s="22">
-        <f>_xlfn.NORM.S.DIST(I9,TRUE)</f>
         <v>0.3966465887673486</v>
       </c>
       <c r="AJ8" s="22">
-        <f>_xlfn.NORM.S.DIST(J9,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.86386208366228345</v>
       </c>
       <c r="AL8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="AN8" s="22">
-        <f>_xlfn.NORM.S.DIST(C9,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.13521698985158337</v>
       </c>
       <c r="AO8" s="22">
-        <f>_xlfn.NORM.S.DIST(D9,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.36384155287704972</v>
       </c>
       <c r="AP8" s="22">
-        <f>_xlfn.NORM.S.DIST(E9,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.13789977250112015</v>
       </c>
       <c r="AQ8" s="22">
-        <f>_xlfn.NORM.S.DIST(F9,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>5.0798389522720012E-2</v>
       </c>
       <c r="AR8" s="22">
-        <f>_xlfn.NORM.S.DIST(G9,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.16534841291015259</v>
       </c>
       <c r="AS8" s="22">
+        <f>_xlfn.NORM.S.DIST(I9,FALSE)</f>
+        <v>0.24329017077134116</v>
+      </c>
+      <c r="AT8" s="22">
         <f>_xlfn.NORM.S.DIST(H9,FALSE)</f>
-        <v>0.24329017077134116</v>
-      </c>
-      <c r="AT8" s="22">
-        <f>_xlfn.NORM.S.DIST(I9,FALSE)</f>
         <v>0.38547839208146129</v>
       </c>
       <c r="AU8" s="22">
-        <f>_xlfn.NORM.S.DIST(J9,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.2183707073622323</v>
       </c>
       <c r="AW8" s="3" t="s">
@@ -5258,22 +5253,22 @@
       </c>
       <c r="H9" s="1">
         <f>STANDARDIZE(mean!H8,mean!$H$37,mean!$H$38)</f>
-        <v>0.99454702898218761</v>
+        <v>-0.26203666161205308</v>
       </c>
       <c r="I9" s="1">
         <f>STANDARDIZE(mean!I8,mean!$I$37,mean!$I$38)</f>
-        <v>-0.26203666161205308</v>
+        <v>0.99454702898218761</v>
       </c>
       <c r="J9" s="1">
         <f>STANDARDIZE(mean!J8,mean!$J$37,mean!$J$38)</f>
         <v>1.0978366314724775</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E9&lt;-1.6,I9&lt;-1.6,J9&lt;-1.6),OR(D9&gt;1.6,F9&gt;1.6,G9&gt;1.6,H9&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TN</v>
       </c>
       <c r="O9" s="1">
@@ -5298,89 +5293,89 @@
       </c>
       <c r="T9" s="1">
         <f>STANDARDIZE(mean!H8,mean!$H$39,mean!$H$38)</f>
-        <v>1.3581803488024824</v>
+        <v>-5.3742550980306662E-2</v>
       </c>
       <c r="U9" s="1">
         <f>STANDARDIZE(mean!I8,mean!$I$39,mean!$I$38)</f>
-        <v>-5.3742550980306662E-2</v>
+        <v>1.3581803488024824</v>
       </c>
       <c r="V9" s="1">
         <f>STANDARDIZE(mean!J8,mean!$J$39,mean!$J$38)</f>
         <v>1.4586766568354084</v>
       </c>
       <c r="X9" s="3" t="str">
+        <f>IF(OR(OR(Q9&lt;-1.6,U9&lt;-1.6,V9&lt;-1.6),OR(P9&gt;1.6,R9&gt;1.6,S9&gt;1.6,T9&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y9" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TN</v>
+      </c>
+      <c r="AC9" s="22">
+        <f t="shared" si="0"/>
+        <v>0.31840520258833926</v>
+      </c>
+      <c r="AD9" s="22">
+        <f t="shared" si="1"/>
+        <v>0.38009704878952189</v>
+      </c>
+      <c r="AE9" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y9" s="3" t="str">
+        <v>0.40229287512305423</v>
+      </c>
+      <c r="AF9" s="22">
         <f t="shared" si="3"/>
-        <v>TN</v>
-      </c>
-      <c r="AC9" s="22">
-        <f>_xlfn.NORM.S.DIST(C10,TRUE)</f>
-        <v>0.31840520258833926</v>
-      </c>
-      <c r="AD9" s="22">
-        <f>_xlfn.NORM.S.DIST(D10,TRUE)</f>
-        <v>0.38009704878952189</v>
-      </c>
-      <c r="AE9" s="22">
-        <f>_xlfn.NORM.S.DIST(E10,TRUE)</f>
-        <v>0.40229287512305423</v>
-      </c>
-      <c r="AF9" s="22">
-        <f>_xlfn.NORM.S.DIST(F10,TRUE)</f>
         <v>0.10394641249091452</v>
       </c>
       <c r="AG9" s="22">
-        <f>_xlfn.NORM.S.DIST(G10,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.25975722482376412</v>
       </c>
       <c r="AH9" s="22">
+        <f>_xlfn.NORM.S.DIST(I10,TRUE)</f>
+        <v>0.92608987463289283</v>
+      </c>
+      <c r="AI9" s="22">
         <f>_xlfn.NORM.S.DIST(H10,TRUE)</f>
-        <v>0.92608987463289283</v>
-      </c>
-      <c r="AI9" s="22">
-        <f>_xlfn.NORM.S.DIST(I10,TRUE)</f>
         <v>0.22933266715921194</v>
       </c>
       <c r="AJ9" s="22">
-        <f>_xlfn.NORM.S.DIST(J10,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.8730823857683313</v>
       </c>
       <c r="AL9" t="s">
         <v>15</v>
       </c>
       <c r="AN9" s="22">
-        <f>_xlfn.NORM.S.DIST(C10,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.35686150618445572</v>
       </c>
       <c r="AO9" s="22">
-        <f>_xlfn.NORM.S.DIST(D10,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.38078515434669985</v>
       </c>
       <c r="AP9" s="22">
-        <f>_xlfn.NORM.S.DIST(E10,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.38691662624900125</v>
       </c>
       <c r="AQ9" s="22">
-        <f>_xlfn.NORM.S.DIST(F10,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.18051191015565443</v>
       </c>
       <c r="AR9" s="22">
-        <f>_xlfn.NORM.S.DIST(G10,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.32420893671151013</v>
       </c>
       <c r="AS9" s="22">
+        <f>_xlfn.NORM.S.DIST(I10,FALSE)</f>
+        <v>0.13998230229611777</v>
+      </c>
+      <c r="AT9" s="22">
         <f>_xlfn.NORM.S.DIST(H10,FALSE)</f>
-        <v>0.13998230229611777</v>
-      </c>
-      <c r="AT9" s="22">
-        <f>_xlfn.NORM.S.DIST(I10,FALSE)</f>
         <v>0.30315429355367207</v>
       </c>
       <c r="AU9" s="22">
-        <f>_xlfn.NORM.S.DIST(J10,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.20805055648444665</v>
       </c>
       <c r="AW9" t="s">
@@ -5413,22 +5408,22 @@
       </c>
       <c r="H10" s="1">
         <f>STANDARDIZE(mean!H9,mean!$H$37,mean!$H$38)</f>
-        <v>1.4472738119163486</v>
+        <v>-0.74104635513217443</v>
       </c>
       <c r="I10" s="1">
         <f>STANDARDIZE(mean!I9,mean!$I$37,mean!$I$38)</f>
-        <v>-0.74104635513217443</v>
+        <v>1.4472738119163486</v>
       </c>
       <c r="J10" s="1">
         <f>STANDARDIZE(mean!J9,mean!$J$37,mean!$J$38)</f>
         <v>1.1410833760852619</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E10&lt;-1.6,I10&lt;-1.6,J10&lt;-1.6),OR(D10&gt;1.6,F10&gt;1.6,G10&gt;1.6,H10&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>FN</v>
       </c>
       <c r="O10" s="1">
@@ -5453,89 +5448,89 @@
       </c>
       <c r="T10" s="1">
         <f>STANDARDIZE(mean!H9,mean!$H$39,mean!$H$38)</f>
-        <v>1.8109071317366434</v>
+        <v>-0.53275224450042813</v>
       </c>
       <c r="U10" s="1">
         <f>STANDARDIZE(mean!I9,mean!$I$39,mean!$I$38)</f>
-        <v>-0.53275224450042813</v>
+        <v>1.8109071317366434</v>
       </c>
       <c r="V10" s="1">
         <f>STANDARDIZE(mean!J9,mean!$J$39,mean!$J$38)</f>
         <v>1.5019234014481928</v>
       </c>
       <c r="X10" s="3" t="str">
+        <f>IF(OR(OR(Q10&lt;-1.6,U10&lt;-1.6,V10&lt;-1.6),OR(P10&gt;1.6,R10&gt;1.6,S10&gt;1.6,T10&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y10" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>FN</v>
+      </c>
+      <c r="AC10" s="22">
+        <f t="shared" si="0"/>
+        <v>0.45219512997027467</v>
+      </c>
+      <c r="AD10" s="22">
+        <f t="shared" si="1"/>
+        <v>0.39088046957275735</v>
+      </c>
+      <c r="AE10" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y10" s="3" t="str">
+        <v>0.30540932791985265</v>
+      </c>
+      <c r="AF10" s="22">
         <f t="shared" si="3"/>
-        <v>FN</v>
-      </c>
-      <c r="AC10" s="22">
-        <f>_xlfn.NORM.S.DIST(C11,TRUE)</f>
-        <v>0.45219512997027467</v>
-      </c>
-      <c r="AD10" s="22">
-        <f>_xlfn.NORM.S.DIST(D11,TRUE)</f>
-        <v>0.39088046957275735</v>
-      </c>
-      <c r="AE10" s="22">
-        <f>_xlfn.NORM.S.DIST(E11,TRUE)</f>
-        <v>0.30540932791985265</v>
-      </c>
-      <c r="AF10" s="22">
-        <f>_xlfn.NORM.S.DIST(F11,TRUE)</f>
         <v>0.97023571933172281</v>
       </c>
       <c r="AG10" s="22">
-        <f>_xlfn.NORM.S.DIST(G11,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.99996578395635982</v>
       </c>
       <c r="AH10" s="22">
+        <f>_xlfn.NORM.S.DIST(I11,TRUE)</f>
+        <v>5.8589486734564433E-2</v>
+      </c>
+      <c r="AI10" s="22">
         <f>_xlfn.NORM.S.DIST(H11,TRUE)</f>
-        <v>5.8589486734564433E-2</v>
-      </c>
-      <c r="AI10" s="22">
-        <f>_xlfn.NORM.S.DIST(I11,TRUE)</f>
         <v>0.93969181803717827</v>
       </c>
       <c r="AJ10" s="22">
-        <f>_xlfn.NORM.S.DIST(J11,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>6.716730054001939E-2</v>
       </c>
       <c r="AL10" t="s">
         <v>16</v>
       </c>
       <c r="AN10" s="22">
-        <f>_xlfn.NORM.S.DIST(C11,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.39607463578955499</v>
       </c>
       <c r="AO10" s="22">
-        <f>_xlfn.NORM.S.DIST(D11,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.38392427438894211</v>
       </c>
       <c r="AP10" s="22">
-        <f>_xlfn.NORM.S.DIST(E11,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.35048730307580395</v>
       </c>
       <c r="AQ10" s="22">
-        <f>_xlfn.NORM.S.DIST(F11,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>6.7598202809904459E-2</v>
       </c>
       <c r="AR10" s="22">
-        <f>_xlfn.NORM.S.DIST(G11,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1.4398582855238231E-4</v>
       </c>
       <c r="AS10" s="22">
+        <f>_xlfn.NORM.S.DIST(I11,FALSE)</f>
+        <v>0.11692153377509704</v>
+      </c>
+      <c r="AT10" s="22">
         <f>_xlfn.NORM.S.DIST(H11,FALSE)</f>
-        <v>0.11692153377509704</v>
-      </c>
-      <c r="AT10" s="22">
-        <f>_xlfn.NORM.S.DIST(I11,FALSE)</f>
         <v>0.11960172025658505</v>
       </c>
       <c r="AU10" s="22">
-        <f>_xlfn.NORM.S.DIST(J11,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.13005724467268245</v>
       </c>
       <c r="AW10" s="11" t="s">
@@ -5568,22 +5563,22 @@
       </c>
       <c r="H11" s="1">
         <f>STANDARDIZE(mean!H10,mean!$H$37,mean!$H$38)</f>
-        <v>-1.5667250476467891</v>
+        <v>1.5521916898038788</v>
       </c>
       <c r="I11" s="1">
         <f>STANDARDIZE(mean!I10,mean!$I$37,mean!$I$38)</f>
-        <v>1.5521916898038788</v>
+        <v>-1.5667250476467891</v>
       </c>
       <c r="J11" s="1">
         <f>STANDARDIZE(mean!J10,mean!$J$37,mean!$J$38)</f>
         <v>-1.4972254663935356</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E11&lt;-1.6,I11&lt;-1.6,J11&lt;-1.6),OR(D11&gt;1.6,F11&gt;1.6,G11&gt;1.6,H11&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>FP</v>
       </c>
       <c r="O11" s="1">
@@ -5608,89 +5603,89 @@
       </c>
       <c r="T11" s="1">
         <f>STANDARDIZE(mean!H10,mean!$H$39,mean!$H$38)</f>
-        <v>-1.2030917278264943</v>
+        <v>1.7604858004356252</v>
       </c>
       <c r="U11" s="1">
         <f>STANDARDIZE(mean!I10,mean!$I$39,mean!$I$38)</f>
-        <v>1.7604858004356252</v>
+        <v>-1.2030917278264943</v>
       </c>
       <c r="V11" s="1">
         <f>STANDARDIZE(mean!J10,mean!$J$39,mean!$J$38)</f>
         <v>-1.1363854410306047</v>
       </c>
       <c r="X11" s="3" t="str">
+        <f>IF(OR(OR(Q11&lt;-1.6,U11&lt;-1.6,V11&lt;-1.6),OR(P11&gt;1.6,R11&gt;1.6,S11&gt;1.6,T11&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y11" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>FP</v>
+      </c>
+      <c r="AC11" s="22">
+        <f t="shared" si="0"/>
+        <v>0.29265704065076359</v>
+      </c>
+      <c r="AD11" s="22">
+        <f t="shared" si="1"/>
+        <v>0.40660586084590478</v>
+      </c>
+      <c r="AE11" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y11" s="3" t="str">
+        <v>0.24866558698039742</v>
+      </c>
+      <c r="AF11" s="22">
         <f t="shared" si="3"/>
-        <v>FP</v>
-      </c>
-      <c r="AC11" s="22">
-        <f>_xlfn.NORM.S.DIST(C12,TRUE)</f>
-        <v>0.29265704065076359</v>
-      </c>
-      <c r="AD11" s="22">
-        <f>_xlfn.NORM.S.DIST(D12,TRUE)</f>
-        <v>0.40660586084590478</v>
-      </c>
-      <c r="AE11" s="22">
-        <f>_xlfn.NORM.S.DIST(E12,TRUE)</f>
-        <v>0.24866558698039742</v>
-      </c>
-      <c r="AF11" s="22">
-        <f>_xlfn.NORM.S.DIST(F12,TRUE)</f>
         <v>0.48085051241425425</v>
       </c>
       <c r="AG11" s="22">
-        <f>_xlfn.NORM.S.DIST(G12,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.75886244574774975</v>
       </c>
       <c r="AH11" s="22">
+        <f>_xlfn.NORM.S.DIST(I12,TRUE)</f>
+        <v>0.28293048670536869</v>
+      </c>
+      <c r="AI11" s="22">
         <f>_xlfn.NORM.S.DIST(H12,TRUE)</f>
-        <v>0.28293048670536869</v>
-      </c>
-      <c r="AI11" s="22">
-        <f>_xlfn.NORM.S.DIST(I12,TRUE)</f>
         <v>0.80599142759323805</v>
       </c>
       <c r="AJ11" s="22">
-        <f>_xlfn.NORM.S.DIST(J12,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.37261710800777159</v>
       </c>
       <c r="AL11" t="s">
         <v>17</v>
       </c>
       <c r="AN11" s="22">
-        <f>_xlfn.NORM.S.DIST(C12,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.3437641333953777</v>
       </c>
       <c r="AO11" s="22">
-        <f>_xlfn.NORM.S.DIST(D12,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.38795971419819708</v>
       </c>
       <c r="AP11" s="22">
-        <f>_xlfn.NORM.S.DIST(E12,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.31687372038140738</v>
       </c>
       <c r="AQ11" s="22">
-        <f>_xlfn.NORM.S.DIST(F12,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.3984825982123717</v>
       </c>
       <c r="AR11" s="22">
-        <f>_xlfn.NORM.S.DIST(G12,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.31167457135032695</v>
       </c>
       <c r="AS11" s="22">
+        <f>_xlfn.NORM.S.DIST(I12,FALSE)</f>
+        <v>0.33831861993442014</v>
+      </c>
+      <c r="AT11" s="22">
         <f>_xlfn.NORM.S.DIST(H12,FALSE)</f>
-        <v>0.33831861993442014</v>
-      </c>
-      <c r="AT11" s="22">
-        <f>_xlfn.NORM.S.DIST(I12,FALSE)</f>
         <v>0.27485490593212164</v>
       </c>
       <c r="AU11" s="22">
-        <f>_xlfn.NORM.S.DIST(J12,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.3784284669532379</v>
       </c>
       <c r="AW11" t="s">
@@ -5723,22 +5718,22 @@
       </c>
       <c r="H12" s="1">
         <f>STANDARDIZE(mean!H11,mean!$H$37,mean!$H$38)</f>
-        <v>-0.57415787340046598</v>
+        <v>0.86321886232964185</v>
       </c>
       <c r="I12" s="1">
         <f>STANDARDIZE(mean!I11,mean!$I$37,mean!$I$38)</f>
-        <v>0.86321886232964185</v>
+        <v>-0.57415787340046598</v>
       </c>
       <c r="J12" s="1">
         <f>STANDARDIZE(mean!J11,mean!$J$37,mean!$J$38)</f>
         <v>-0.3249297820683883</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E12&lt;-1.6,I12&lt;-1.6,J12&lt;-1.6),OR(D12&gt;1.6,F12&gt;1.6,G12&gt;1.6,H12&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TN</v>
       </c>
       <c r="O12" s="1">
@@ -5763,89 +5758,89 @@
       </c>
       <c r="T12" s="1">
         <f>STANDARDIZE(mean!H11,mean!$H$39,mean!$H$38)</f>
-        <v>-0.21052455358017133</v>
+        <v>1.0715129729613881</v>
       </c>
       <c r="U12" s="1">
         <f>STANDARDIZE(mean!I11,mean!$I$39,mean!$I$38)</f>
-        <v>1.0715129729613881</v>
+        <v>-0.21052455358017133</v>
       </c>
       <c r="V12" s="1">
         <f>STANDARDIZE(mean!J11,mean!$J$39,mean!$J$38)</f>
         <v>3.5910243294542593E-2</v>
       </c>
       <c r="X12" s="3" t="str">
+        <f>IF(OR(OR(Q12&lt;-1.6,U12&lt;-1.6,V12&lt;-1.6),OR(P12&gt;1.6,R12&gt;1.6,S12&gt;1.6,T12&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y12" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TN</v>
+      </c>
+      <c r="AC12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.42800572295189299</v>
+      </c>
+      <c r="AD12" s="22">
+        <f t="shared" si="1"/>
+        <v>0.36281533087082996</v>
+      </c>
+      <c r="AE12" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y12" s="3" t="str">
+        <v>0.24690492760996446</v>
+      </c>
+      <c r="AF12" s="22">
         <f t="shared" si="3"/>
-        <v>TN</v>
-      </c>
-      <c r="AC12" s="22">
-        <f>_xlfn.NORM.S.DIST(C13,TRUE)</f>
-        <v>0.42800572295189299</v>
-      </c>
-      <c r="AD12" s="22">
-        <f>_xlfn.NORM.S.DIST(D13,TRUE)</f>
-        <v>0.36281533087082996</v>
-      </c>
-      <c r="AE12" s="22">
-        <f>_xlfn.NORM.S.DIST(E13,TRUE)</f>
-        <v>0.24690492760996446</v>
-      </c>
-      <c r="AF12" s="22">
-        <f>_xlfn.NORM.S.DIST(F13,TRUE)</f>
         <v>0.99115738433653722</v>
       </c>
       <c r="AG12" s="22">
-        <f>_xlfn.NORM.S.DIST(G13,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.99999996417198733</v>
       </c>
       <c r="AH12" s="22">
+        <f>_xlfn.NORM.S.DIST(I13,TRUE)</f>
+        <v>3.2310979389729967E-2</v>
+      </c>
+      <c r="AI12" s="22">
         <f>_xlfn.NORM.S.DIST(H13,TRUE)</f>
-        <v>3.2310979389729967E-2</v>
-      </c>
-      <c r="AI12" s="22">
-        <f>_xlfn.NORM.S.DIST(I13,TRUE)</f>
         <v>0.88093339635805723</v>
       </c>
       <c r="AJ12" s="22">
-        <f>_xlfn.NORM.S.DIST(J13,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.321440173545428E-2</v>
       </c>
       <c r="AL12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AN12" s="22">
-        <f>_xlfn.NORM.S.DIST(C13,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.39242836741028519</v>
       </c>
       <c r="AO12" s="22">
-        <f>_xlfn.NORM.S.DIST(D13,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.37511627361688304</v>
       </c>
       <c r="AP12" s="22">
-        <f>_xlfn.NORM.S.DIST(E13,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.31567387219112453</v>
       </c>
       <c r="AQ12" s="22">
-        <f>_xlfn.NORM.S.DIST(F13,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>2.3933637238862417E-2</v>
       </c>
       <c r="AR12" s="22">
-        <f>_xlfn.NORM.S.DIST(G13,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>1.9926050082285448E-7</v>
       </c>
       <c r="AS12" s="22">
+        <f>_xlfn.NORM.S.DIST(I13,FALSE)</f>
+        <v>7.2349988068860407E-2</v>
+      </c>
+      <c r="AT12" s="22">
         <f>_xlfn.NORM.S.DIST(H13,FALSE)</f>
-        <v>7.2349988068860407E-2</v>
-      </c>
-      <c r="AT12" s="22">
-        <f>_xlfn.NORM.S.DIST(I13,FALSE)</f>
         <v>0.19894157377153968</v>
       </c>
       <c r="AU12" s="22">
-        <f>_xlfn.NORM.S.DIST(J13,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>5.4917521287286018E-2</v>
       </c>
       <c r="AW12" s="11" t="s">
@@ -5878,22 +5873,22 @@
       </c>
       <c r="H13" s="1">
         <f>STANDARDIZE(mean!H12,mean!$H$37,mean!$H$38)</f>
-        <v>-1.8478644201394312</v>
+        <v>1.1796656842509479</v>
       </c>
       <c r="I13" s="1">
         <f>STANDARDIZE(mean!I12,mean!$I$37,mean!$I$38)</f>
-        <v>1.1796656842509479</v>
+        <v>-1.8478644201394312</v>
       </c>
       <c r="J13" s="1">
         <f>STANDARDIZE(mean!J12,mean!$J$37,mean!$J$38)</f>
         <v>-1.9914739762539391</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E13&lt;-1.6,I13&lt;-1.6,J13&lt;-1.6),OR(D13&gt;1.6,F13&gt;1.6,G13&gt;1.6,H13&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TP</v>
       </c>
       <c r="O13" s="1">
@@ -5918,89 +5913,89 @@
       </c>
       <c r="T13" s="1">
         <f>STANDARDIZE(mean!H12,mean!$H$39,mean!$H$38)</f>
-        <v>-1.4842311003191366</v>
+        <v>1.3879597948826943</v>
       </c>
       <c r="U13" s="1">
         <f>STANDARDIZE(mean!I12,mean!$I$39,mean!$I$38)</f>
-        <v>1.3879597948826943</v>
+        <v>-1.4842311003191366</v>
       </c>
       <c r="V13" s="1">
         <f>STANDARDIZE(mean!J12,mean!$J$39,mean!$J$38)</f>
         <v>-1.6306339508910082</v>
       </c>
       <c r="X13" s="3" t="str">
+        <f>IF(OR(OR(Q13&lt;-1.6,U13&lt;-1.6,V13&lt;-1.6),OR(P13&gt;1.6,R13&gt;1.6,S13&gt;1.6,T13&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y13" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TP</v>
+      </c>
+      <c r="AC13" s="22">
+        <f t="shared" si="0"/>
+        <v>0.48649326096778844</v>
+      </c>
+      <c r="AD13" s="22">
+        <f t="shared" si="1"/>
+        <v>0.39771852516968792</v>
+      </c>
+      <c r="AE13" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y13" s="3" t="str">
+        <v>0.25087577996277521</v>
+      </c>
+      <c r="AF13" s="22">
         <f t="shared" si="3"/>
-        <v>TP</v>
-      </c>
-      <c r="AC13" s="22">
-        <f>_xlfn.NORM.S.DIST(C14,TRUE)</f>
-        <v>0.48649326096778844</v>
-      </c>
-      <c r="AD13" s="22">
-        <f>_xlfn.NORM.S.DIST(D14,TRUE)</f>
-        <v>0.39771852516968792</v>
-      </c>
-      <c r="AE13" s="22">
-        <f>_xlfn.NORM.S.DIST(E14,TRUE)</f>
-        <v>0.25087577996277521</v>
-      </c>
-      <c r="AF13" s="22">
-        <f>_xlfn.NORM.S.DIST(F14,TRUE)</f>
         <v>0.99883803269737514</v>
       </c>
       <c r="AG13" s="22">
-        <f>_xlfn.NORM.S.DIST(G14,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.9988358564086951</v>
       </c>
       <c r="AH13" s="22">
+        <f>_xlfn.NORM.S.DIST(I14,TRUE)</f>
+        <v>2.2679864592596268E-2</v>
+      </c>
+      <c r="AI13" s="22">
         <f>_xlfn.NORM.S.DIST(H14,TRUE)</f>
-        <v>2.2679864592596268E-2</v>
-      </c>
-      <c r="AI13" s="22">
-        <f>_xlfn.NORM.S.DIST(I14,TRUE)</f>
         <v>0.99796417071262522</v>
       </c>
       <c r="AJ13" s="22">
-        <f>_xlfn.NORM.S.DIST(J14,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>6.1237375995858035E-3</v>
       </c>
       <c r="AL13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AN13" s="22">
-        <f>_xlfn.NORM.S.DIST(C14,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.39871361395138705</v>
       </c>
       <c r="AO13" s="22">
-        <f>_xlfn.NORM.S.DIST(D14,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.38575778866098948</v>
       </c>
       <c r="AP13" s="22">
-        <f>_xlfn.NORM.S.DIST(E14,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.31836607123085653</v>
       </c>
       <c r="AQ13" s="22">
-        <f>_xlfn.NORM.S.DIST(F14,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>3.8638903331902948E-3</v>
       </c>
       <c r="AR13" s="22">
-        <f>_xlfn.NORM.S.DIST(G14,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>3.8705173270529611E-3</v>
       </c>
       <c r="AS13" s="22">
+        <f>_xlfn.NORM.S.DIST(I14,FALSE)</f>
+        <v>5.3850386037037283E-2</v>
+      </c>
+      <c r="AT13" s="22">
         <f>_xlfn.NORM.S.DIST(H14,FALSE)</f>
-        <v>5.3850386037037283E-2</v>
-      </c>
-      <c r="AT13" s="22">
-        <f>_xlfn.NORM.S.DIST(I14,FALSE)</f>
         <v>6.4432150308241553E-3</v>
       </c>
       <c r="AU13" s="22">
-        <f>_xlfn.NORM.S.DIST(J14,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.7313269693280394E-2</v>
       </c>
       <c r="AW13" s="11" t="s">
@@ -6033,22 +6028,22 @@
       </c>
       <c r="H14" s="1">
         <f>STANDARDIZE(mean!H13,mean!$H$37,mean!$H$38)</f>
-        <v>-2.0013031621688664</v>
+        <v>2.8725560401305983</v>
       </c>
       <c r="I14" s="1">
         <f>STANDARDIZE(mean!I13,mean!$I$37,mean!$I$38)</f>
-        <v>2.8725560401305983</v>
+        <v>-2.0013031621688664</v>
       </c>
       <c r="J14" s="1">
         <f>STANDARDIZE(mean!J13,mean!$J$37,mean!$J$38)</f>
         <v>-2.5049325356186865</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E14&lt;-1.6,I14&lt;-1.6,J14&lt;-1.6),OR(D14&gt;1.6,F14&gt;1.6,G14&gt;1.6,H14&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TP</v>
       </c>
       <c r="O14" s="1">
@@ -6073,89 +6068,89 @@
       </c>
       <c r="T14" s="1">
         <f>STANDARDIZE(mean!H13,mean!$H$39,mean!$H$38)</f>
-        <v>-1.6376698423485716</v>
+        <v>3.0808501507623447</v>
       </c>
       <c r="U14" s="1">
         <f>STANDARDIZE(mean!I13,mean!$I$39,mean!$I$38)</f>
-        <v>3.0808501507623447</v>
+        <v>-1.6376698423485716</v>
       </c>
       <c r="V14" s="1">
         <f>STANDARDIZE(mean!J13,mean!$J$39,mean!$J$38)</f>
         <v>-2.1440925102557555</v>
       </c>
       <c r="X14" s="3" t="str">
+        <f>IF(OR(OR(Q14&lt;-1.6,U14&lt;-1.6,V14&lt;-1.6),OR(P14&gt;1.6,R14&gt;1.6,S14&gt;1.6,T14&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y14" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TP</v>
+      </c>
+      <c r="AC14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.13865552258210809</v>
+      </c>
+      <c r="AD14" s="22">
+        <f t="shared" si="1"/>
+        <v>0.50659524024574343</v>
+      </c>
+      <c r="AE14" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y14" s="3" t="str">
+        <v>6.7253661810991017E-2</v>
+      </c>
+      <c r="AF14" s="22">
         <f t="shared" si="3"/>
-        <v>TP</v>
-      </c>
-      <c r="AC14" s="22">
-        <f>_xlfn.NORM.S.DIST(C15,TRUE)</f>
-        <v>0.13865552258210809</v>
-      </c>
-      <c r="AD14" s="22">
-        <f>_xlfn.NORM.S.DIST(D15,TRUE)</f>
-        <v>0.50659524024574343</v>
-      </c>
-      <c r="AE14" s="22">
-        <f>_xlfn.NORM.S.DIST(E15,TRUE)</f>
-        <v>6.7253661810991017E-2</v>
-      </c>
-      <c r="AF14" s="22">
-        <f>_xlfn.NORM.S.DIST(F15,TRUE)</f>
         <v>0.35662075720930975</v>
       </c>
       <c r="AG14" s="22">
-        <f>_xlfn.NORM.S.DIST(G15,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.62258917938363378</v>
       </c>
       <c r="AH14" s="22">
+        <f>_xlfn.NORM.S.DIST(I15,TRUE)</f>
+        <v>0.19208021879471934</v>
+      </c>
+      <c r="AI14" s="22">
         <f>_xlfn.NORM.S.DIST(H15,TRUE)</f>
-        <v>0.19208021879471934</v>
-      </c>
-      <c r="AI14" s="22">
-        <f>_xlfn.NORM.S.DIST(I15,TRUE)</f>
         <v>0.834401429806923</v>
       </c>
       <c r="AJ14" s="22">
-        <f>_xlfn.NORM.S.DIST(J15,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>6.9577030623128991E-2</v>
       </c>
       <c r="AL14" t="s">
         <v>20</v>
       </c>
       <c r="AN14" s="22">
-        <f>_xlfn.NORM.S.DIST(C15,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.22112017560707486</v>
       </c>
       <c r="AO14" s="22">
-        <f>_xlfn.NORM.S.DIST(D15,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.39888776351170818</v>
       </c>
       <c r="AP14" s="22">
-        <f>_xlfn.NORM.S.DIST(E15,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.13018651830336322</v>
       </c>
       <c r="AQ14" s="22">
-        <f>_xlfn.NORM.S.DIST(F15,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.37289107957647205</v>
       </c>
       <c r="AR14" s="22">
-        <f>_xlfn.NORM.S.DIST(G15,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.37995576612686893</v>
       </c>
       <c r="AS14" s="22">
+        <f>_xlfn.NORM.S.DIST(I15,FALSE)</f>
+        <v>0.2731835364306851</v>
+      </c>
+      <c r="AT14" s="22">
         <f>_xlfn.NORM.S.DIST(H15,FALSE)</f>
-        <v>0.2731835364306851</v>
-      </c>
-      <c r="AT14" s="22">
-        <f>_xlfn.NORM.S.DIST(I15,FALSE)</f>
         <v>0.24881535487214765</v>
       </c>
       <c r="AU14" s="22">
-        <f>_xlfn.NORM.S.DIST(J15,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.13364303290643254</v>
       </c>
       <c r="AW14" t="s">
@@ -6188,22 +6183,22 @@
       </c>
       <c r="H15" s="1">
         <f>STANDARDIZE(mean!H14,mean!$H$37,mean!$H$38)</f>
-        <v>-0.87025614834185483</v>
+        <v>0.97170537828367598</v>
       </c>
       <c r="I15" s="1">
         <f>STANDARDIZE(mean!I14,mean!$I$37,mean!$I$38)</f>
-        <v>0.97170537828367598</v>
+        <v>-0.87025614834185483</v>
       </c>
       <c r="J15" s="1">
         <f>STANDARDIZE(mean!J14,mean!$J$37,mean!$J$38)</f>
         <v>-1.4789485683726562</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E15&lt;-1.6,I15&lt;-1.6,J15&lt;-1.6),OR(D15&gt;1.6,F15&gt;1.6,G15&gt;1.6,H15&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>FN</v>
       </c>
       <c r="O15" s="1">
@@ -6228,89 +6223,89 @@
       </c>
       <c r="T15" s="1">
         <f>STANDARDIZE(mean!H14,mean!$H$39,mean!$H$38)</f>
-        <v>-0.50662282852156015</v>
+        <v>1.1799994889154224</v>
       </c>
       <c r="U15" s="1">
         <f>STANDARDIZE(mean!I14,mean!$I$39,mean!$I$38)</f>
-        <v>1.1799994889154224</v>
+        <v>-0.50662282852156015</v>
       </c>
       <c r="V15" s="1">
         <f>STANDARDIZE(mean!J14,mean!$J$39,mean!$J$38)</f>
         <v>-1.1181085430097253</v>
       </c>
       <c r="X15" s="3" t="str">
+        <f>IF(OR(OR(Q15&lt;-1.6,U15&lt;-1.6,V15&lt;-1.6),OR(P15&gt;1.6,R15&gt;1.6,S15&gt;1.6,T15&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y15" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>FN</v>
+      </c>
+      <c r="AC15" s="22">
+        <f t="shared" si="0"/>
+        <v>0.57249568069644097</v>
+      </c>
+      <c r="AD15" s="22">
+        <f t="shared" si="1"/>
+        <v>0.37092470474004391</v>
+      </c>
+      <c r="AE15" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y15" s="3" t="str">
+        <v>0.51498729222940876</v>
+      </c>
+      <c r="AF15" s="22">
         <f t="shared" si="3"/>
-        <v>FN</v>
-      </c>
-      <c r="AC15" s="22">
-        <f>_xlfn.NORM.S.DIST(C16,TRUE)</f>
-        <v>0.57249568069644097</v>
-      </c>
-      <c r="AD15" s="22">
-        <f>_xlfn.NORM.S.DIST(D16,TRUE)</f>
-        <v>0.37092470474004391</v>
-      </c>
-      <c r="AE15" s="22">
-        <f>_xlfn.NORM.S.DIST(E16,TRUE)</f>
-        <v>0.51498729222940876</v>
-      </c>
-      <c r="AF15" s="22">
-        <f>_xlfn.NORM.S.DIST(F16,TRUE)</f>
         <v>0.93804067940705704</v>
       </c>
       <c r="AG15" s="22">
-        <f>_xlfn.NORM.S.DIST(G16,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.85405214970289256</v>
       </c>
       <c r="AH15" s="22">
+        <f>_xlfn.NORM.S.DIST(I16,TRUE)</f>
+        <v>0.20134726986659598</v>
+      </c>
+      <c r="AI15" s="22">
         <f>_xlfn.NORM.S.DIST(H16,TRUE)</f>
-        <v>0.20134726986659598</v>
-      </c>
-      <c r="AI15" s="22">
-        <f>_xlfn.NORM.S.DIST(I16,TRUE)</f>
         <v>0.95695772851105854</v>
       </c>
       <c r="AJ15" s="22">
-        <f>_xlfn.NORM.S.DIST(J16,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.25286604444987459</v>
       </c>
       <c r="AL15" t="s">
         <v>21</v>
       </c>
       <c r="AN15" s="22">
-        <f>_xlfn.NORM.S.DIST(C16,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.39233706550132069</v>
       </c>
       <c r="AO15" s="22">
-        <f>_xlfn.NORM.S.DIST(D16,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.37787476851471152</v>
       </c>
       <c r="AP15" s="22">
-        <f>_xlfn.NORM.S.DIST(E16,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.39866072920269374</v>
       </c>
       <c r="AQ15" s="22">
-        <f>_xlfn.NORM.S.DIST(F16,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.12215328704962715</v>
       </c>
       <c r="AR15" s="22">
-        <f>_xlfn.NORM.S.DIST(G16,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.22892356587065785</v>
       </c>
       <c r="AS15" s="22">
+        <f>_xlfn.NORM.S.DIST(I16,FALSE)</f>
+        <v>0.28109257394104353</v>
+      </c>
+      <c r="AT15" s="22">
         <f>_xlfn.NORM.S.DIST(H16,FALSE)</f>
-        <v>0.28109257394104353</v>
-      </c>
-      <c r="AT15" s="22">
-        <f>_xlfn.NORM.S.DIST(I16,FALSE)</f>
         <v>9.1447202572688985E-2</v>
       </c>
       <c r="AU15" s="22">
-        <f>_xlfn.NORM.S.DIST(J16,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.31969679182402361</v>
       </c>
       <c r="AW15" t="s">
@@ -6343,22 +6338,22 @@
       </c>
       <c r="H16" s="1">
         <f>STANDARDIZE(mean!H15,mean!$H$37,mean!$H$38)</f>
-        <v>-0.83681860169171296</v>
+        <v>1.7164235847250637</v>
       </c>
       <c r="I16" s="1">
         <f>STANDARDIZE(mean!I15,mean!$I$37,mean!$I$38)</f>
-        <v>1.7164235847250637</v>
+        <v>-0.83681860169171296</v>
       </c>
       <c r="J16" s="1">
         <f>STANDARDIZE(mean!J15,mean!$J$37,mean!$J$38)</f>
         <v>-0.66549789589407138</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E16&lt;-1.6,I16&lt;-1.6,J16&lt;-1.6),OR(D16&gt;1.6,F16&gt;1.6,G16&gt;1.6,H16&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TP</v>
       </c>
       <c r="O16" s="1">
@@ -6383,89 +6378,89 @@
       </c>
       <c r="T16" s="1">
         <f>STANDARDIZE(mean!H15,mean!$H$39,mean!$H$38)</f>
-        <v>-0.47318528187141834</v>
+        <v>1.9247176953568101</v>
       </c>
       <c r="U16" s="1">
         <f>STANDARDIZE(mean!I15,mean!$I$39,mean!$I$38)</f>
-        <v>1.9247176953568101</v>
+        <v>-0.47318528187141834</v>
       </c>
       <c r="V16" s="1">
         <f>STANDARDIZE(mean!J15,mean!$J$39,mean!$J$38)</f>
         <v>-0.30465787053114052</v>
       </c>
       <c r="X16" s="3" t="str">
+        <f>IF(OR(OR(Q16&lt;-1.6,U16&lt;-1.6,V16&lt;-1.6),OR(P16&gt;1.6,R16&gt;1.6,S16&gt;1.6,T16&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y16" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TP</v>
+      </c>
+      <c r="AC16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.34506189612673843</v>
+      </c>
+      <c r="AD16" s="22">
+        <f t="shared" si="1"/>
+        <v>0.56363804995335443</v>
+      </c>
+      <c r="AE16" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y16" s="3" t="str">
+        <v>0.14690044134558797</v>
+      </c>
+      <c r="AF16" s="22">
         <f t="shared" si="3"/>
-        <v>TP</v>
-      </c>
-      <c r="AC16" s="22">
-        <f>_xlfn.NORM.S.DIST(C17,TRUE)</f>
-        <v>0.34506189612673843</v>
-      </c>
-      <c r="AD16" s="22">
-        <f>_xlfn.NORM.S.DIST(D17,TRUE)</f>
-        <v>0.56363804995335443</v>
-      </c>
-      <c r="AE16" s="22">
-        <f>_xlfn.NORM.S.DIST(E17,TRUE)</f>
-        <v>0.14690044134558797</v>
-      </c>
-      <c r="AF16" s="22">
-        <f>_xlfn.NORM.S.DIST(F17,TRUE)</f>
         <v>0.95130281877677403</v>
       </c>
       <c r="AG16" s="22">
-        <f>_xlfn.NORM.S.DIST(G17,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.99994435616170663</v>
       </c>
       <c r="AH16" s="22">
+        <f>_xlfn.NORM.S.DIST(I17,TRUE)</f>
+        <v>0.17434552641858389</v>
+      </c>
+      <c r="AI16" s="22">
         <f>_xlfn.NORM.S.DIST(H17,TRUE)</f>
-        <v>0.17434552641858389</v>
-      </c>
-      <c r="AI16" s="22">
-        <f>_xlfn.NORM.S.DIST(I17,TRUE)</f>
         <v>0.72268426006388564</v>
       </c>
       <c r="AJ16" s="22">
-        <f>_xlfn.NORM.S.DIST(J17,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>3.7979744448061767E-3</v>
       </c>
       <c r="AL16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="22">
-        <f>_xlfn.NORM.S.DIST(C17,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.36846327788048672</v>
       </c>
       <c r="AO16" s="22">
-        <f>_xlfn.NORM.S.DIST(D17,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.39385577979846054</v>
       </c>
       <c r="AP16" s="22">
-        <f>_xlfn.NORM.S.DIST(E17,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.22992559117744038</v>
       </c>
       <c r="AQ16" s="22">
-        <f>_xlfn.NORM.S.DIST(F17,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.10098440781877022</v>
       </c>
       <c r="AR16" s="22">
-        <f>_xlfn.NORM.S.DIST(G17,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>2.2795390861729664E-4</v>
       </c>
       <c r="AS16" s="22">
+        <f>_xlfn.NORM.S.DIST(I17,FALSE)</f>
+        <v>0.25716277849331493</v>
+      </c>
+      <c r="AT16" s="22">
         <f>_xlfn.NORM.S.DIST(H17,FALSE)</f>
-        <v>0.25716277849331493</v>
-      </c>
-      <c r="AT16" s="22">
-        <f>_xlfn.NORM.S.DIST(I17,FALSE)</f>
         <v>0.33504812783177101</v>
       </c>
       <c r="AU16" s="22">
-        <f>_xlfn.NORM.S.DIST(J17,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.130952350370288E-2</v>
       </c>
       <c r="AW16" s="11" t="s">
@@ -6498,22 +6493,22 @@
       </c>
       <c r="H17" s="1">
         <f>STANDARDIZE(mean!H16,mean!$H$37,mean!$H$38)</f>
-        <v>-0.93713124164213923</v>
+        <v>0.59083425611889573</v>
       </c>
       <c r="I17" s="1">
         <f>STANDARDIZE(mean!I16,mean!$I$37,mean!$I$38)</f>
-        <v>0.59083425611889573</v>
+        <v>-0.93713124164213923</v>
       </c>
       <c r="J17" s="1">
         <f>STANDARDIZE(mean!J16,mean!$J$37,mean!$J$38)</f>
         <v>-2.6695211507186829</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E17&lt;-1.6,I17&lt;-1.6,J17&lt;-1.6),OR(D17&gt;1.6,F17&gt;1.6,G17&gt;1.6,H17&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TP</v>
       </c>
       <c r="O17" s="1">
@@ -6538,89 +6533,89 @@
       </c>
       <c r="T17" s="1">
         <f>STANDARDIZE(mean!H16,mean!$H$39,mean!$H$38)</f>
-        <v>-0.57349792182184456</v>
+        <v>0.79912836675064214</v>
       </c>
       <c r="U17" s="1">
         <f>STANDARDIZE(mean!I16,mean!$I$39,mean!$I$38)</f>
-        <v>0.79912836675064214</v>
+        <v>-0.57349792182184456</v>
       </c>
       <c r="V17" s="1">
         <f>STANDARDIZE(mean!J16,mean!$J$39,mean!$J$38)</f>
         <v>-2.308681125355752</v>
       </c>
       <c r="X17" s="3" t="str">
+        <f>IF(OR(OR(Q17&lt;-1.6,U17&lt;-1.6,V17&lt;-1.6),OR(P17&gt;1.6,R17&gt;1.6,S17&gt;1.6,T17&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y17" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TP</v>
+      </c>
+      <c r="AC17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.2992803610121304</v>
+      </c>
+      <c r="AD17" s="22">
+        <f t="shared" si="1"/>
+        <v>0.44391910877070362</v>
+      </c>
+      <c r="AE17" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y17" s="3" t="str">
+        <v>0.24311316779614822</v>
+      </c>
+      <c r="AF17" s="22">
         <f t="shared" si="3"/>
-        <v>TP</v>
-      </c>
-      <c r="AC17" s="22">
-        <f>_xlfn.NORM.S.DIST(C18,TRUE)</f>
-        <v>0.2992803610121304</v>
-      </c>
-      <c r="AD17" s="22">
-        <f>_xlfn.NORM.S.DIST(D18,TRUE)</f>
-        <v>0.44391910877070362</v>
-      </c>
-      <c r="AE17" s="22">
-        <f>_xlfn.NORM.S.DIST(E18,TRUE)</f>
-        <v>0.24311316779614822</v>
-      </c>
-      <c r="AF17" s="22">
-        <f>_xlfn.NORM.S.DIST(F18,TRUE)</f>
         <v>0.48697565846055185</v>
       </c>
       <c r="AG17" s="22">
-        <f>_xlfn.NORM.S.DIST(G18,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.94944667595764842</v>
       </c>
       <c r="AH17" s="22">
+        <f>_xlfn.NORM.S.DIST(I18,TRUE)</f>
+        <v>0.33349292145709691</v>
+      </c>
+      <c r="AI17" s="22">
         <f>_xlfn.NORM.S.DIST(H18,TRUE)</f>
-        <v>0.33349292145709691</v>
-      </c>
-      <c r="AI17" s="22">
-        <f>_xlfn.NORM.S.DIST(I18,TRUE)</f>
         <v>0.44979544823217987</v>
       </c>
       <c r="AJ17" s="22">
-        <f>_xlfn.NORM.S.DIST(J18,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.30155748431822738</v>
       </c>
       <c r="AL17" t="s">
         <v>23</v>
       </c>
       <c r="AN17" s="22">
-        <f>_xlfn.NORM.S.DIST(C18,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.347314490137342</v>
       </c>
       <c r="AO17" s="22">
-        <f>_xlfn.NORM.S.DIST(D18,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.39499400304704513</v>
       </c>
       <c r="AP17" s="22">
-        <f>_xlfn.NORM.S.DIST(E18,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.31305648019694016</v>
       </c>
       <c r="AQ17" s="22">
-        <f>_xlfn.NORM.S.DIST(F18,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.39872965748397926</v>
       </c>
       <c r="AR17" s="22">
-        <f>_xlfn.NORM.S.DIST(G18,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.10404429748145086</v>
       </c>
       <c r="AS17" s="22">
+        <f>_xlfn.NORM.S.DIST(I18,FALSE)</f>
+        <v>0.36366847861654067</v>
+      </c>
+      <c r="AT17" s="22">
         <f>_xlfn.NORM.S.DIST(H18,FALSE)</f>
-        <v>0.36366847861654067</v>
-      </c>
-      <c r="AT17" s="22">
-        <f>_xlfn.NORM.S.DIST(I18,FALSE)</f>
         <v>0.39577912137969867</v>
       </c>
       <c r="AU17" s="22">
-        <f>_xlfn.NORM.S.DIST(J18,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.34850587413264184</v>
       </c>
       <c r="AW17" t="s">
@@ -6653,22 +6648,22 @@
       </c>
       <c r="H18" s="1">
         <f>STANDARDIZE(mean!H17,mean!$H$37,mean!$H$38)</f>
-        <v>-0.43028842926103877</v>
+        <v>-0.12617816317115324</v>
       </c>
       <c r="I18" s="1">
         <f>STANDARDIZE(mean!I17,mean!$I$37,mean!$I$38)</f>
-        <v>-0.12617816317115324</v>
+        <v>-0.43028842926103877</v>
       </c>
       <c r="J18" s="1">
         <f>STANDARDIZE(mean!J17,mean!$J$37,mean!$J$38)</f>
         <v>-0.5199262644742485</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E18&lt;-1.6,I18&lt;-1.6,J18&lt;-1.6),OR(D18&gt;1.6,F18&gt;1.6,G18&gt;1.6,H18&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TP</v>
       </c>
       <c r="O18" s="1">
@@ -6693,89 +6688,89 @@
       </c>
       <c r="T18" s="1">
         <f>STANDARDIZE(mean!H17,mean!$H$39,mean!$H$38)</f>
-        <v>-6.665510944074414E-2</v>
+        <v>8.2115947460593156E-2</v>
       </c>
       <c r="U18" s="1">
         <f>STANDARDIZE(mean!I17,mean!$I$39,mean!$I$38)</f>
-        <v>8.2115947460593156E-2</v>
+        <v>-6.665510944074414E-2</v>
       </c>
       <c r="V18" s="1">
         <f>STANDARDIZE(mean!J17,mean!$J$39,mean!$J$38)</f>
         <v>-0.15908623911131758</v>
       </c>
       <c r="X18" s="3" t="str">
+        <f>IF(OR(OR(Q18&lt;-1.6,U18&lt;-1.6,V18&lt;-1.6),OR(P18&gt;1.6,R18&gt;1.6,S18&gt;1.6,T18&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y18" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>FN</v>
+      </c>
+      <c r="AC18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.12064225427168013</v>
+      </c>
+      <c r="AD18" s="22">
+        <f t="shared" si="1"/>
+        <v>0.40990539108638147</v>
+      </c>
+      <c r="AE18" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y18" s="3" t="str">
+        <v>4.3422705386362628E-2</v>
+      </c>
+      <c r="AF18" s="22">
         <f t="shared" si="3"/>
-        <v>FN</v>
-      </c>
-      <c r="AC18" s="22">
-        <f>_xlfn.NORM.S.DIST(C19,TRUE)</f>
-        <v>0.12064225427168013</v>
-      </c>
-      <c r="AD18" s="22">
-        <f>_xlfn.NORM.S.DIST(D19,TRUE)</f>
-        <v>0.40990539108638147</v>
-      </c>
-      <c r="AE18" s="22">
-        <f>_xlfn.NORM.S.DIST(E19,TRUE)</f>
-        <v>4.3422705386362628E-2</v>
-      </c>
-      <c r="AF18" s="22">
-        <f>_xlfn.NORM.S.DIST(F19,TRUE)</f>
         <v>0.67552487920151361</v>
       </c>
       <c r="AG18" s="22">
-        <f>_xlfn.NORM.S.DIST(G19,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.94944667595764842</v>
       </c>
       <c r="AH18" s="22">
+        <f>_xlfn.NORM.S.DIST(I19,TRUE)</f>
+        <v>5.9053899895706204E-2</v>
+      </c>
+      <c r="AI18" s="22">
         <f>_xlfn.NORM.S.DIST(H19,TRUE)</f>
-        <v>5.9053899895706204E-2</v>
-      </c>
-      <c r="AI18" s="22">
-        <f>_xlfn.NORM.S.DIST(I19,TRUE)</f>
         <v>0.8954008850781916</v>
       </c>
       <c r="AJ18" s="22">
-        <f>_xlfn.NORM.S.DIST(J19,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.0325265682794941E-2</v>
       </c>
       <c r="AL18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="AN18" s="22">
-        <f>_xlfn.NORM.S.DIST(C19,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.20079409435155809</v>
       </c>
       <c r="AO18" s="22">
-        <f>_xlfn.NORM.S.DIST(D19,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.38872532120569792</v>
       </c>
       <c r="AP18" s="22">
-        <f>_xlfn.NORM.S.DIST(E19,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>9.2099398831684623E-2</v>
       </c>
       <c r="AQ18" s="22">
-        <f>_xlfn.NORM.S.DIST(F19,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.35967601160843266</v>
       </c>
       <c r="AR18" s="22">
-        <f>_xlfn.NORM.S.DIST(G19,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.10404429748145086</v>
       </c>
       <c r="AS18" s="22">
+        <f>_xlfn.NORM.S.DIST(I19,FALSE)</f>
+        <v>0.11764822108702239</v>
+      </c>
+      <c r="AT18" s="22">
         <f>_xlfn.NORM.S.DIST(H19,FALSE)</f>
-        <v>0.11764822108702239</v>
-      </c>
-      <c r="AT18" s="22">
-        <f>_xlfn.NORM.S.DIST(I19,FALSE)</f>
         <v>0.1813327328097161</v>
       </c>
       <c r="AU18" s="22">
-        <f>_xlfn.NORM.S.DIST(J19,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>4.9085062365835194E-2</v>
       </c>
       <c r="AW18" s="11" t="s">
@@ -6808,22 +6803,22 @@
       </c>
       <c r="H19" s="1">
         <f>STANDARDIZE(mean!H18,mean!$H$37,mean!$H$38)</f>
-        <v>-1.5627653381750615</v>
+        <v>1.2557731477510097</v>
       </c>
       <c r="I19" s="1">
         <f>STANDARDIZE(mean!I18,mean!$I$37,mean!$I$38)</f>
-        <v>1.2557731477510097</v>
+        <v>-1.5627653381750615</v>
       </c>
       <c r="J19" s="1">
         <f>STANDARDIZE(mean!J18,mean!$J$37,mean!$J$38)</f>
         <v>-2.0470769336132371</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E19&lt;-1.6,I19&lt;-1.6,J19&lt;-1.6),OR(D19&gt;1.6,F19&gt;1.6,G19&gt;1.6,H19&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TP</v>
       </c>
       <c r="O19" s="1">
@@ -6848,89 +6843,89 @@
       </c>
       <c r="T19" s="1">
         <f>STANDARDIZE(mean!H18,mean!$H$39,mean!$H$38)</f>
-        <v>-1.1991320183547669</v>
+        <v>1.4640672583827561</v>
       </c>
       <c r="U19" s="1">
         <f>STANDARDIZE(mean!I18,mean!$I$39,mean!$I$38)</f>
-        <v>1.4640672583827561</v>
+        <v>-1.1991320183547669</v>
       </c>
       <c r="V19" s="1">
         <f>STANDARDIZE(mean!J18,mean!$J$39,mean!$J$38)</f>
         <v>-1.6862369082503059</v>
       </c>
       <c r="X19" s="3" t="str">
+        <f>IF(OR(OR(Q19&lt;-1.6,U19&lt;-1.6,V19&lt;-1.6),OR(P19&gt;1.6,R19&gt;1.6,S19&gt;1.6,T19&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y19" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TP</v>
+      </c>
+      <c r="AC19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.19244178811580512</v>
+      </c>
+      <c r="AD19" s="22">
+        <f t="shared" si="1"/>
+        <v>0.47777591998311364</v>
+      </c>
+      <c r="AE19" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y19" s="3" t="str">
+        <v>6.2726361748964246E-2</v>
+      </c>
+      <c r="AF19" s="22">
         <f t="shared" si="3"/>
-        <v>TP</v>
-      </c>
-      <c r="AC19" s="22">
-        <f>_xlfn.NORM.S.DIST(C20,TRUE)</f>
-        <v>0.19244178811580512</v>
-      </c>
-      <c r="AD19" s="22">
-        <f>_xlfn.NORM.S.DIST(D20,TRUE)</f>
-        <v>0.47777591998311364</v>
-      </c>
-      <c r="AE19" s="22">
-        <f>_xlfn.NORM.S.DIST(E20,TRUE)</f>
-        <v>6.2726361748964246E-2</v>
-      </c>
-      <c r="AF19" s="22">
-        <f>_xlfn.NORM.S.DIST(F20,TRUE)</f>
         <v>0.88724418271587779</v>
       </c>
       <c r="AG19" s="22">
-        <f>_xlfn.NORM.S.DIST(G20,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.98696113182316392</v>
       </c>
       <c r="AH19" s="22">
+        <f>_xlfn.NORM.S.DIST(I20,TRUE)</f>
+        <v>3.40680119738394E-2</v>
+      </c>
+      <c r="AI19" s="22">
         <f>_xlfn.NORM.S.DIST(H20,TRUE)</f>
-        <v>3.40680119738394E-2</v>
-      </c>
-      <c r="AI19" s="22">
-        <f>_xlfn.NORM.S.DIST(I20,TRUE)</f>
         <v>0.99618213905365571</v>
       </c>
       <c r="AJ19" s="22">
-        <f>_xlfn.NORM.S.DIST(J20,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>4.3457300038786256E-3</v>
       </c>
       <c r="AL19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="AN19" s="22">
-        <f>_xlfn.NORM.S.DIST(C20,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.27349795517147291</v>
       </c>
       <c r="AO19" s="22">
-        <f>_xlfn.NORM.S.DIST(D20,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.3983230961488361</v>
       </c>
       <c r="AP19" s="22">
-        <f>_xlfn.NORM.S.DIST(E20,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.12333100371133292</v>
       </c>
       <c r="AQ19" s="22">
-        <f>_xlfn.NORM.S.DIST(F20,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.19139557958232606</v>
       </c>
       <c r="AR19" s="22">
-        <f>_xlfn.NORM.S.DIST(G20,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>3.3561788552344249E-2</v>
       </c>
       <c r="AS19" s="22">
+        <f>_xlfn.NORM.S.DIST(I20,FALSE)</f>
+        <v>7.5575722319138408E-2</v>
+      </c>
+      <c r="AT19" s="22">
         <f>_xlfn.NORM.S.DIST(H20,FALSE)</f>
-        <v>7.5575722319138408E-2</v>
-      </c>
-      <c r="AT19" s="22">
-        <f>_xlfn.NORM.S.DIST(I20,FALSE)</f>
         <v>1.1362593483393656E-2</v>
       </c>
       <c r="AU19" s="22">
-        <f>_xlfn.NORM.S.DIST(J20,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1.2759038978665108E-2</v>
       </c>
       <c r="AW19" s="11" t="s">
@@ -6963,22 +6958,22 @@
       </c>
       <c r="H20" s="1">
         <f>STANDARDIZE(mean!H19,mean!$H$37,mean!$H$38)</f>
-        <v>-1.8241061633090665</v>
+        <v>2.6677668784758288</v>
       </c>
       <c r="I20" s="1">
         <f>STANDARDIZE(mean!I19,mean!$I$37,mean!$I$38)</f>
-        <v>2.6677668784758288</v>
+        <v>-1.8241061633090665</v>
       </c>
       <c r="J20" s="1">
         <f>STANDARDIZE(mean!J19,mean!$J$37,mean!$J$38)</f>
         <v>-2.6239576162159275</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E20&lt;-1.6,I20&lt;-1.6,J20&lt;-1.6),OR(D20&gt;1.6,F20&gt;1.6,G20&gt;1.6,H20&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>FP</v>
       </c>
       <c r="O20" s="1">
@@ -7003,89 +6998,89 @@
       </c>
       <c r="T20" s="1">
         <f>STANDARDIZE(mean!H19,mean!$H$39,mean!$H$38)</f>
-        <v>-1.4604728434887719</v>
+        <v>2.8760609891075752</v>
       </c>
       <c r="U20" s="1">
         <f>STANDARDIZE(mean!I19,mean!$I$39,mean!$I$38)</f>
-        <v>2.8760609891075752</v>
+        <v>-1.4604728434887719</v>
       </c>
       <c r="V20" s="1">
         <f>STANDARDIZE(mean!J19,mean!$J$39,mean!$J$38)</f>
         <v>-2.2631175908529966</v>
       </c>
       <c r="X20" s="3" t="str">
+        <f>IF(OR(OR(Q20&lt;-1.6,U20&lt;-1.6,V20&lt;-1.6),OR(P20&gt;1.6,R20&gt;1.6,S20&gt;1.6,T20&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y20" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>FP</v>
+      </c>
+      <c r="AC20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.37372010332380923</v>
+      </c>
+      <c r="AD20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.64106584193038874</v>
+      </c>
+      <c r="AE20" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y20" s="3" t="str">
+        <v>0.11042919922825012</v>
+      </c>
+      <c r="AF20" s="22">
         <f t="shared" si="3"/>
-        <v>FP</v>
-      </c>
-      <c r="AC20" s="22">
-        <f>_xlfn.NORM.S.DIST(C21,TRUE)</f>
-        <v>0.37372010332380923</v>
-      </c>
-      <c r="AD20" s="22">
-        <f>_xlfn.NORM.S.DIST(D21,TRUE)</f>
-        <v>0.64106584193038874</v>
-      </c>
-      <c r="AE20" s="22">
-        <f>_xlfn.NORM.S.DIST(E21,TRUE)</f>
-        <v>0.11042919922825012</v>
-      </c>
-      <c r="AF20" s="22">
-        <f>_xlfn.NORM.S.DIST(F21,TRUE)</f>
         <v>0.99342546331780923</v>
       </c>
       <c r="AG20" s="22">
-        <f>_xlfn.NORM.S.DIST(G21,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.99977866150682837</v>
       </c>
       <c r="AH20" s="22">
+        <f>_xlfn.NORM.S.DIST(I21,TRUE)</f>
+        <v>2.44595832149603E-2</v>
+      </c>
+      <c r="AI20" s="22">
         <f>_xlfn.NORM.S.DIST(H21,TRUE)</f>
-        <v>2.44595832149603E-2</v>
-      </c>
-      <c r="AI20" s="22">
-        <f>_xlfn.NORM.S.DIST(I21,TRUE)</f>
         <v>0.99971006413272612</v>
       </c>
       <c r="AJ20" s="22">
-        <f>_xlfn.NORM.S.DIST(J21,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>1.4852422190939895E-4</v>
       </c>
       <c r="AL20" s="11" t="s">
         <v>27</v>
       </c>
       <c r="AN20" s="22">
-        <f>_xlfn.NORM.S.DIST(C21,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.37878525605152058</v>
       </c>
       <c r="AO20" s="22">
-        <f>_xlfn.NORM.S.DIST(D21,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.37373409789465267</v>
       </c>
       <c r="AP20" s="22">
-        <f>_xlfn.NORM.S.DIST(E21,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.18856150255549786</v>
       </c>
       <c r="AQ20" s="22">
-        <f>_xlfn.NORM.S.DIST(F21,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>1.8436745366192647E-2</v>
       </c>
       <c r="AR20" s="22">
-        <f>_xlfn.NORM.S.DIST(G21,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>8.3309147772231483E-4</v>
       </c>
       <c r="AS20" s="22">
+        <f>_xlfn.NORM.S.DIST(I21,FALSE)</f>
+        <v>5.7383358617301317E-2</v>
+      </c>
+      <c r="AT20" s="22">
         <f>_xlfn.NORM.S.DIST(H21,FALSE)</f>
-        <v>5.7383358617301317E-2</v>
-      </c>
-      <c r="AT20" s="22">
-        <f>_xlfn.NORM.S.DIST(I21,FALSE)</f>
         <v>1.0715039274226598E-3</v>
       </c>
       <c r="AU20" s="22">
-        <f>_xlfn.NORM.S.DIST(J21,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>5.7370469882215462E-4</v>
       </c>
       <c r="AW20" s="11" t="s">
@@ -7118,22 +7113,22 @@
       </c>
       <c r="H21" s="1">
         <f>STANDARDIZE(mean!H20,mean!$H$37,mean!$H$38)</f>
-        <v>-1.9692955106057366</v>
+        <v>3.4408584813975018</v>
       </c>
       <c r="I21" s="1">
         <f>STANDARDIZE(mean!I20,mean!$I$37,mean!$I$38)</f>
-        <v>3.4408584813975018</v>
+        <v>-1.9692955106057366</v>
       </c>
       <c r="J21" s="1">
         <f>STANDARDIZE(mean!J20,mean!$J$37,mean!$J$38)</f>
         <v>-3.6178604790133395</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E21&lt;-1.6,I21&lt;-1.6,J21&lt;-1.6),OR(D21&gt;1.6,F21&gt;1.6,G21&gt;1.6,H21&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>FP</v>
       </c>
       <c r="O21" s="1">
@@ -7158,89 +7153,89 @@
       </c>
       <c r="T21" s="1">
         <f>STANDARDIZE(mean!H20,mean!$H$39,mean!$H$38)</f>
-        <v>-1.6056621907854418</v>
+        <v>3.6491525920292482</v>
       </c>
       <c r="U21" s="1">
         <f>STANDARDIZE(mean!I20,mean!$I$39,mean!$I$38)</f>
-        <v>3.6491525920292482</v>
+        <v>-1.6056621907854418</v>
       </c>
       <c r="V21" s="1">
         <f>STANDARDIZE(mean!J20,mean!$J$39,mean!$J$38)</f>
         <v>-3.2570204536504086</v>
       </c>
       <c r="X21" s="3" t="str">
+        <f>IF(OR(OR(Q21&lt;-1.6,U21&lt;-1.6,V21&lt;-1.6),OR(P21&gt;1.6,R21&gt;1.6,S21&gt;1.6,T21&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y21" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>FP</v>
+      </c>
+      <c r="AC21" s="22">
+        <f t="shared" si="0"/>
+        <v>0.47249340391838612</v>
+      </c>
+      <c r="AD21" s="22">
+        <f t="shared" si="1"/>
+        <v>0.45429041854697483</v>
+      </c>
+      <c r="AE21" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y21" s="3" t="str">
+        <v>0.54487738838816835</v>
+      </c>
+      <c r="AF21" s="22">
         <f t="shared" si="3"/>
-        <v>FP</v>
-      </c>
-      <c r="AC21" s="22">
-        <f>_xlfn.NORM.S.DIST(C22,TRUE)</f>
-        <v>0.47249340391838612</v>
-      </c>
-      <c r="AD21" s="22">
-        <f>_xlfn.NORM.S.DIST(D22,TRUE)</f>
-        <v>0.45429041854697483</v>
-      </c>
-      <c r="AE21" s="22">
-        <f>_xlfn.NORM.S.DIST(E22,TRUE)</f>
-        <v>0.54487738838816835</v>
-      </c>
-      <c r="AF21" s="22">
-        <f>_xlfn.NORM.S.DIST(F22,TRUE)</f>
         <v>0.25009587064029493</v>
       </c>
       <c r="AG21" s="22">
-        <f>_xlfn.NORM.S.DIST(G22,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.45338723167029488</v>
       </c>
       <c r="AH21" s="22">
+        <f>_xlfn.NORM.S.DIST(I22,TRUE)</f>
+        <v>0.78886842948939184</v>
+      </c>
+      <c r="AI21" s="22">
         <f>_xlfn.NORM.S.DIST(H22,TRUE)</f>
-        <v>0.78886842948939184</v>
-      </c>
-      <c r="AI21" s="22">
-        <f>_xlfn.NORM.S.DIST(I22,TRUE)</f>
         <v>0.33922272143580856</v>
       </c>
       <c r="AJ21" s="22">
-        <f>_xlfn.NORM.S.DIST(J22,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.75569681689185941</v>
       </c>
       <c r="AL21" t="s">
         <v>28</v>
       </c>
       <c r="AN21" s="22">
-        <f>_xlfn.NORM.S.DIST(C22,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.39799363076075323</v>
       </c>
       <c r="AO21" s="22">
-        <f>_xlfn.NORM.S.DIST(D22,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.39632077509228908</v>
       </c>
       <c r="AP21" s="22">
-        <f>_xlfn.NORM.S.DIST(E22,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.39641546115809612</v>
       </c>
       <c r="AQ21" s="22">
-        <f>_xlfn.NORM.S.DIST(F22,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.31784122198761022</v>
       </c>
       <c r="AR21" s="22">
-        <f>_xlfn.NORM.S.DIST(G22,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.39621603400589123</v>
       </c>
       <c r="AS21" s="22">
+        <f>_xlfn.NORM.S.DIST(I22,FALSE)</f>
+        <v>0.2891115854152978</v>
+      </c>
+      <c r="AT21" s="22">
         <f>_xlfn.NORM.S.DIST(H22,FALSE)</f>
-        <v>0.2891115854152978</v>
-      </c>
-      <c r="AT21" s="22">
-        <f>_xlfn.NORM.S.DIST(I22,FALSE)</f>
         <v>0.36608890788429482</v>
       </c>
       <c r="AU21" s="22">
-        <f>_xlfn.NORM.S.DIST(J22,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.31388285587883552</v>
       </c>
       <c r="AW21" t="s">
@@ -7273,22 +7268,22 @@
       </c>
       <c r="H22" s="1">
         <f>STANDARDIZE(mean!H21,mean!$H$37,mean!$H$38)</f>
-        <v>0.80250111960341031</v>
+        <v>-0.41458539327664917</v>
       </c>
       <c r="I22" s="1">
         <f>STANDARDIZE(mean!I21,mean!$I$37,mean!$I$38)</f>
-        <v>-0.41458539327664917</v>
+        <v>0.80250111960341031</v>
       </c>
       <c r="J22" s="1">
         <f>STANDARDIZE(mean!J21,mean!$J$37,mean!$J$38)</f>
         <v>0.69252711127705691</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E22&lt;-1.6,I22&lt;-1.6,J22&lt;-1.6),OR(D22&gt;1.6,F22&gt;1.6,G22&gt;1.6,H22&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>FN</v>
       </c>
       <c r="O22" s="1">
@@ -7313,89 +7308,89 @@
       </c>
       <c r="T22" s="1">
         <f>STANDARDIZE(mean!H21,mean!$H$39,mean!$H$38)</f>
-        <v>1.166134439423705</v>
+        <v>-0.20629128264490279</v>
       </c>
       <c r="U22" s="1">
         <f>STANDARDIZE(mean!I21,mean!$I$39,mean!$I$38)</f>
-        <v>-0.20629128264490279</v>
+        <v>1.166134439423705</v>
       </c>
       <c r="V22" s="1">
         <f>STANDARDIZE(mean!J21,mean!$J$39,mean!$J$38)</f>
         <v>1.0533671366399879</v>
       </c>
       <c r="X22" s="3" t="str">
+        <f>IF(OR(OR(Q22&lt;-1.6,U22&lt;-1.6,V22&lt;-1.6),OR(P22&gt;1.6,R22&gt;1.6,S22&gt;1.6,T22&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y22" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>FN</v>
+      </c>
+      <c r="AC22" s="22">
+        <f t="shared" si="0"/>
+        <v>0.23046524782349961</v>
+      </c>
+      <c r="AD22" s="22">
+        <f t="shared" si="1"/>
+        <v>0.446302886076965</v>
+      </c>
+      <c r="AE22" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y22" s="3" t="str">
+        <v>0.1797770772677674</v>
+      </c>
+      <c r="AF22" s="22">
         <f t="shared" si="3"/>
-        <v>FN</v>
-      </c>
-      <c r="AC22" s="22">
-        <f>_xlfn.NORM.S.DIST(C23,TRUE)</f>
-        <v>0.23046524782349961</v>
-      </c>
-      <c r="AD22" s="22">
-        <f>_xlfn.NORM.S.DIST(D23,TRUE)</f>
-        <v>0.446302886076965</v>
-      </c>
-      <c r="AE22" s="22">
-        <f>_xlfn.NORM.S.DIST(E23,TRUE)</f>
-        <v>0.1797770772677674</v>
-      </c>
-      <c r="AF22" s="22">
-        <f>_xlfn.NORM.S.DIST(F23,TRUE)</f>
         <v>0.34546322927344641</v>
       </c>
       <c r="AG22" s="22">
-        <f>_xlfn.NORM.S.DIST(G23,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.9011597526727354</v>
       </c>
       <c r="AH22" s="22">
+        <f>_xlfn.NORM.S.DIST(I23,TRUE)</f>
+        <v>0.35683446867137886</v>
+      </c>
+      <c r="AI22" s="22">
         <f>_xlfn.NORM.S.DIST(H23,TRUE)</f>
-        <v>0.35683446867137886</v>
-      </c>
-      <c r="AI22" s="22">
-        <f>_xlfn.NORM.S.DIST(I23,TRUE)</f>
         <v>0.36674725560117616</v>
       </c>
       <c r="AJ22" s="22">
-        <f>_xlfn.NORM.S.DIST(J23,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.3239790472787315</v>
       </c>
       <c r="AL22" t="s">
         <v>29</v>
       </c>
       <c r="AN22" s="22">
-        <f>_xlfn.NORM.S.DIST(C23,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.30399147462048348</v>
       </c>
       <c r="AO22" s="22">
-        <f>_xlfn.NORM.S.DIST(D23,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.39532302038092904</v>
       </c>
       <c r="AP22" s="22">
-        <f>_xlfn.NORM.S.DIST(E23,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.26219586709533832</v>
       </c>
       <c r="AQ22" s="22">
-        <f>_xlfn.NORM.S.DIST(F23,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.36862306568302167</v>
       </c>
       <c r="AR22" s="22">
-        <f>_xlfn.NORM.S.DIST(G23,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.1740082061811688</v>
       </c>
       <c r="AS22" s="22">
+        <f>_xlfn.NORM.S.DIST(I23,FALSE)</f>
+        <v>0.37296955861359166</v>
+      </c>
+      <c r="AT22" s="22">
         <f>_xlfn.NORM.S.DIST(H23,FALSE)</f>
-        <v>0.37296955861359166</v>
-      </c>
-      <c r="AT22" s="22">
-        <f>_xlfn.NORM.S.DIST(I23,FALSE)</f>
         <v>0.37647557548050176</v>
       </c>
       <c r="AU22" s="22">
-        <f>_xlfn.NORM.S.DIST(J23,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.35944984634637445</v>
       </c>
       <c r="AW22" t="s">
@@ -7428,22 +7423,22 @@
       </c>
       <c r="H23" s="1">
         <f>STANDARDIZE(mean!H22,mean!$H$37,mean!$H$38)</f>
-        <v>-0.36693307771340117</v>
+        <v>-0.34048075776343101</v>
       </c>
       <c r="I23" s="1">
         <f>STANDARDIZE(mean!I22,mean!$I$37,mean!$I$38)</f>
-        <v>-0.34048075776343101</v>
+        <v>-0.36693307771340117</v>
       </c>
       <c r="J23" s="1">
         <f>STANDARDIZE(mean!J22,mean!$J$37,mean!$J$38)</f>
         <v>-0.45660067414838296</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E23&lt;-1.6,I23&lt;-1.6,J23&lt;-1.6),OR(D23&gt;1.6,F23&gt;1.6,G23&gt;1.6,H23&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>FN</v>
       </c>
       <c r="O23" s="1">
@@ -7468,89 +7463,89 @@
       </c>
       <c r="T23" s="1">
         <f>STANDARDIZE(mean!H22,mean!$H$39,mean!$H$38)</f>
-        <v>-3.2997578931065271E-3</v>
+        <v>-0.1321866471316846</v>
       </c>
       <c r="U23" s="1">
         <f>STANDARDIZE(mean!I22,mean!$I$39,mean!$I$38)</f>
-        <v>-0.1321866471316846</v>
+        <v>-3.2997578931065271E-3</v>
       </c>
       <c r="V23" s="1">
         <f>STANDARDIZE(mean!J22,mean!$J$39,mean!$J$38)</f>
         <v>-9.5760648785452041E-2</v>
       </c>
       <c r="X23" s="3" t="str">
+        <f>IF(OR(OR(Q23&lt;-1.6,U23&lt;-1.6,V23&lt;-1.6),OR(P23&gt;1.6,R23&gt;1.6,S23&gt;1.6,T23&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y23" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>FN</v>
+      </c>
+      <c r="AC23" s="22">
+        <f t="shared" si="0"/>
+        <v>0.64118558755618105</v>
+      </c>
+      <c r="AD23" s="22">
+        <f t="shared" si="1"/>
+        <v>0.39784553567291758</v>
+      </c>
+      <c r="AE23" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y23" s="3" t="str">
+        <v>0.56576985361679422</v>
+      </c>
+      <c r="AF23" s="22">
         <f t="shared" si="3"/>
-        <v>FN</v>
-      </c>
-      <c r="AC23" s="22">
-        <f>_xlfn.NORM.S.DIST(C24,TRUE)</f>
-        <v>0.64118558755618105</v>
-      </c>
-      <c r="AD23" s="22">
-        <f>_xlfn.NORM.S.DIST(D24,TRUE)</f>
-        <v>0.39784553567291758</v>
-      </c>
-      <c r="AE23" s="22">
-        <f>_xlfn.NORM.S.DIST(E24,TRUE)</f>
-        <v>0.56576985361679422</v>
-      </c>
-      <c r="AF23" s="22">
-        <f>_xlfn.NORM.S.DIST(F24,TRUE)</f>
         <v>0.97506631045697834</v>
       </c>
       <c r="AG23" s="22">
-        <f>_xlfn.NORM.S.DIST(G24,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.96050871036810848</v>
       </c>
       <c r="AH23" s="22">
+        <f>_xlfn.NORM.S.DIST(I24,TRUE)</f>
+        <v>0.11056097286630645</v>
+      </c>
+      <c r="AI23" s="22">
         <f>_xlfn.NORM.S.DIST(H24,TRUE)</f>
-        <v>0.11056097286630645</v>
-      </c>
-      <c r="AI23" s="22">
-        <f>_xlfn.NORM.S.DIST(I24,TRUE)</f>
         <v>0.96395422507189454</v>
       </c>
       <c r="AJ23" s="22">
-        <f>_xlfn.NORM.S.DIST(J24,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.16416275195876803</v>
       </c>
       <c r="AL23" t="s">
         <v>30</v>
       </c>
       <c r="AN23" s="22">
-        <f>_xlfn.NORM.S.DIST(C24,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.37369081351407157</v>
       </c>
       <c r="AO23" s="22">
-        <f>_xlfn.NORM.S.DIST(D24,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.38579069609876154</v>
       </c>
       <c r="AP23" s="22">
-        <f>_xlfn.NORM.S.DIST(E24,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.3935084948184121</v>
       </c>
       <c r="AQ23" s="22">
-        <f>_xlfn.NORM.S.DIST(F24,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>5.8315066052467106E-2</v>
       </c>
       <c r="AR23" s="22">
-        <f>_xlfn.NORM.S.DIST(G24,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>8.528167512908949E-2</v>
       </c>
       <c r="AS23" s="22">
+        <f>_xlfn.NORM.S.DIST(I24,FALSE)</f>
+        <v>0.18872278023808978</v>
+      </c>
+      <c r="AT23" s="22">
         <f>_xlfn.NORM.S.DIST(H24,FALSE)</f>
-        <v>0.18872278023808978</v>
-      </c>
-      <c r="AT23" s="22">
-        <f>_xlfn.NORM.S.DIST(I24,FALSE)</f>
         <v>7.9157894421541961E-2</v>
       </c>
       <c r="AU23" s="22">
-        <f>_xlfn.NORM.S.DIST(J24,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.2474160120160431</v>
       </c>
       <c r="AW23" t="s">
@@ -7583,22 +7578,22 @@
       </c>
       <c r="H24" s="1">
         <f>STANDARDIZE(mean!H23,mean!$H$37,mean!$H$38)</f>
-        <v>-1.2235502267637517</v>
+        <v>1.7985395321856563</v>
       </c>
       <c r="I24" s="1">
         <f>STANDARDIZE(mean!I23,mean!$I$37,mean!$I$38)</f>
-        <v>1.7985395321856563</v>
+        <v>-1.2235502267637517</v>
       </c>
       <c r="J24" s="1">
         <f>STANDARDIZE(mean!J23,mean!$J$37,mean!$J$38)</f>
         <v>-0.97749226774345388</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E24&lt;-1.6,I24&lt;-1.6,J24&lt;-1.6),OR(D24&gt;1.6,F24&gt;1.6,G24&gt;1.6,H24&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>FP</v>
       </c>
       <c r="O24" s="1">
@@ -7623,89 +7618,89 @@
       </c>
       <c r="T24" s="1">
         <f>STANDARDIZE(mean!H23,mean!$H$39,mean!$H$38)</f>
-        <v>-0.85991690694345702</v>
+        <v>2.0068336428174027</v>
       </c>
       <c r="U24" s="1">
         <f>STANDARDIZE(mean!I23,mean!$I$39,mean!$I$38)</f>
-        <v>2.0068336428174027</v>
+        <v>-0.85991690694345702</v>
       </c>
       <c r="V24" s="1">
         <f>STANDARDIZE(mean!J23,mean!$J$39,mean!$J$38)</f>
         <v>-0.61665224238052296</v>
       </c>
       <c r="X24" s="3" t="str">
+        <f>IF(OR(OR(Q24&lt;-1.6,U24&lt;-1.6,V24&lt;-1.6),OR(P24&gt;1.6,R24&gt;1.6,S24&gt;1.6,T24&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y24" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>FP</v>
+      </c>
+      <c r="AC24" s="22">
+        <f t="shared" si="0"/>
+        <v>0.35976988939045662</v>
+      </c>
+      <c r="AD24" s="22">
+        <f t="shared" si="1"/>
+        <v>0.37817084532742373</v>
+      </c>
+      <c r="AE24" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y24" s="3" t="str">
+        <v>0.24050666345442206</v>
+      </c>
+      <c r="AF24" s="22">
         <f t="shared" si="3"/>
-        <v>FP</v>
-      </c>
-      <c r="AC24" s="22">
-        <f>_xlfn.NORM.S.DIST(C25,TRUE)</f>
-        <v>0.35976988939045662</v>
-      </c>
-      <c r="AD24" s="22">
-        <f>_xlfn.NORM.S.DIST(D25,TRUE)</f>
-        <v>0.37817084532742373</v>
-      </c>
-      <c r="AE24" s="22">
-        <f>_xlfn.NORM.S.DIST(E25,TRUE)</f>
-        <v>0.24050666345442206</v>
-      </c>
-      <c r="AF24" s="22">
-        <f>_xlfn.NORM.S.DIST(F25,TRUE)</f>
         <v>0.90650980594662645</v>
       </c>
       <c r="AG24" s="22">
-        <f>_xlfn.NORM.S.DIST(G25,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.96951604735065777</v>
       </c>
       <c r="AH24" s="22">
+        <f>_xlfn.NORM.S.DIST(I25,TRUE)</f>
+        <v>8.1885849017312481E-2</v>
+      </c>
+      <c r="AI24" s="22">
         <f>_xlfn.NORM.S.DIST(H25,TRUE)</f>
-        <v>8.1885849017312481E-2</v>
-      </c>
-      <c r="AI24" s="22">
-        <f>_xlfn.NORM.S.DIST(I25,TRUE)</f>
         <v>0.88871490688010724</v>
       </c>
       <c r="AJ24" s="22">
-        <f>_xlfn.NORM.S.DIST(J25,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.10612574664125871</v>
       </c>
       <c r="AL24" t="s">
         <v>31</v>
       </c>
       <c r="AN24" s="22">
-        <f>_xlfn.NORM.S.DIST(C25,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.37403512114492221</v>
       </c>
       <c r="AO24" s="22">
-        <f>_xlfn.NORM.S.DIST(D25,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.3801923527616462</v>
       </c>
       <c r="AP24" s="22">
-        <f>_xlfn.NORM.S.DIST(E25,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.31123063833302417</v>
       </c>
       <c r="AQ24" s="22">
-        <f>_xlfn.NORM.S.DIST(F25,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.16703297020013061</v>
       </c>
       <c r="AR24" s="22">
-        <f>_xlfn.NORM.S.DIST(G25,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>6.895045301054388E-2</v>
       </c>
       <c r="AS24" s="22">
+        <f>_xlfn.NORM.S.DIST(I25,FALSE)</f>
+        <v>0.15130408825164543</v>
+      </c>
+      <c r="AT24" s="22">
         <f>_xlfn.NORM.S.DIST(H25,FALSE)</f>
-        <v>0.15130408825164543</v>
-      </c>
-      <c r="AT24" s="22">
-        <f>_xlfn.NORM.S.DIST(I25,FALSE)</f>
         <v>0.18960739069842347</v>
       </c>
       <c r="AU24" s="22">
-        <f>_xlfn.NORM.S.DIST(J25,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.18324343209992883</v>
       </c>
       <c r="AW24" t="s">
@@ -7738,22 +7733,22 @@
       </c>
       <c r="H25" s="1">
         <f>STANDARDIZE(mean!H24,mean!$H$37,mean!$H$38)</f>
-        <v>-1.3924978308907854</v>
+        <v>1.2197222439878228</v>
       </c>
       <c r="I25" s="1">
         <f>STANDARDIZE(mean!I24,mean!$I$37,mean!$I$38)</f>
-        <v>1.2197222439878228</v>
+        <v>-1.3924978308907854</v>
       </c>
       <c r="J25" s="1">
         <f>STANDARDIZE(mean!J24,mean!$J$37,mean!$J$38)</f>
         <v>-1.2473982899250333</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E25&lt;-1.6,I25&lt;-1.6,J25&lt;-1.6),OR(D25&gt;1.6,F25&gt;1.6,G25&gt;1.6,H25&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M25" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TP</v>
       </c>
       <c r="O25" s="1">
@@ -7778,89 +7773,89 @@
       </c>
       <c r="T25" s="1">
         <f>STANDARDIZE(mean!H24,mean!$H$39,mean!$H$38)</f>
-        <v>-1.0288645110704908</v>
+        <v>1.428016354619569</v>
       </c>
       <c r="U25" s="1">
         <f>STANDARDIZE(mean!I24,mean!$I$39,mean!$I$38)</f>
-        <v>1.428016354619569</v>
+        <v>-1.0288645110704908</v>
       </c>
       <c r="V25" s="1">
         <f>STANDARDIZE(mean!J24,mean!$J$39,mean!$J$38)</f>
         <v>-0.8865582645621024</v>
       </c>
       <c r="X25" s="3" t="str">
+        <f>IF(OR(OR(Q25&lt;-1.6,U25&lt;-1.6,V25&lt;-1.6),OR(P25&gt;1.6,R25&gt;1.6,S25&gt;1.6,T25&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="Y25" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TP</v>
+      </c>
+      <c r="AC25" s="22">
+        <f t="shared" si="0"/>
+        <v>0.22852756151882112</v>
+      </c>
+      <c r="AD25" s="22">
+        <f t="shared" si="1"/>
+        <v>0.4921705931137022</v>
+      </c>
+      <c r="AE25" s="22">
         <f t="shared" si="2"/>
-        <v>y</v>
-      </c>
-      <c r="Y25" s="3" t="str">
+        <v>0.15186197655485129</v>
+      </c>
+      <c r="AF25" s="22">
         <f t="shared" si="3"/>
-        <v>TP</v>
-      </c>
-      <c r="AC25" s="22">
-        <f>_xlfn.NORM.S.DIST(C26,TRUE)</f>
-        <v>0.22852756151882112</v>
-      </c>
-      <c r="AD25" s="22">
-        <f>_xlfn.NORM.S.DIST(D26,TRUE)</f>
-        <v>0.4921705931137022</v>
-      </c>
-      <c r="AE25" s="22">
-        <f>_xlfn.NORM.S.DIST(E26,TRUE)</f>
-        <v>0.15186197655485129</v>
-      </c>
-      <c r="AF25" s="22">
-        <f>_xlfn.NORM.S.DIST(F26,TRUE)</f>
         <v>0.42911371314176461</v>
       </c>
       <c r="AG25" s="22">
-        <f>_xlfn.NORM.S.DIST(G26,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.68026216820753871</v>
       </c>
       <c r="AH25" s="22">
+        <f>_xlfn.NORM.S.DIST(I26,TRUE)</f>
+        <v>0.25337354554493896</v>
+      </c>
+      <c r="AI25" s="22">
         <f>_xlfn.NORM.S.DIST(H26,TRUE)</f>
-        <v>0.25337354554493896</v>
-      </c>
-      <c r="AI25" s="22">
-        <f>_xlfn.NORM.S.DIST(I26,TRUE)</f>
         <v>0.84457282153314228</v>
       </c>
       <c r="AJ25" s="22">
-        <f>_xlfn.NORM.S.DIST(J26,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.18501834994039074</v>
       </c>
       <c r="AL25" t="s">
         <v>32</v>
       </c>
       <c r="AN25" s="22">
-        <f>_xlfn.NORM.S.DIST(C26,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.30255660316624222</v>
       </c>
       <c r="AO25" s="22">
-        <f>_xlfn.NORM.S.DIST(D26,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.39886545026474807</v>
       </c>
       <c r="AP25" s="22">
-        <f>_xlfn.NORM.S.DIST(E26,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.23508117555922181</v>
       </c>
       <c r="AQ25" s="22">
-        <f>_xlfn.NORM.S.DIST(F26,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.39262785247150578</v>
       </c>
       <c r="AR25" s="22">
-        <f>_xlfn.NORM.S.DIST(G26,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.35748823770316207</v>
       </c>
       <c r="AS25" s="22">
+        <f>_xlfn.NORM.S.DIST(I26,FALSE)</f>
+        <v>0.32003413006158882</v>
+      </c>
+      <c r="AT25" s="22">
         <f>_xlfn.NORM.S.DIST(H26,FALSE)</f>
-        <v>0.32003413006158882</v>
-      </c>
-      <c r="AT25" s="22">
-        <f>_xlfn.NORM.S.DIST(I26,FALSE)</f>
         <v>0.2387210198278287</v>
       </c>
       <c r="AU25" s="22">
-        <f>_xlfn.NORM.S.DIST(J26,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.26694592851586901</v>
       </c>
       <c r="AW25" t="s">
@@ -7893,22 +7888,22 @@
       </c>
       <c r="H26" s="1">
         <f>STANDARDIZE(mean!H25,mean!$H$37,mean!$H$38)</f>
-        <v>-0.66391128809295175</v>
+        <v>1.0134309613429193</v>
       </c>
       <c r="I26" s="1">
         <f>STANDARDIZE(mean!I25,mean!$I$37,mean!$I$38)</f>
-        <v>1.0134309613429193</v>
+        <v>-0.66391128809295175</v>
       </c>
       <c r="J26" s="1">
         <f>STANDARDIZE(mean!J25,mean!$J$37,mean!$J$38)</f>
         <v>-0.89640462159447798</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E26&lt;-1.6,I26&lt;-1.6,J26&lt;-1.6),OR(D26&gt;1.6,F26&gt;1.6,G26&gt;1.6,H26&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TN</v>
       </c>
       <c r="O26" s="1">
@@ -7933,89 +7928,89 @@
       </c>
       <c r="T26" s="1">
         <f>STANDARDIZE(mean!H25,mean!$H$39,mean!$H$38)</f>
-        <v>-0.30027796827265707</v>
+        <v>1.2217250719746657</v>
       </c>
       <c r="U26" s="1">
         <f>STANDARDIZE(mean!I25,mean!$I$39,mean!$I$38)</f>
-        <v>1.2217250719746657</v>
+        <v>-0.30027796827265707</v>
       </c>
       <c r="V26" s="1">
         <f>STANDARDIZE(mean!J25,mean!$J$39,mean!$J$38)</f>
         <v>-0.53556459623154717</v>
       </c>
       <c r="X26" s="3" t="str">
+        <f>IF(OR(OR(Q26&lt;-1.6,U26&lt;-1.6,V26&lt;-1.6),OR(P26&gt;1.6,R26&gt;1.6,S26&gt;1.6,T26&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y26" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TN</v>
+      </c>
+      <c r="AC26" s="22">
+        <f t="shared" si="0"/>
+        <v>0.66010266999057876</v>
+      </c>
+      <c r="AD26" s="22">
+        <f t="shared" si="1"/>
+        <v>0.4041355435287825</v>
+      </c>
+      <c r="AE26" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y26" s="3" t="str">
+        <v>0.72352190365570057</v>
+      </c>
+      <c r="AF26" s="22">
         <f t="shared" si="3"/>
-        <v>TN</v>
-      </c>
-      <c r="AC26" s="22">
-        <f>_xlfn.NORM.S.DIST(C27,TRUE)</f>
-        <v>0.66010266999057876</v>
-      </c>
-      <c r="AD26" s="22">
-        <f>_xlfn.NORM.S.DIST(D27,TRUE)</f>
-        <v>0.4041355435287825</v>
-      </c>
-      <c r="AE26" s="22">
-        <f>_xlfn.NORM.S.DIST(E27,TRUE)</f>
-        <v>0.72352190365570057</v>
-      </c>
-      <c r="AF26" s="22">
-        <f>_xlfn.NORM.S.DIST(F27,TRUE)</f>
         <v>0.67965904962309764</v>
       </c>
       <c r="AG26" s="22">
-        <f>_xlfn.NORM.S.DIST(G27,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.92003337695277054</v>
       </c>
       <c r="AH26" s="22">
+        <f>_xlfn.NORM.S.DIST(I27,TRUE)</f>
+        <v>0.50842441660324034</v>
+      </c>
+      <c r="AI26" s="22">
         <f>_xlfn.NORM.S.DIST(H27,TRUE)</f>
-        <v>0.50842441660324034</v>
-      </c>
-      <c r="AI26" s="22">
-        <f>_xlfn.NORM.S.DIST(I27,TRUE)</f>
         <v>0.36599349731854208</v>
       </c>
       <c r="AJ26" s="22">
-        <f>_xlfn.NORM.S.DIST(J27,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.64103480503959043</v>
       </c>
       <c r="AL26" t="s">
         <v>33</v>
       </c>
       <c r="AN26" s="22">
-        <f>_xlfn.NORM.S.DIST(C27,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.36636796933729304</v>
       </c>
       <c r="AO26" s="22">
-        <f>_xlfn.NORM.S.DIST(D27,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.38736814709968742</v>
       </c>
       <c r="AP26" s="22">
-        <f>_xlfn.NORM.S.DIST(E27,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.33455217170324136</v>
       </c>
       <c r="AQ26" s="22">
-        <f>_xlfn.NORM.S.DIST(F27,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.35777024914204453</v>
       </c>
       <c r="AR26" s="22">
-        <f>_xlfn.NORM.S.DIST(G27,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.14861932550743104</v>
       </c>
       <c r="AS26" s="22">
+        <f>_xlfn.NORM.S.DIST(I27,FALSE)</f>
+        <v>0.39885332839489374</v>
+      </c>
+      <c r="AT26" s="22">
         <f>_xlfn.NORM.S.DIST(H27,FALSE)</f>
-        <v>0.39885332839489374</v>
-      </c>
-      <c r="AT26" s="22">
-        <f>_xlfn.NORM.S.DIST(I27,FALSE)</f>
         <v>0.37621818055120931</v>
       </c>
       <c r="AU26" s="22">
-        <f>_xlfn.NORM.S.DIST(J27,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.37374531052015081</v>
       </c>
       <c r="AW26" t="s">
@@ -8048,22 +8043,22 @@
       </c>
       <c r="H27" s="1">
         <f>STANDARDIZE(mean!H26,mean!$H$37,mean!$H$38)</f>
-        <v>2.1118450515880297E-2</v>
+        <v>-0.34248358575027582</v>
       </c>
       <c r="I27" s="1">
         <f>STANDARDIZE(mean!I26,mean!$I$37,mean!$I$38)</f>
-        <v>-0.34248358575027582</v>
+        <v>2.1118450515880297E-2</v>
       </c>
       <c r="J27" s="1">
         <f>STANDARDIZE(mean!J26,mean!$J$37,mean!$J$38)</f>
         <v>0.36122615701125294</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E27&lt;-1.6,I27&lt;-1.6,J27&lt;-1.6),OR(D27&gt;1.6,F27&gt;1.6,G27&gt;1.6,H27&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TN</v>
       </c>
       <c r="O27" s="1">
@@ -8088,89 +8083,89 @@
       </c>
       <c r="T27" s="1">
         <f>STANDARDIZE(mean!H26,mean!$H$39,mean!$H$38)</f>
-        <v>0.38475177033617497</v>
+        <v>-0.13418947511852944</v>
       </c>
       <c r="U27" s="1">
         <f>STANDARDIZE(mean!I26,mean!$I$39,mean!$I$38)</f>
-        <v>-0.13418947511852944</v>
+        <v>0.38475177033617497</v>
       </c>
       <c r="V27" s="1">
         <f>STANDARDIZE(mean!J26,mean!$J$39,mean!$J$38)</f>
         <v>0.72206618237418385</v>
       </c>
       <c r="X27" s="3" t="str">
+        <f>IF(OR(OR(Q27&lt;-1.6,U27&lt;-1.6,V27&lt;-1.6),OR(P27&gt;1.6,R27&gt;1.6,S27&gt;1.6,T27&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y27" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TN</v>
+      </c>
+      <c r="AC27" s="22">
+        <f t="shared" si="0"/>
+        <v>0.32183299777290275</v>
+      </c>
+      <c r="AD27" s="22">
+        <f t="shared" si="1"/>
+        <v>0.3622577277582778</v>
+      </c>
+      <c r="AE27" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y27" s="3" t="str">
+        <v>0.40486770752242529</v>
+      </c>
+      <c r="AF27" s="22">
         <f t="shared" si="3"/>
-        <v>TN</v>
-      </c>
-      <c r="AC27" s="22">
-        <f>_xlfn.NORM.S.DIST(C28,TRUE)</f>
-        <v>0.32183299777290275</v>
-      </c>
-      <c r="AD27" s="22">
-        <f>_xlfn.NORM.S.DIST(D28,TRUE)</f>
-        <v>0.3622577277582778</v>
-      </c>
-      <c r="AE27" s="22">
-        <f>_xlfn.NORM.S.DIST(E28,TRUE)</f>
-        <v>0.40486770752242529</v>
-      </c>
-      <c r="AF27" s="22">
-        <f>_xlfn.NORM.S.DIST(F28,TRUE)</f>
         <v>0.12654951302745104</v>
       </c>
       <c r="AG27" s="22">
-        <f>_xlfn.NORM.S.DIST(G28,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.27909232471132872</v>
       </c>
       <c r="AH27" s="22">
+        <f>_xlfn.NORM.S.DIST(I28,TRUE)</f>
+        <v>0.99999999999999822</v>
+      </c>
+      <c r="AI27" s="22">
         <f>_xlfn.NORM.S.DIST(H28,TRUE)</f>
-        <v>0.99999999999999822</v>
-      </c>
-      <c r="AI27" s="22">
-        <f>_xlfn.NORM.S.DIST(I28,TRUE)</f>
         <v>0.27865941327409449</v>
       </c>
       <c r="AJ27" s="22">
-        <f>_xlfn.NORM.S.DIST(J28,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.87895641599564822</v>
       </c>
       <c r="AL27" t="s">
         <v>34</v>
       </c>
       <c r="AN27" s="22">
-        <f>_xlfn.NORM.S.DIST(C28,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>0.35846354648924006</v>
       </c>
       <c r="AO27" s="22">
-        <f>_xlfn.NORM.S.DIST(D28,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.37492017186837073</v>
       </c>
       <c r="AP27" s="22">
-        <f>_xlfn.NORM.S.DIST(E28,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.38754512002439578</v>
       </c>
       <c r="AQ27" s="22">
-        <f>_xlfn.NORM.S.DIST(F28,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.2076301964617559</v>
       </c>
       <c r="AR27" s="22">
-        <f>_xlfn.NORM.S.DIST(G28,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.33609308972659285</v>
       </c>
       <c r="AS27" s="22">
+        <f>_xlfn.NORM.S.DIST(I28,FALSE)</f>
+        <v>1.4256183509144002E-14</v>
+      </c>
+      <c r="AT27" s="22">
         <f>_xlfn.NORM.S.DIST(H28,FALSE)</f>
-        <v>1.4256183509144002E-14</v>
-      </c>
-      <c r="AT27" s="22">
-        <f>_xlfn.NORM.S.DIST(I28,FALSE)</f>
         <v>0.33583932386440252</v>
       </c>
       <c r="AU27" s="22">
-        <f>_xlfn.NORM.S.DIST(J28,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.20126396463215609</v>
       </c>
       <c r="AW27" s="11" t="s">
@@ -8203,22 +8198,22 @@
       </c>
       <c r="H28" s="1">
         <f>STANDARDIZE(mean!H27,mean!$H$37,mean!$H$38)</f>
-        <v>7.8692626234794965</v>
+        <v>-0.58682860014520855</v>
       </c>
       <c r="I28" s="1">
         <f>STANDARDIZE(mean!I27,mean!$I$37,mean!$I$38)</f>
-        <v>-0.58682860014520855</v>
+        <v>7.8692626234794965</v>
       </c>
       <c r="J28" s="1">
         <f>STANDARDIZE(mean!J27,mean!$J$37,mean!$J$38)</f>
         <v>1.1697858286110137</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E28&lt;-1.6,I28&lt;-1.6,J28&lt;-1.6),OR(D28&gt;1.6,F28&gt;1.6,G28&gt;1.6,H28&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>TN</v>
       </c>
       <c r="O28" s="1">
@@ -8243,89 +8238,89 @@
       </c>
       <c r="T28" s="1">
         <f>STANDARDIZE(mean!H27,mean!$H$39,mean!$H$38)</f>
-        <v>8.2328959432997895</v>
+        <v>-0.37853448951346219</v>
       </c>
       <c r="U28" s="1">
         <f>STANDARDIZE(mean!I27,mean!$I$39,mean!$I$38)</f>
-        <v>-0.37853448951346219</v>
+        <v>8.2328959432997895</v>
       </c>
       <c r="V28" s="1">
         <f>STANDARDIZE(mean!J27,mean!$J$39,mean!$J$38)</f>
         <v>1.5306258539739446</v>
       </c>
       <c r="X28" s="3" t="str">
+        <f>IF(OR(OR(Q28&lt;-1.6,U28&lt;-1.6,V28&lt;-1.6),OR(P28&gt;1.6,R28&gt;1.6,S28&gt;1.6,T28&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="Y28" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>TN</v>
+      </c>
+      <c r="AC28" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7747794598336366E-2</v>
+      </c>
+      <c r="AD28" s="22">
+        <f t="shared" si="1"/>
+        <v>0.49865095322076725</v>
+      </c>
+      <c r="AE28" s="22">
         <f t="shared" si="2"/>
-        <v>x</v>
-      </c>
-      <c r="Y28" s="3" t="str">
+        <v>5.456787902139981E-3</v>
+      </c>
+      <c r="AF28" s="22">
         <f t="shared" si="3"/>
-        <v>TN</v>
-      </c>
-      <c r="AC28" s="22">
-        <f>_xlfn.NORM.S.DIST(C29,TRUE)</f>
-        <v>2.7747794598336366E-2</v>
-      </c>
-      <c r="AD28" s="22">
-        <f>_xlfn.NORM.S.DIST(D29,TRUE)</f>
-        <v>0.49865095322076725</v>
-      </c>
-      <c r="AE28" s="22">
-        <f>_xlfn.NORM.S.DIST(E29,TRUE)</f>
-        <v>5.456787902139981E-3</v>
-      </c>
-      <c r="AF28" s="22">
-        <f>_xlfn.NORM.S.DIST(F29,TRUE)</f>
         <v>0.16583539278025256</v>
       </c>
       <c r="AG28" s="22">
-        <f>_xlfn.NORM.S.DIST(G29,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>0.60165670321163112</v>
       </c>
       <c r="AH28" s="22">
+        <f>_xlfn.NORM.S.DIST(I29,TRUE)</f>
+        <v>7.9476643365541305E-2</v>
+      </c>
+      <c r="AI28" s="22">
         <f>_xlfn.NORM.S.DIST(H29,TRUE)</f>
-        <v>7.9476643365541305E-2</v>
-      </c>
-      <c r="AI28" s="22">
-        <f>_xlfn.NORM.S.DIST(I29,TRUE)</f>
         <v>0.90749260220219763</v>
       </c>
       <c r="AJ28" s="22">
-        <f>_xlfn.NORM.S.DIST(J29,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>8.3333831663833079E-3</v>
       </c>
       <c r="AL28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="AN28" s="22">
-        <f>_xlfn.NORM.S.DIST(C29,FALSE)</f>
+        <f t="shared" si="6"/>
         <v>6.3767941377202542E-2</v>
       </c>
       <c r="AO28" s="22">
-        <f>_xlfn.NORM.S.DIST(D29,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>0.39893999945875475</v>
       </c>
       <c r="AP28" s="22">
-        <f>_xlfn.NORM.S.DIST(E29,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>1.5629323221062183E-2</v>
       </c>
       <c r="AQ28" s="22">
-        <f>_xlfn.NORM.S.DIST(F29,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.24904536398459387</v>
       </c>
       <c r="AR28" s="22">
-        <f>_xlfn.NORM.S.DIST(G29,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.38591925913084013</v>
       </c>
       <c r="AS28" s="22">
+        <f>_xlfn.NORM.S.DIST(I29,FALSE)</f>
+        <v>0.14792995001673809</v>
+      </c>
+      <c r="AT28" s="22">
         <f>_xlfn.NORM.S.DIST(H29,FALSE)</f>
-        <v>0.14792995001673809</v>
-      </c>
-      <c r="AT28" s="22">
-        <f>_xlfn.NORM.S.DIST(I29,FALSE)</f>
         <v>0.16573320810201778</v>
       </c>
       <c r="AU28" s="22">
-        <f>_xlfn.NORM.S.DIST(J29,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>2.2720153628183401E-2</v>
       </c>
       <c r="AW28" s="11" t="s">
@@ -8358,22 +8353,22 @@
       </c>
       <c r="H29" s="1">
         <f>STANDARDIZE(mean!H28,mean!$H$37,mean!$H$38)</f>
-        <v>-1.4086006494091432</v>
+        <v>1.3254715616931698</v>
       </c>
       <c r="I29" s="1">
         <f>STANDARDIZE(mean!I28,mean!$I$37,mean!$I$38)</f>
-        <v>1.3254715616931698</v>
+        <v>-1.4086006494091432</v>
       </c>
       <c r="J29" s="1">
         <f>STANDARDIZE(mean!J28,mean!$J$37,mean!$J$38)</f>
         <v>-2.393977606471509</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(OR(E29&lt;-1.6,I29&lt;-1.6,J29&lt;-1.6),OR(D29&gt;1.6,F29&gt;1.6,G29&gt;1.6,H29&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>FP</v>
       </c>
       <c r="O29" s="1">
@@ -8398,22 +8393,22 @@
       </c>
       <c r="T29" s="1">
         <f>STANDARDIZE(mean!H28,mean!$H$39,mean!$H$38)</f>
-        <v>-1.0449673295888486</v>
+        <v>1.5337656723249162</v>
       </c>
       <c r="U29" s="1">
         <f>STANDARDIZE(mean!I28,mean!$I$39,mean!$I$38)</f>
-        <v>1.5337656723249162</v>
+        <v>-1.0449673295888486</v>
       </c>
       <c r="V29" s="1">
         <f>STANDARDIZE(mean!J28,mean!$J$39,mean!$J$38)</f>
         <v>-2.0331375811085781</v>
       </c>
       <c r="X29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q29&lt;-1.6,U29&lt;-1.6,V29&lt;-1.6),OR(P29&gt;1.6,R29&gt;1.6,S29&gt;1.6,T29&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y29" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>FP</v>
       </c>
     </row>
@@ -8458,7 +8453,7 @@
         <v>53</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D34" si="4">COUNTIF($M$3:$M$29,C32)</f>
+        <f t="shared" ref="D32:D34" si="14">COUNTIF($M$3:$M$29,C32)</f>
         <v>4</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -8475,7 +8470,7 @@
         <v>53</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:P34" si="5">COUNTIF($Y$3:$Y$29,O32)</f>
+        <f t="shared" ref="P32:P34" si="15">COUNTIF($Y$3:$Y$29,O32)</f>
         <v>5</v>
       </c>
       <c r="R32" s="6" t="s">
@@ -8491,7 +8486,7 @@
         <v>54</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -8508,7 +8503,7 @@
         <v>54</v>
       </c>
       <c r="P33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="R33" s="6" t="s">
@@ -8524,7 +8519,7 @@
         <v>51</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -8541,7 +8536,7 @@
         <v>51</v>
       </c>
       <c r="P34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="R34" s="6" t="s">
@@ -8579,17 +8574,17 @@
       <formula>46</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2 H2 J2">
+  <conditionalFormatting sqref="E2 I2:J2 U2:V2">
     <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29 H3:H29 J3:J29">
+  <conditionalFormatting sqref="E3:E29 I3:J29 U3:V29">
     <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
       <formula>-1.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D29 F3:G29 I3:I29">
+  <conditionalFormatting sqref="D3:D29 F3:H29">
     <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
       <formula>1.6</formula>
     </cfRule>
@@ -8604,17 +8599,17 @@
       <formula>46</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2 T2 V2">
+  <conditionalFormatting sqref="Q2">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P29 R3:S29 U3:U29">
+  <conditionalFormatting sqref="P3:P29 R3:T29">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>1.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q29 T3:T29 V3:V29">
+  <conditionalFormatting sqref="Q3:Q29">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>-1.6</formula>
     </cfRule>
@@ -8638,9 +8633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F9D45B-100C-4CE5-9AB8-30256B6220D3}">
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H47" sqref="C47:H47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8668,10 +8661,10 @@
         <v>36</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -8700,10 +8693,10 @@
         <v>4</v>
       </c>
       <c r="H2">
+        <v>3.74</v>
+      </c>
+      <c r="I2">
         <v>3.78</v>
-      </c>
-      <c r="I2">
-        <v>3.74</v>
       </c>
       <c r="J2">
         <v>77.36</v>
@@ -8732,10 +8725,10 @@
         <v>4</v>
       </c>
       <c r="H3">
+        <v>4.22</v>
+      </c>
+      <c r="I3">
         <v>3.12</v>
-      </c>
-      <c r="I3">
-        <v>4.22</v>
       </c>
       <c r="J3">
         <v>73.44</v>
@@ -8764,10 +8757,10 @@
         <v>5</v>
       </c>
       <c r="H4">
+        <v>2.64</v>
+      </c>
+      <c r="I4">
         <v>5.43</v>
-      </c>
-      <c r="I4">
-        <v>2.64</v>
       </c>
       <c r="J4">
         <v>81.69</v>
@@ -8796,10 +8789,10 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <v>1.41</v>
+      </c>
+      <c r="I5">
         <v>7.75</v>
-      </c>
-      <c r="I5">
-        <v>1.41</v>
       </c>
       <c r="J5">
         <v>77.5</v>
@@ -8828,10 +8821,10 @@
         <v>5</v>
       </c>
       <c r="H6">
+        <v>5.01</v>
+      </c>
+      <c r="I6">
         <v>2.8</v>
-      </c>
-      <c r="I6">
-        <v>5.01</v>
       </c>
       <c r="J6">
         <v>69.78</v>
@@ -8860,10 +8853,10 @@
         <v>8</v>
       </c>
       <c r="H7">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I7">
         <v>2.77</v>
-      </c>
-      <c r="I7">
-        <v>4.6399999999999997</v>
       </c>
       <c r="J7">
         <v>71.45</v>
@@ -8892,10 +8885,10 @@
         <v>3</v>
       </c>
       <c r="H8">
+        <v>3.06</v>
+      </c>
+      <c r="I8">
         <v>5.14</v>
-      </c>
-      <c r="I8">
-        <v>3.06</v>
       </c>
       <c r="J8">
         <v>80.38</v>
@@ -8924,10 +8917,10 @@
         <v>4</v>
       </c>
       <c r="H9">
+        <v>2.64</v>
+      </c>
+      <c r="I9">
         <v>5.03</v>
-      </c>
-      <c r="I9">
-        <v>2.64</v>
       </c>
       <c r="J9">
         <v>81.98</v>
@@ -8956,10 +8949,10 @@
         <v>4</v>
       </c>
       <c r="H10">
+        <v>3.43</v>
+      </c>
+      <c r="I10">
         <v>4.53</v>
-      </c>
-      <c r="I10">
-        <v>3.43</v>
       </c>
       <c r="J10">
         <v>79.45</v>
@@ -8988,10 +8981,10 @@
         <v>5</v>
       </c>
       <c r="H11">
+        <v>2.1</v>
+      </c>
+      <c r="I11">
         <v>6.51</v>
-      </c>
-      <c r="I11">
-        <v>2.1</v>
       </c>
       <c r="J11">
         <v>84.34</v>
@@ -9020,10 +9013,10 @@
         <v>5</v>
       </c>
       <c r="H12">
+        <v>1.63</v>
+      </c>
+      <c r="I12">
         <v>7.74</v>
-      </c>
-      <c r="I12">
-        <v>1.63</v>
       </c>
       <c r="J12">
         <v>84.5</v>
@@ -9052,10 +9045,10 @@
         <v>6</v>
       </c>
       <c r="H13">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I13">
         <v>5.17</v>
-      </c>
-      <c r="I13">
-        <v>2.2799999999999998</v>
       </c>
       <c r="J13">
         <v>82.61</v>
@@ -9084,10 +9077,10 @@
         <v>10</v>
       </c>
       <c r="H14">
+        <v>3.53</v>
+      </c>
+      <c r="I14">
         <v>3.19</v>
-      </c>
-      <c r="I14">
-        <v>3.53</v>
       </c>
       <c r="J14">
         <v>74.47</v>
@@ -9116,10 +9109,10 @@
         <v>7</v>
       </c>
       <c r="H15">
+        <v>2.85</v>
+      </c>
+      <c r="I15">
         <v>4.0599999999999996</v>
-      </c>
-      <c r="I15">
-        <v>2.85</v>
       </c>
       <c r="J15">
         <v>79.06</v>
@@ -9148,10 +9141,10 @@
         <v>9</v>
       </c>
       <c r="H16">
+        <v>6.38</v>
+      </c>
+      <c r="I16">
         <v>1.71</v>
-      </c>
-      <c r="I16">
-        <v>6.38</v>
       </c>
       <c r="J16">
         <v>60</v>
@@ -9180,10 +9173,10 @@
         <v>11</v>
       </c>
       <c r="H17">
+        <v>6.29</v>
+      </c>
+      <c r="I17">
         <v>1.75</v>
-      </c>
-      <c r="I17">
-        <v>6.29</v>
       </c>
       <c r="J17">
         <v>61.81</v>
@@ -9212,10 +9205,10 @@
         <v>7</v>
       </c>
       <c r="H18">
+        <v>3.53</v>
+      </c>
+      <c r="I18">
         <v>3.7</v>
-      </c>
-      <c r="I18">
-        <v>3.53</v>
       </c>
       <c r="J18">
         <v>77.36</v>
@@ -9244,10 +9237,10 @@
         <v>3</v>
       </c>
       <c r="H19">
+        <v>2.66</v>
+      </c>
+      <c r="I19">
         <v>4.13</v>
-      </c>
-      <c r="I19">
-        <v>2.66</v>
       </c>
       <c r="J19">
         <v>78.72</v>
@@ -9276,10 +9269,10 @@
         <v>7</v>
       </c>
       <c r="H20">
+        <v>5.27</v>
+      </c>
+      <c r="I20">
         <v>2.52</v>
-      </c>
-      <c r="I20">
-        <v>5.27</v>
       </c>
       <c r="J20">
         <v>70.11</v>
@@ -9308,10 +9301,10 @@
         <v>5</v>
       </c>
       <c r="H21">
+        <v>2.81</v>
+      </c>
+      <c r="I21">
         <v>3.56</v>
-      </c>
-      <c r="I21">
-        <v>2.81</v>
       </c>
       <c r="J21">
         <v>76.31</v>
@@ -9340,10 +9333,10 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>3.07</v>
+      </c>
+      <c r="I22">
         <v>5.9</v>
-      </c>
-      <c r="I22">
-        <v>3.07</v>
       </c>
       <c r="J22">
         <v>83.33</v>
@@ -9372,10 +9365,10 @@
         <v>2</v>
       </c>
       <c r="H23">
+        <v>2.73</v>
+      </c>
+      <c r="I23">
         <v>5.46</v>
-      </c>
-      <c r="I23">
-        <v>2.73</v>
       </c>
       <c r="J23">
         <v>82.65</v>
@@ -9404,10 +9397,10 @@
         <v>2</v>
       </c>
       <c r="H24">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I24">
         <v>6.76</v>
-      </c>
-      <c r="I24">
-        <v>2.3199999999999998</v>
       </c>
       <c r="J24">
         <v>77.739999999999995</v>
@@ -9436,10 +9429,10 @@
         <v>3</v>
       </c>
       <c r="H25">
+        <v>2.63</v>
+      </c>
+      <c r="I25">
         <v>5.82</v>
-      </c>
-      <c r="I25">
-        <v>2.63</v>
       </c>
       <c r="J25">
         <v>83.67</v>
@@ -9468,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>2.77</v>
+      </c>
+      <c r="I26">
         <v>6.23</v>
-      </c>
-      <c r="I26">
-        <v>2.77</v>
       </c>
       <c r="J26">
         <v>81.150000000000006</v>
@@ -9500,10 +9493,10 @@
         <v>5</v>
       </c>
       <c r="H27">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I27">
         <v>3.71</v>
-      </c>
-      <c r="I27">
-        <v>4.0599999999999996</v>
       </c>
       <c r="J27">
         <v>77.38</v>
@@ -9532,10 +9525,10 @@
         <v>6</v>
       </c>
       <c r="H28">
+        <v>4.01</v>
+      </c>
+      <c r="I28">
         <v>3.56</v>
-      </c>
-      <c r="I28">
-        <v>4.01</v>
       </c>
       <c r="J28">
         <v>64.77</v>
@@ -9564,10 +9557,10 @@
         <v>9</v>
       </c>
       <c r="H29">
+        <v>4.08</v>
+      </c>
+      <c r="I29">
         <v>2.09</v>
-      </c>
-      <c r="I29">
-        <v>4.08</v>
       </c>
       <c r="J29">
         <v>66.37</v>
@@ -9596,10 +9589,10 @@
         <v>4</v>
       </c>
       <c r="H30">
+        <v>3.37</v>
+      </c>
+      <c r="I30">
         <v>4.24</v>
-      </c>
-      <c r="I30">
-        <v>3.37</v>
       </c>
       <c r="J30">
         <v>70.47</v>
@@ -9628,10 +9621,10 @@
         <v>14</v>
       </c>
       <c r="H31">
+        <v>8.24</v>
+      </c>
+      <c r="I31">
         <v>1.2</v>
-      </c>
-      <c r="I31">
-        <v>8.24</v>
       </c>
       <c r="J31">
         <v>53.68</v>
@@ -9660,10 +9653,10 @@
         <v>10</v>
       </c>
       <c r="H32">
+        <v>5.44</v>
+      </c>
+      <c r="I32">
         <v>1.87</v>
-      </c>
-      <c r="I32">
-        <v>5.44</v>
       </c>
       <c r="J32">
         <v>63.78</v>
@@ -9692,10 +9685,10 @@
         <v>9</v>
       </c>
       <c r="H33">
+        <v>5.85</v>
+      </c>
+      <c r="I33">
         <v>1.96</v>
-      </c>
-      <c r="I33">
-        <v>5.85</v>
       </c>
       <c r="J33">
         <v>56.55</v>
@@ -9724,10 +9717,10 @@
         <v>7</v>
       </c>
       <c r="H34">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I34">
         <v>1.87</v>
-      </c>
-      <c r="I34">
-        <v>4.8600000000000003</v>
       </c>
       <c r="J34">
         <v>61.67</v>
@@ -9756,10 +9749,10 @@
         <v>15</v>
       </c>
       <c r="H35">
+        <v>6.91</v>
+      </c>
+      <c r="I35">
         <v>1.2</v>
-      </c>
-      <c r="I35">
-        <v>6.91</v>
       </c>
       <c r="J35">
         <v>53.46</v>
@@ -9788,10 +9781,10 @@
         <v>6</v>
       </c>
       <c r="H36">
+        <v>2.76</v>
+      </c>
+      <c r="I36">
         <v>4.6500000000000004</v>
-      </c>
-      <c r="I36">
-        <v>2.76</v>
       </c>
       <c r="J36">
         <v>79.459999999999994</v>
@@ -9820,10 +9813,10 @@
         <v>2</v>
       </c>
       <c r="H37">
+        <v>2.59</v>
+      </c>
+      <c r="I37">
         <v>4.83</v>
-      </c>
-      <c r="I37">
-        <v>2.59</v>
       </c>
       <c r="J37">
         <v>81.39</v>
@@ -9852,10 +9845,10 @@
         <v>4</v>
       </c>
       <c r="H38">
+        <v>3.78</v>
+      </c>
+      <c r="I38">
         <v>3.71</v>
-      </c>
-      <c r="I38">
-        <v>3.78</v>
       </c>
       <c r="J38">
         <v>74.489999999999995</v>
@@ -9884,10 +9877,10 @@
         <v>2</v>
       </c>
       <c r="H39">
+        <v>3.89</v>
+      </c>
+      <c r="I39">
         <v>4.2300000000000004</v>
-      </c>
-      <c r="I39">
-        <v>3.89</v>
       </c>
       <c r="J39">
         <v>78.89</v>
@@ -9916,10 +9909,10 @@
         <v>4</v>
       </c>
       <c r="H40">
+        <v>4.74</v>
+      </c>
+      <c r="I40">
         <v>2.93</v>
-      </c>
-      <c r="I40">
-        <v>4.74</v>
       </c>
       <c r="J40">
         <v>73.09</v>
@@ -9948,10 +9941,10 @@
         <v>4</v>
       </c>
       <c r="H41">
+        <v>2.95</v>
+      </c>
+      <c r="I41">
         <v>4.87</v>
-      </c>
-      <c r="I41">
-        <v>2.95</v>
       </c>
       <c r="J41">
         <v>81.3</v>
@@ -9980,10 +9973,10 @@
         <v>5</v>
       </c>
       <c r="H42">
+        <v>5.03</v>
+      </c>
+      <c r="I42">
         <v>2.83</v>
-      </c>
-      <c r="I42">
-        <v>5.03</v>
       </c>
       <c r="J42">
         <v>71.069999999999993</v>
@@ -10012,10 +10005,10 @@
         <v>1</v>
       </c>
       <c r="H43">
+        <v>2.5</v>
+      </c>
+      <c r="I43">
         <v>7.27</v>
-      </c>
-      <c r="I43">
-        <v>2.5</v>
       </c>
       <c r="J43">
         <v>85.62</v>
@@ -10044,10 +10037,10 @@
         <v>1</v>
       </c>
       <c r="H44">
+        <v>3.42</v>
+      </c>
+      <c r="I44">
         <v>4.93</v>
-      </c>
-      <c r="I44">
-        <v>3.42</v>
       </c>
       <c r="J44">
         <v>81.22</v>
@@ -10076,10 +10069,10 @@
         <v>2</v>
       </c>
       <c r="H45">
+        <v>3.27</v>
+      </c>
+      <c r="I45">
         <v>5.2</v>
-      </c>
-      <c r="I45">
-        <v>3.27</v>
       </c>
       <c r="J45">
         <v>81.67</v>
@@ -10108,10 +10101,10 @@
         <v>1</v>
       </c>
       <c r="H46">
+        <v>3.14</v>
+      </c>
+      <c r="I46">
         <v>5.63</v>
-      </c>
-      <c r="I46">
-        <v>3.14</v>
       </c>
       <c r="J46">
         <v>82.31</v>
@@ -10139,11 +10132,11 @@
       <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
       </c>
       <c r="J47" s="2">
         <v>97.21</v>
@@ -10172,10 +10165,10 @@
         <v>2</v>
       </c>
       <c r="H48">
+        <v>2.41</v>
+      </c>
+      <c r="I48">
         <v>6.96</v>
-      </c>
-      <c r="I48">
-        <v>2.41</v>
       </c>
       <c r="J48">
         <v>84.88</v>
@@ -10204,10 +10197,10 @@
         <v>3</v>
       </c>
       <c r="H49">
+        <v>3.03</v>
+      </c>
+      <c r="I49">
         <v>5.14</v>
-      </c>
-      <c r="I49">
-        <v>3.03</v>
       </c>
       <c r="J49">
         <v>81.08</v>
@@ -10236,10 +10229,10 @@
         <v>1</v>
       </c>
       <c r="H50">
+        <v>2.39</v>
+      </c>
+      <c r="I50">
         <v>6.74</v>
-      </c>
-      <c r="I50">
-        <v>2.39</v>
       </c>
       <c r="J50">
         <v>85.32</v>
@@ -10268,10 +10261,10 @@
         <v>2</v>
       </c>
       <c r="H51">
+        <v>3.51</v>
+      </c>
+      <c r="I51">
         <v>4.88</v>
-      </c>
-      <c r="I51">
-        <v>3.51</v>
       </c>
       <c r="J51">
         <v>81.03</v>
@@ -10300,10 +10293,10 @@
         <v>3</v>
       </c>
       <c r="H52">
+        <v>2.5</v>
+      </c>
+      <c r="I52">
         <v>6.36</v>
-      </c>
-      <c r="I52">
-        <v>2.5</v>
       </c>
       <c r="J52">
         <v>84.8</v>
@@ -10332,10 +10325,10 @@
         <v>1</v>
       </c>
       <c r="H53">
+        <v>1.52</v>
+      </c>
+      <c r="I53">
         <v>10.19</v>
-      </c>
-      <c r="I53">
-        <v>1.52</v>
       </c>
       <c r="J53">
         <v>89.28</v>
@@ -10364,10 +10357,10 @@
         <v>2</v>
       </c>
       <c r="H54">
+        <v>2.58</v>
+      </c>
+      <c r="I54">
         <v>6.02</v>
-      </c>
-      <c r="I54">
-        <v>2.58</v>
       </c>
       <c r="J54">
         <v>82.06</v>
@@ -10396,10 +10389,10 @@
         <v>6</v>
       </c>
       <c r="H55">
+        <v>3.22</v>
+      </c>
+      <c r="I55">
         <v>3.88</v>
-      </c>
-      <c r="I55">
-        <v>3.22</v>
       </c>
       <c r="J55">
         <v>75.25</v>
@@ -10427,11 +10420,11 @@
       <c r="G56" s="2">
         <v>0</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
       </c>
       <c r="J56" s="2">
         <v>98.14</v>
@@ -10460,10 +10453,10 @@
         <v>5</v>
       </c>
       <c r="H57">
+        <v>3.62</v>
+      </c>
+      <c r="I57">
         <v>3.54</v>
-      </c>
-      <c r="I57">
-        <v>3.62</v>
       </c>
       <c r="J57">
         <v>76.2</v>
@@ -10492,10 +10485,10 @@
         <v>6</v>
       </c>
       <c r="H58">
+        <v>4.49</v>
+      </c>
+      <c r="I58">
         <v>3.32</v>
-      </c>
-      <c r="I58">
-        <v>4.49</v>
       </c>
       <c r="J58">
         <v>74.89</v>
@@ -10524,10 +10517,10 @@
         <v>11</v>
       </c>
       <c r="H59">
+        <v>4.59</v>
+      </c>
+      <c r="I59">
         <v>2.64</v>
-      </c>
-      <c r="I59">
-        <v>4.59</v>
       </c>
       <c r="J59">
         <v>71.290000000000006</v>
@@ -10556,10 +10549,10 @@
         <v>9</v>
       </c>
       <c r="H60">
+        <v>4.51</v>
+      </c>
+      <c r="I60">
         <v>3.02</v>
-      </c>
-      <c r="I60">
-        <v>4.51</v>
       </c>
       <c r="J60">
         <v>70.44</v>
@@ -10588,10 +10581,10 @@
         <v>13</v>
       </c>
       <c r="H61">
+        <v>4.59</v>
+      </c>
+      <c r="I61">
         <v>2.74</v>
-      </c>
-      <c r="I61">
-        <v>4.59</v>
       </c>
       <c r="J61">
         <v>71.92</v>
@@ -10620,10 +10613,10 @@
         <v>3</v>
       </c>
       <c r="H62">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I62">
         <v>3.03</v>
-      </c>
-      <c r="I62">
-        <v>4.8600000000000003</v>
       </c>
       <c r="J62">
         <v>72.400000000000006</v>
@@ -10652,10 +10645,10 @@
         <v>10</v>
       </c>
       <c r="H63">
+        <v>3.13</v>
+      </c>
+      <c r="I63">
         <v>3.29</v>
-      </c>
-      <c r="I63">
-        <v>3.13</v>
       </c>
       <c r="J63">
         <v>75.23</v>
@@ -10684,10 +10677,10 @@
         <v>6</v>
       </c>
       <c r="H64">
+        <v>3.51</v>
+      </c>
+      <c r="I64">
         <v>3.86</v>
-      </c>
-      <c r="I64">
-        <v>3.51</v>
       </c>
       <c r="J64">
         <v>77.53</v>
@@ -10716,10 +10709,10 @@
         <v>3</v>
       </c>
       <c r="H65">
+        <v>4.67</v>
+      </c>
+      <c r="I65">
         <v>3.63</v>
-      </c>
-      <c r="I65">
-        <v>4.67</v>
       </c>
       <c r="J65">
         <v>76.02</v>
@@ -10748,10 +10741,10 @@
         <v>4</v>
       </c>
       <c r="H66">
+        <v>3.8</v>
+      </c>
+      <c r="I66">
         <v>4.12</v>
-      </c>
-      <c r="I66">
-        <v>3.8</v>
       </c>
       <c r="J66">
         <v>74.08</v>
@@ -10780,10 +10773,10 @@
         <v>5</v>
       </c>
       <c r="H67">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="I67">
         <v>3.69</v>
-      </c>
-      <c r="I67">
-        <v>4.1399999999999997</v>
       </c>
       <c r="J67">
         <v>76.67</v>
@@ -10812,10 +10805,10 @@
         <v>2</v>
       </c>
       <c r="H68">
+        <v>3.24</v>
+      </c>
+      <c r="I68">
         <v>5.0999999999999996</v>
-      </c>
-      <c r="I68">
-        <v>3.24</v>
       </c>
       <c r="J68">
         <v>80</v>
@@ -10844,10 +10837,10 @@
         <v>5</v>
       </c>
       <c r="H69">
+        <v>3.85</v>
+      </c>
+      <c r="I69">
         <v>3.86</v>
-      </c>
-      <c r="I69">
-        <v>3.85</v>
       </c>
       <c r="J69">
         <v>77.900000000000006</v>
@@ -10876,10 +10869,10 @@
         <v>4</v>
       </c>
       <c r="H70">
+        <v>3.14</v>
+      </c>
+      <c r="I70">
         <v>4.84</v>
-      </c>
-      <c r="I70">
-        <v>3.14</v>
       </c>
       <c r="J70">
         <v>80.53</v>
@@ -10908,10 +10901,10 @@
         <v>11</v>
       </c>
       <c r="H71">
+        <v>3.93</v>
+      </c>
+      <c r="I71">
         <v>2.72</v>
-      </c>
-      <c r="I71">
-        <v>3.93</v>
       </c>
       <c r="J71">
         <v>71.31</v>
@@ -10940,10 +10933,10 @@
         <v>10</v>
       </c>
       <c r="H72">
+        <v>2.73</v>
+      </c>
+      <c r="I72">
         <v>3.05</v>
-      </c>
-      <c r="I72">
-        <v>2.73</v>
       </c>
       <c r="J72">
         <v>73.150000000000006</v>
@@ -10972,10 +10965,10 @@
         <v>12</v>
       </c>
       <c r="H73">
+        <v>2.88</v>
+      </c>
+      <c r="I73">
         <v>3</v>
-      </c>
-      <c r="I73">
-        <v>2.88</v>
       </c>
       <c r="J73">
         <v>73.72</v>
@@ -11004,10 +10997,10 @@
         <v>9</v>
       </c>
       <c r="H74">
+        <v>3.17</v>
+      </c>
+      <c r="I74">
         <v>3.48</v>
-      </c>
-      <c r="I74">
-        <v>3.17</v>
       </c>
       <c r="J74">
         <v>75.8</v>
@@ -11036,10 +11029,10 @@
         <v>9</v>
       </c>
       <c r="H75">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I75">
         <v>2.58</v>
-      </c>
-      <c r="I75">
-        <v>4.1500000000000004</v>
       </c>
       <c r="J75">
         <v>69.400000000000006</v>
@@ -11068,10 +11061,10 @@
         <v>10</v>
       </c>
       <c r="H76">
+        <v>5.5</v>
+      </c>
+      <c r="I76">
         <v>2.2200000000000002</v>
-      </c>
-      <c r="I76">
-        <v>5.5</v>
       </c>
       <c r="J76">
         <v>67.290000000000006</v>
@@ -11100,10 +11093,10 @@
         <v>8</v>
       </c>
       <c r="H77">
+        <v>5.57</v>
+      </c>
+      <c r="I77">
         <v>2.4</v>
-      </c>
-      <c r="I77">
-        <v>5.57</v>
       </c>
       <c r="J77">
         <v>68.900000000000006</v>
@@ -11131,11 +11124,11 @@
       <c r="G78" s="2">
         <v>0</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I78" s="2">
-        <v>0</v>
       </c>
       <c r="J78" s="2">
         <v>98.22</v>
@@ -11163,11 +11156,11 @@
       <c r="G79" s="2">
         <v>0</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I79" s="2">
-        <v>0</v>
       </c>
       <c r="J79" s="2">
         <v>98.09</v>
@@ -11196,10 +11189,10 @@
         <v>4</v>
       </c>
       <c r="H80">
+        <v>3.82</v>
+      </c>
+      <c r="I80">
         <v>3.55</v>
-      </c>
-      <c r="I80">
-        <v>3.82</v>
       </c>
       <c r="J80">
         <v>75</v>
@@ -11228,10 +11221,10 @@
         <v>9</v>
       </c>
       <c r="H81">
+        <v>4.75</v>
+      </c>
+      <c r="I81">
         <v>2.46</v>
-      </c>
-      <c r="I81">
-        <v>4.75</v>
       </c>
       <c r="J81">
         <v>70</v>
@@ -11260,10 +11253,10 @@
         <v>8</v>
       </c>
       <c r="H82">
+        <v>6.59</v>
+      </c>
+      <c r="I82">
         <v>1.95</v>
-      </c>
-      <c r="I82">
-        <v>6.59</v>
       </c>
       <c r="J82">
         <v>62.76</v>
@@ -11292,10 +11285,10 @@
         <v>7</v>
       </c>
       <c r="H83">
+        <v>5.63</v>
+      </c>
+      <c r="I83">
         <v>2.4900000000000002</v>
-      </c>
-      <c r="I83">
-        <v>5.63</v>
       </c>
       <c r="J83">
         <v>70.11</v>
@@ -11324,10 +11317,10 @@
         <v>3</v>
       </c>
       <c r="H84">
+        <v>3.43</v>
+      </c>
+      <c r="I84">
         <v>4.16</v>
-      </c>
-      <c r="I84">
-        <v>3.43</v>
       </c>
       <c r="J84">
         <v>76.900000000000006</v>
@@ -11356,10 +11349,10 @@
         <v>3</v>
       </c>
       <c r="H85">
+        <v>3.38</v>
+      </c>
+      <c r="I85">
         <v>4.55</v>
-      </c>
-      <c r="I85">
-        <v>3.38</v>
       </c>
       <c r="J85">
         <v>78.89</v>
@@ -11388,10 +11381,10 @@
         <v>2</v>
       </c>
       <c r="H86">
+        <v>2.85</v>
+      </c>
+      <c r="I86">
         <v>5.26</v>
-      </c>
-      <c r="I86">
-        <v>2.85</v>
       </c>
       <c r="J86">
         <v>82.07</v>
@@ -11420,10 +11413,10 @@
         <v>7</v>
       </c>
       <c r="H87">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I87">
         <v>2.27</v>
-      </c>
-      <c r="I87">
-        <v>4.0999999999999996</v>
       </c>
       <c r="J87">
         <v>66.989999999999995</v>
@@ -11452,10 +11445,10 @@
         <v>3</v>
       </c>
       <c r="H88">
+        <v>3.97</v>
+      </c>
+      <c r="I88">
         <v>3.84</v>
-      </c>
-      <c r="I88">
-        <v>3.97</v>
       </c>
       <c r="J88">
         <v>62.92</v>
@@ -11484,10 +11477,10 @@
         <v>4</v>
       </c>
       <c r="H89">
+        <v>5.32</v>
+      </c>
+      <c r="I89">
         <v>2.94</v>
-      </c>
-      <c r="I89">
-        <v>5.32</v>
       </c>
       <c r="J89">
         <v>71.81</v>
@@ -11516,10 +11509,10 @@
         <v>5</v>
       </c>
       <c r="H90">
+        <v>4.71</v>
+      </c>
+      <c r="I90">
         <v>3.32</v>
-      </c>
-      <c r="I90">
-        <v>4.71</v>
       </c>
       <c r="J90">
         <v>74.02</v>
@@ -11548,10 +11541,10 @@
         <v>2</v>
       </c>
       <c r="H91">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="I91">
         <v>3.97</v>
-      </c>
-      <c r="I91">
-        <v>4.2300000000000004</v>
       </c>
       <c r="J91">
         <v>77.55</v>
@@ -11580,10 +11573,10 @@
         <v>8</v>
       </c>
       <c r="H92">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I92">
         <v>2.86</v>
-      </c>
-      <c r="I92">
-        <v>5.0599999999999996</v>
       </c>
       <c r="J92">
         <v>72.81</v>
@@ -11612,10 +11605,10 @@
         <v>7</v>
       </c>
       <c r="H93">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I93">
         <v>2.89</v>
-      </c>
-      <c r="I93">
-        <v>5.0999999999999996</v>
       </c>
       <c r="J93">
         <v>73.11</v>
@@ -11644,10 +11637,10 @@
         <v>7</v>
       </c>
       <c r="H94">
+        <v>4.88</v>
+      </c>
+      <c r="I94">
         <v>2.89</v>
-      </c>
-      <c r="I94">
-        <v>4.88</v>
       </c>
       <c r="J94">
         <v>72.59</v>
@@ -11676,10 +11669,10 @@
         <v>1</v>
       </c>
       <c r="H95">
+        <v>2.39</v>
+      </c>
+      <c r="I95">
         <v>6.95</v>
-      </c>
-      <c r="I95">
-        <v>2.39</v>
       </c>
       <c r="J95">
         <v>84.39</v>
@@ -11708,10 +11701,10 @@
         <v>2</v>
       </c>
       <c r="H96">
+        <v>4.24</v>
+      </c>
+      <c r="I96">
         <v>4.2300000000000004</v>
-      </c>
-      <c r="I96">
-        <v>4.24</v>
       </c>
       <c r="J96">
         <v>79.44</v>
@@ -11740,10 +11733,10 @@
         <v>5</v>
       </c>
       <c r="H97">
+        <v>2.81</v>
+      </c>
+      <c r="I97">
         <v>2.98</v>
-      </c>
-      <c r="I97">
-        <v>2.81</v>
       </c>
       <c r="J97">
         <v>73.430000000000007</v>
@@ -11772,10 +11765,10 @@
         <v>5</v>
       </c>
       <c r="H98">
+        <v>0.65</v>
+      </c>
+      <c r="I98">
         <v>11.46</v>
-      </c>
-      <c r="I98">
-        <v>0.65</v>
       </c>
       <c r="J98">
         <v>84.91</v>
@@ -11804,10 +11797,10 @@
         <v>10</v>
       </c>
       <c r="H99">
+        <v>3.1</v>
+      </c>
+      <c r="I99">
         <v>2.84</v>
-      </c>
-      <c r="I99">
-        <v>3.1</v>
       </c>
       <c r="J99">
         <v>69.400000000000006</v>
@@ -11836,10 +11829,10 @@
         <v>10</v>
       </c>
       <c r="H100">
+        <v>6.23</v>
+      </c>
+      <c r="I100">
         <v>1.9</v>
-      </c>
-      <c r="I100">
-        <v>6.23</v>
       </c>
       <c r="J100">
         <v>58.84</v>
@@ -11868,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="H101">
+        <v>4.68</v>
+      </c>
+      <c r="I101">
         <v>1.48</v>
-      </c>
-      <c r="I101">
-        <v>4.68</v>
       </c>
       <c r="J101">
         <v>56.04</v>
@@ -11900,10 +11893,10 @@
         <v>7</v>
       </c>
       <c r="H102">
+        <v>3.15</v>
+      </c>
+      <c r="I102">
         <v>3.35</v>
-      </c>
-      <c r="I102">
-        <v>3.15</v>
       </c>
       <c r="J102">
         <v>72.3</v>
@@ -11932,10 +11925,10 @@
         <v>11</v>
       </c>
       <c r="H103">
+        <v>4.37</v>
+      </c>
+      <c r="I103">
         <v>2.34</v>
-      </c>
-      <c r="I103">
-        <v>4.37</v>
       </c>
       <c r="J103">
         <v>67.09</v>
@@ -11964,10 +11957,10 @@
         <v>8</v>
       </c>
       <c r="H104">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I104">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="I104">
-        <v>4.1900000000000004</v>
       </c>
       <c r="J104">
         <v>67.45</v>
@@ -11996,10 +11989,10 @@
         <v>5</v>
       </c>
       <c r="H105">
+        <v>2.48</v>
+      </c>
+      <c r="I105">
         <v>4.91</v>
-      </c>
-      <c r="I105">
-        <v>2.48</v>
       </c>
       <c r="J105">
         <v>75.33</v>
@@ -12028,10 +12021,10 @@
         <v>4</v>
       </c>
       <c r="H106">
+        <v>2.86</v>
+      </c>
+      <c r="I106">
         <v>4.29</v>
-      </c>
-      <c r="I106">
-        <v>2.86</v>
       </c>
       <c r="J106">
         <v>79.010000000000005</v>
@@ -12060,10 +12053,10 @@
         <v>5</v>
       </c>
       <c r="H107">
+        <v>2.9</v>
+      </c>
+      <c r="I107">
         <v>4.24</v>
-      </c>
-      <c r="I107">
-        <v>2.9</v>
       </c>
       <c r="J107">
         <v>76.98</v>
@@ -12092,10 +12085,10 @@
         <v>4</v>
       </c>
       <c r="H108">
+        <v>2.72</v>
+      </c>
+      <c r="I108">
         <v>4.66</v>
-      </c>
-      <c r="I108">
-        <v>2.72</v>
       </c>
       <c r="J108">
         <v>80.650000000000006</v>
@@ -12124,10 +12117,10 @@
         <v>4</v>
       </c>
       <c r="H109">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I109">
         <v>3.75</v>
-      </c>
-      <c r="I109">
-        <v>4.0199999999999996</v>
       </c>
       <c r="J109">
         <v>75.349999999999994</v>
@@ -12156,10 +12149,10 @@
         <v>7</v>
       </c>
       <c r="H110">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I110">
         <v>6.04</v>
-      </c>
-      <c r="I110">
-        <v>2.2400000000000002</v>
       </c>
       <c r="J110">
         <v>82.91</v>
@@ -12188,10 +12181,10 @@
         <v>3</v>
       </c>
       <c r="H111">
+        <v>4.28</v>
+      </c>
+      <c r="I111">
         <v>3.2</v>
-      </c>
-      <c r="I111">
-        <v>4.28</v>
       </c>
       <c r="J111">
         <v>71.83</v>
@@ -12220,10 +12213,10 @@
         <v>5</v>
       </c>
       <c r="H112">
+        <v>2.88</v>
+      </c>
+      <c r="I112">
         <v>2.93</v>
-      </c>
-      <c r="I112">
-        <v>2.88</v>
       </c>
       <c r="J112">
         <v>71.099999999999994</v>
@@ -12252,10 +12245,10 @@
         <v>10</v>
       </c>
       <c r="H113">
+        <v>5.77</v>
+      </c>
+      <c r="I113">
         <v>2.27</v>
-      </c>
-      <c r="I113">
-        <v>5.77</v>
       </c>
       <c r="J113">
         <v>66.790000000000006</v>
@@ -12284,10 +12277,10 @@
         <v>6</v>
       </c>
       <c r="H114">
+        <v>3.31</v>
+      </c>
+      <c r="I114">
         <v>2.5099999999999998</v>
-      </c>
-      <c r="I114">
-        <v>3.31</v>
       </c>
       <c r="J114">
         <v>68</v>
@@ -12316,10 +12309,10 @@
         <v>7</v>
       </c>
       <c r="H115">
+        <v>6.11</v>
+      </c>
+      <c r="I115">
         <v>1.92</v>
-      </c>
-      <c r="I115">
-        <v>6.11</v>
       </c>
       <c r="J115">
         <v>63.88</v>
@@ -12348,10 +12341,10 @@
         <v>2</v>
       </c>
       <c r="H116">
+        <v>3.77</v>
+      </c>
+      <c r="I116">
         <v>4.45</v>
-      </c>
-      <c r="I116">
-        <v>3.77</v>
       </c>
       <c r="J116">
         <v>77.56</v>
@@ -12380,10 +12373,10 @@
         <v>4</v>
       </c>
       <c r="H117">
+        <v>2.19</v>
+      </c>
+      <c r="I117">
         <v>4.33</v>
-      </c>
-      <c r="I117">
-        <v>2.19</v>
       </c>
       <c r="J117">
         <v>78.97</v>
@@ -12412,10 +12405,10 @@
         <v>4</v>
       </c>
       <c r="H118">
+        <v>5.32</v>
+      </c>
+      <c r="I118">
         <v>2.85</v>
-      </c>
-      <c r="I118">
-        <v>5.32</v>
       </c>
       <c r="J118">
         <v>71.66</v>
@@ -12444,10 +12437,10 @@
         <v>3</v>
       </c>
       <c r="H119">
+        <v>4.53</v>
+      </c>
+      <c r="I119">
         <v>3.38</v>
-      </c>
-      <c r="I119">
-        <v>4.53</v>
       </c>
       <c r="J119">
         <v>71.459999999999994</v>
@@ -12476,10 +12469,10 @@
         <v>10</v>
       </c>
       <c r="H120">
+        <v>6.03</v>
+      </c>
+      <c r="I120">
         <v>2.34</v>
-      </c>
-      <c r="I120">
-        <v>6.03</v>
       </c>
       <c r="J120">
         <v>68.790000000000006</v>
@@ -12508,10 +12501,10 @@
         <v>8</v>
       </c>
       <c r="H121">
+        <v>5.15</v>
+      </c>
+      <c r="I121">
         <v>2.36</v>
-      </c>
-      <c r="I121">
-        <v>5.15</v>
       </c>
       <c r="J121">
         <v>67.67</v>
@@ -12540,10 +12533,10 @@
         <v>2</v>
       </c>
       <c r="H122">
+        <v>4.57</v>
+      </c>
+      <c r="I122">
         <v>3.71</v>
-      </c>
-      <c r="I122">
-        <v>4.57</v>
       </c>
       <c r="J122">
         <v>71.36</v>
@@ -12572,10 +12565,10 @@
         <v>9</v>
       </c>
       <c r="H123">
+        <v>5.34</v>
+      </c>
+      <c r="I123">
         <v>1.87</v>
-      </c>
-      <c r="I123">
-        <v>5.34</v>
       </c>
       <c r="J123">
         <v>62.14</v>
@@ -12604,10 +12597,10 @@
         <v>6</v>
       </c>
       <c r="H124">
+        <v>4.42</v>
+      </c>
+      <c r="I124">
         <v>3.12</v>
-      </c>
-      <c r="I124">
-        <v>4.42</v>
       </c>
       <c r="J124">
         <v>70.11</v>
@@ -12636,10 +12629,10 @@
         <v>11</v>
       </c>
       <c r="H125">
+        <v>3.07</v>
+      </c>
+      <c r="I125">
         <v>3.57</v>
-      </c>
-      <c r="I125">
-        <v>3.07</v>
       </c>
       <c r="J125">
         <v>76.81</v>
@@ -12668,10 +12661,10 @@
         <v>11</v>
       </c>
       <c r="H126">
+        <v>3.78</v>
+      </c>
+      <c r="I126">
         <v>2.64</v>
-      </c>
-      <c r="I126">
-        <v>3.78</v>
       </c>
       <c r="J126">
         <v>71.55</v>
@@ -12700,10 +12693,10 @@
         <v>8</v>
       </c>
       <c r="H127">
+        <v>2.98</v>
+      </c>
+      <c r="I127">
         <v>3.3</v>
-      </c>
-      <c r="I127">
-        <v>2.98</v>
       </c>
       <c r="J127">
         <v>73.33</v>
@@ -12732,10 +12725,10 @@
         <v>12</v>
       </c>
       <c r="H128">
+        <v>4.13</v>
+      </c>
+      <c r="I128">
         <v>2.6</v>
-      </c>
-      <c r="I128">
-        <v>4.13</v>
       </c>
       <c r="J128">
         <v>70.69</v>
@@ -12764,10 +12757,10 @@
         <v>6</v>
       </c>
       <c r="H129">
+        <v>2.56</v>
+      </c>
+      <c r="I129">
         <v>5.17</v>
-      </c>
-      <c r="I129">
-        <v>2.56</v>
       </c>
       <c r="J129">
         <v>82.31</v>
@@ -12795,11 +12788,11 @@
       <c r="G130" s="2">
         <v>0</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I130" s="2">
-        <v>0</v>
       </c>
       <c r="J130" s="2">
         <v>98.68</v>
@@ -12827,11 +12820,11 @@
       <c r="G131" s="2">
         <v>0</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I131" s="2">
-        <v>0</v>
       </c>
       <c r="J131" s="2">
         <v>98.62</v>
@@ -12860,10 +12853,10 @@
         <v>10</v>
       </c>
       <c r="H132">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I132">
         <v>2.31</v>
-      </c>
-      <c r="I132">
-        <v>4.1500000000000004</v>
       </c>
       <c r="J132">
         <v>68.64</v>
@@ -12892,10 +12885,10 @@
         <v>6</v>
       </c>
       <c r="H133">
+        <v>3.79</v>
+      </c>
+      <c r="I133">
         <v>3.53</v>
-      </c>
-      <c r="I133">
-        <v>3.79</v>
       </c>
       <c r="J133">
         <v>68.91</v>
@@ -12924,10 +12917,10 @@
         <v>10</v>
       </c>
       <c r="H134">
+        <v>11.42</v>
+      </c>
+      <c r="I134">
         <v>1.1499999999999999</v>
-      </c>
-      <c r="I134">
-        <v>11.42</v>
       </c>
       <c r="J134">
         <v>52.55</v>
@@ -12956,10 +12949,10 @@
         <v>4</v>
       </c>
       <c r="H135">
+        <v>3.54</v>
+      </c>
+      <c r="I135">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="I135">
-        <v>3.54</v>
       </c>
       <c r="J135">
         <v>65.44</v>
@@ -12988,10 +12981,10 @@
         <v>6</v>
       </c>
       <c r="H136">
+        <v>5.25</v>
+      </c>
+      <c r="I136">
         <v>2.61</v>
-      </c>
-      <c r="I136">
-        <v>5.25</v>
       </c>
       <c r="J136">
         <v>65.64</v>
@@ -13020,10 +13013,10 @@
         <v>11</v>
       </c>
       <c r="H137">
+        <v>5.77</v>
+      </c>
+      <c r="I137">
         <v>2.25</v>
-      </c>
-      <c r="I137">
-        <v>5.77</v>
       </c>
       <c r="J137">
         <v>67.83</v>
@@ -13052,10 +13045,10 @@
         <v>6</v>
       </c>
       <c r="H138">
+        <v>5.3</v>
+      </c>
+      <c r="I138">
         <v>2.58</v>
-      </c>
-      <c r="I138">
-        <v>5.3</v>
       </c>
       <c r="J138">
         <v>68.44</v>
@@ -13084,10 +13077,10 @@
         <v>3</v>
       </c>
       <c r="H139">
+        <v>2.41</v>
+      </c>
+      <c r="I139">
         <v>6.58</v>
-      </c>
-      <c r="I139">
-        <v>2.41</v>
       </c>
       <c r="J139">
         <v>85.24</v>
@@ -13116,10 +13109,10 @@
         <v>1</v>
       </c>
       <c r="H140">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I140">
         <v>7.15</v>
-      </c>
-      <c r="I140">
-        <v>2.2999999999999998</v>
       </c>
       <c r="J140">
         <v>82.84</v>
@@ -13148,10 +13141,10 @@
         <v>2</v>
       </c>
       <c r="H141">
+        <v>2.64</v>
+      </c>
+      <c r="I141">
         <v>6.03</v>
-      </c>
-      <c r="I141">
-        <v>2.64</v>
       </c>
       <c r="J141">
         <v>84.26</v>
@@ -13180,10 +13173,10 @@
         <v>3</v>
       </c>
       <c r="H142">
+        <v>3.18</v>
+      </c>
+      <c r="I142">
         <v>4.92</v>
-      </c>
-      <c r="I142">
-        <v>3.18</v>
       </c>
       <c r="J142">
         <v>77.44</v>
@@ -13212,10 +13205,10 @@
         <v>6</v>
       </c>
       <c r="H143">
+        <v>3.64</v>
+      </c>
+      <c r="I143">
         <v>4.08</v>
-      </c>
-      <c r="I143">
-        <v>3.64</v>
       </c>
       <c r="J143">
         <v>77.48</v>
@@ -13244,10 +13237,10 @@
         <v>3</v>
       </c>
       <c r="H144">
+        <v>3.16</v>
+      </c>
+      <c r="I144">
         <v>5.09</v>
-      </c>
-      <c r="I144">
-        <v>3.16</v>
       </c>
       <c r="J144">
         <v>81.23</v>
@@ -13276,10 +13269,10 @@
         <v>4</v>
       </c>
       <c r="H145">
+        <v>2.64</v>
+      </c>
+      <c r="I145">
         <v>5.68</v>
-      </c>
-      <c r="I145">
-        <v>2.64</v>
       </c>
       <c r="J145">
         <v>80.59</v>
@@ -13308,10 +13301,10 @@
         <v>4</v>
       </c>
       <c r="H146">
+        <v>3.6</v>
+      </c>
+      <c r="I146">
         <v>3.78</v>
-      </c>
-      <c r="I146">
-        <v>3.6</v>
       </c>
       <c r="J146">
         <v>77.010000000000005</v>
@@ -13340,10 +13333,10 @@
         <v>4</v>
       </c>
       <c r="H147">
+        <v>3.05</v>
+      </c>
+      <c r="I147">
         <v>3.03</v>
-      </c>
-      <c r="I147">
-        <v>3.05</v>
       </c>
       <c r="J147">
         <v>71.260000000000005</v>
@@ -13372,10 +13365,10 @@
         <v>6</v>
       </c>
       <c r="H148">
+        <v>3.48</v>
+      </c>
+      <c r="I148">
         <v>3.79</v>
-      </c>
-      <c r="I148">
-        <v>3.48</v>
       </c>
       <c r="J148">
         <v>77.19</v>
@@ -13404,10 +13397,10 @@
         <v>7</v>
       </c>
       <c r="H149">
+        <v>2.98</v>
+      </c>
+      <c r="I149">
         <v>3.53</v>
-      </c>
-      <c r="I149">
-        <v>2.98</v>
       </c>
       <c r="J149">
         <v>75.42</v>
@@ -13436,10 +13429,10 @@
         <v>5</v>
       </c>
       <c r="H150">
+        <v>2.57</v>
+      </c>
+      <c r="I150">
         <v>4.87</v>
-      </c>
-      <c r="I150">
-        <v>2.57</v>
       </c>
       <c r="J150">
         <v>78.06</v>
@@ -13468,10 +13461,10 @@
         <v>4</v>
       </c>
       <c r="H151">
+        <v>2.41</v>
+      </c>
+      <c r="I151">
         <v>5.54</v>
-      </c>
-      <c r="I151">
-        <v>2.41</v>
       </c>
       <c r="J151">
         <v>79.8</v>
@@ -13500,10 +13493,10 @@
         <v>4</v>
       </c>
       <c r="H152">
+        <v>2.25</v>
+      </c>
+      <c r="I152">
         <v>6.13</v>
-      </c>
-      <c r="I152">
-        <v>2.25</v>
       </c>
       <c r="J152">
         <v>80.58</v>
@@ -13532,10 +13525,10 @@
         <v>3</v>
       </c>
       <c r="H153">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I153">
         <v>3.9</v>
-      </c>
-      <c r="I153">
-        <v>4.0199999999999996</v>
       </c>
       <c r="J153">
         <v>78.36</v>
@@ -13564,10 +13557,10 @@
         <v>5</v>
       </c>
       <c r="H154">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I154">
         <v>3.7</v>
-      </c>
-      <c r="I154">
-        <v>4.1900000000000004</v>
       </c>
       <c r="J154">
         <v>76.55</v>
@@ -13596,10 +13589,10 @@
         <v>8</v>
       </c>
       <c r="H155">
+        <v>5.84</v>
+      </c>
+      <c r="I155">
         <v>2.5</v>
-      </c>
-      <c r="I155">
-        <v>5.84</v>
       </c>
       <c r="J155">
         <v>70.260000000000005</v>
@@ -13628,10 +13621,10 @@
         <v>5</v>
       </c>
       <c r="H156">
+        <v>4.83</v>
+      </c>
+      <c r="I156">
         <v>3.31</v>
-      </c>
-      <c r="I156">
-        <v>4.83</v>
       </c>
       <c r="J156">
         <v>73.41</v>
@@ -13660,10 +13653,10 @@
         <v>6</v>
       </c>
       <c r="H157">
+        <v>4.58</v>
+      </c>
+      <c r="I157">
         <v>3.36</v>
-      </c>
-      <c r="I157">
-        <v>4.58</v>
       </c>
       <c r="J157">
         <v>75.790000000000006</v>
@@ -13692,10 +13685,10 @@
         <v>8</v>
       </c>
       <c r="H158">
+        <v>3.83</v>
+      </c>
+      <c r="I158">
         <v>3.63</v>
-      </c>
-      <c r="I158">
-        <v>3.83</v>
       </c>
       <c r="J158">
         <v>73.63</v>
@@ -13724,10 +13717,10 @@
         <v>3</v>
       </c>
       <c r="H159">
+        <v>3.73</v>
+      </c>
+      <c r="I159">
         <v>3.78</v>
-      </c>
-      <c r="I159">
-        <v>3.73</v>
       </c>
       <c r="J159">
         <v>77.83</v>
@@ -13756,10 +13749,10 @@
         <v>3</v>
       </c>
       <c r="H160">
+        <v>3.57</v>
+      </c>
+      <c r="I160">
         <v>3.73</v>
-      </c>
-      <c r="I160">
-        <v>3.57</v>
       </c>
       <c r="J160">
         <v>74.88</v>
@@ -13788,10 +13781,10 @@
         <v>2</v>
       </c>
       <c r="H161">
+        <v>4.41</v>
+      </c>
+      <c r="I161">
         <v>3.91</v>
-      </c>
-      <c r="I161">
-        <v>4.41</v>
       </c>
       <c r="J161">
         <v>77.66</v>
@@ -13820,10 +13813,10 @@
         <v>6</v>
       </c>
       <c r="H162">
+        <v>4.63</v>
+      </c>
+      <c r="I162">
         <v>2.63</v>
-      </c>
-      <c r="I162">
-        <v>4.63</v>
       </c>
       <c r="J162">
         <v>71.08</v>
@@ -13852,10 +13845,10 @@
         <v>5</v>
       </c>
       <c r="H163">
+        <v>4.34</v>
+      </c>
+      <c r="I163">
         <v>2.88</v>
-      </c>
-      <c r="I163">
-        <v>4.34</v>
       </c>
       <c r="J163">
         <v>71.290000000000006</v>
@@ -13884,10 +13877,10 @@
         <v>7</v>
       </c>
       <c r="H164">
+        <v>3.48</v>
+      </c>
+      <c r="I164">
         <v>3.16</v>
-      </c>
-      <c r="I164">
-        <v>3.48</v>
       </c>
       <c r="J164">
         <v>73.430000000000007</v>
@@ -13916,10 +13909,10 @@
         <v>9</v>
       </c>
       <c r="H165">
+        <v>3.54</v>
+      </c>
+      <c r="I165">
         <v>3.51</v>
-      </c>
-      <c r="I165">
-        <v>3.54</v>
       </c>
       <c r="J165">
         <v>76.37</v>
@@ -13948,10 +13941,10 @@
         <v>7</v>
       </c>
       <c r="H166">
+        <v>4.16</v>
+      </c>
+      <c r="I166">
         <v>3.08</v>
-      </c>
-      <c r="I166">
-        <v>4.16</v>
       </c>
       <c r="J166">
         <v>74.13</v>
@@ -13980,10 +13973,10 @@
         <v>3</v>
       </c>
       <c r="H167">
+        <v>2.59</v>
+      </c>
+      <c r="I167">
         <v>5.74</v>
-      </c>
-      <c r="I167">
-        <v>2.59</v>
       </c>
       <c r="J167">
         <v>78.86</v>
@@ -14012,10 +14005,10 @@
         <v>5</v>
       </c>
       <c r="H168">
+        <v>2.86</v>
+      </c>
+      <c r="I168">
         <v>4.7699999999999996</v>
-      </c>
-      <c r="I168">
-        <v>2.86</v>
       </c>
       <c r="J168">
         <v>80.64</v>
@@ -14044,10 +14037,10 @@
         <v>2</v>
       </c>
       <c r="H169">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I169">
         <v>3.85</v>
-      </c>
-      <c r="I169">
-        <v>4.0599999999999996</v>
       </c>
       <c r="J169">
         <v>77.790000000000006</v>
@@ -14076,10 +14069,10 @@
         <v>4</v>
       </c>
       <c r="H170">
+        <v>4.63</v>
+      </c>
+      <c r="I170">
         <v>3.3</v>
-      </c>
-      <c r="I170">
-        <v>4.63</v>
       </c>
       <c r="J170">
         <v>74.02</v>
@@ -14108,10 +14101,10 @@
         <v>5</v>
       </c>
       <c r="H171">
+        <v>3.37</v>
+      </c>
+      <c r="I171">
         <v>4.26</v>
-      </c>
-      <c r="I171">
-        <v>3.37</v>
       </c>
       <c r="J171">
         <v>78.3</v>
@@ -14140,10 +14133,10 @@
         <v>2</v>
       </c>
       <c r="H172">
+        <v>5.8</v>
+      </c>
+      <c r="I172">
         <v>3.02</v>
-      </c>
-      <c r="I172">
-        <v>5.8</v>
       </c>
       <c r="J172">
         <v>71.430000000000007</v>
@@ -14172,10 +14165,10 @@
         <v>6</v>
       </c>
       <c r="H173">
+        <v>3.79</v>
+      </c>
+      <c r="I173">
         <v>3.48</v>
-      </c>
-      <c r="I173">
-        <v>3.79</v>
       </c>
       <c r="J173">
         <v>66.89</v>
@@ -14204,10 +14197,10 @@
         <v>7</v>
       </c>
       <c r="H174">
+        <v>3.28</v>
+      </c>
+      <c r="I174">
         <v>4.18</v>
-      </c>
-      <c r="I174">
-        <v>3.28</v>
       </c>
       <c r="J174">
         <v>77.02</v>
@@ -14236,10 +14229,10 @@
         <v>4</v>
       </c>
       <c r="H175">
+        <v>2.93</v>
+      </c>
+      <c r="I175">
         <v>4.33</v>
-      </c>
-      <c r="I175">
-        <v>2.93</v>
       </c>
       <c r="J175">
         <v>77.67</v>
@@ -14268,10 +14261,10 @@
         <v>8</v>
       </c>
       <c r="H176">
+        <v>2.57</v>
+      </c>
+      <c r="I176">
         <v>4.83</v>
-      </c>
-      <c r="I176">
-        <v>2.57</v>
       </c>
       <c r="J176">
         <v>81.59</v>
@@ -14300,10 +14293,10 @@
         <v>4</v>
       </c>
       <c r="H177">
+        <v>3.33</v>
+      </c>
+      <c r="I177">
         <v>4.45</v>
-      </c>
-      <c r="I177">
-        <v>3.33</v>
       </c>
       <c r="J177">
         <v>79.19</v>
@@ -14332,10 +14325,10 @@
         <v>3</v>
       </c>
       <c r="H178">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I178">
         <v>6.63</v>
-      </c>
-      <c r="I178">
-        <v>2.2799999999999998</v>
       </c>
       <c r="J178">
         <v>85.41</v>
@@ -14364,10 +14357,10 @@
         <v>5</v>
       </c>
       <c r="H179">
+        <v>3.23</v>
+      </c>
+      <c r="I179">
         <v>3.79</v>
-      </c>
-      <c r="I179">
-        <v>3.23</v>
       </c>
       <c r="J179">
         <v>76.67</v>
@@ -14396,10 +14389,10 @@
         <v>4</v>
       </c>
       <c r="H180">
+        <v>2.71</v>
+      </c>
+      <c r="I180">
         <v>5.4</v>
-      </c>
-      <c r="I180">
-        <v>2.71</v>
       </c>
       <c r="J180">
         <v>82.95</v>
@@ -14428,10 +14421,10 @@
         <v>2</v>
       </c>
       <c r="H181">
+        <v>3.26</v>
+      </c>
+      <c r="I181">
         <v>5.38</v>
-      </c>
-      <c r="I181">
-        <v>3.26</v>
       </c>
       <c r="J181">
         <v>77.88</v>
@@ -14460,10 +14453,10 @@
         <v>1</v>
       </c>
       <c r="H182">
+        <v>3.02</v>
+      </c>
+      <c r="I182">
         <v>5.35</v>
-      </c>
-      <c r="I182">
-        <v>3.02</v>
       </c>
       <c r="J182">
         <v>82.07</v>
@@ -14492,10 +14485,10 @@
         <v>3</v>
       </c>
       <c r="H183">
+        <v>3.05</v>
+      </c>
+      <c r="I183">
         <v>4.91</v>
-      </c>
-      <c r="I183">
-        <v>3.05</v>
       </c>
       <c r="J183">
         <v>81.599999999999994</v>
@@ -14524,10 +14517,10 @@
         <v>4</v>
       </c>
       <c r="H184">
+        <v>3.8</v>
+      </c>
+      <c r="I184">
         <v>3.93</v>
-      </c>
-      <c r="I184">
-        <v>3.8</v>
       </c>
       <c r="J184">
         <v>78.290000000000006</v>
@@ -14556,10 +14549,10 @@
         <v>4</v>
       </c>
       <c r="H185">
+        <v>3.69</v>
+      </c>
+      <c r="I185">
         <v>4.13</v>
-      </c>
-      <c r="I185">
-        <v>3.69</v>
       </c>
       <c r="J185">
         <v>79.069999999999993</v>
@@ -14588,10 +14581,10 @@
         <v>4</v>
       </c>
       <c r="H186">
+        <v>1.99</v>
+      </c>
+      <c r="I186">
         <v>7.22</v>
-      </c>
-      <c r="I186">
-        <v>1.99</v>
       </c>
       <c r="J186">
         <v>86.34</v>
@@ -14620,10 +14613,10 @@
         <v>0</v>
       </c>
       <c r="H187">
+        <v>0.3</v>
+      </c>
+      <c r="I187">
         <v>62.15</v>
-      </c>
-      <c r="I187">
-        <v>0.3</v>
       </c>
       <c r="J187">
         <v>96.19</v>
@@ -14651,11 +14644,11 @@
       <c r="G188" s="2">
         <v>0</v>
       </c>
-      <c r="H188" s="2" t="s">
+      <c r="H188" s="2">
+        <v>0</v>
+      </c>
+      <c r="I188" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I188" s="2">
-        <v>0</v>
       </c>
       <c r="J188" s="2">
         <v>96.04</v>
@@ -14684,10 +14677,10 @@
         <v>3</v>
       </c>
       <c r="H189">
+        <v>3.03</v>
+      </c>
+      <c r="I189">
         <v>3.75</v>
-      </c>
-      <c r="I189">
-        <v>3.03</v>
       </c>
       <c r="J189">
         <v>76.87</v>
@@ -14716,10 +14709,10 @@
         <v>5</v>
       </c>
       <c r="H190">
+        <v>4.67</v>
+      </c>
+      <c r="I190">
         <v>2.42</v>
-      </c>
-      <c r="I190">
-        <v>4.67</v>
       </c>
       <c r="J190">
         <v>68.5</v>
@@ -14748,10 +14741,10 @@
         <v>2</v>
       </c>
       <c r="H191">
+        <v>3.25</v>
+      </c>
+      <c r="I191">
         <v>3.53</v>
-      </c>
-      <c r="I191">
-        <v>3.25</v>
       </c>
       <c r="J191">
         <v>75.19</v>
@@ -14780,10 +14773,10 @@
         <v>4</v>
       </c>
       <c r="H192">
+        <v>3.29</v>
+      </c>
+      <c r="I192">
         <v>3.97</v>
-      </c>
-      <c r="I192">
-        <v>3.29</v>
       </c>
       <c r="J192">
         <v>60.83</v>
@@ -14812,10 +14805,10 @@
         <v>4</v>
       </c>
       <c r="H193">
+        <v>6.23</v>
+      </c>
+      <c r="I193">
         <v>2.6</v>
-      </c>
-      <c r="I193">
-        <v>6.23</v>
       </c>
       <c r="J193">
         <v>68</v>
@@ -14843,11 +14836,11 @@
       <c r="G194" s="2">
         <v>0</v>
       </c>
-      <c r="H194" s="2" t="s">
+      <c r="H194" s="2">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I194" s="2">
-        <v>0</v>
       </c>
       <c r="J194" s="2">
         <v>97.74</v>

--- a/results_excel/_ACGwSD.xlsx
+++ b/results_excel/_ACGwSD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigmu\Desktop\dataset\doPříloh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigmu\Desktop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBC7053-B6CA-4D77-A384-AF85439005ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F65E2-EF2E-4E7F-9EDD-4088007C8706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="30" windowWidth="23055" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="100">
   <si>
     <t>Participant</t>
   </si>
@@ -325,6 +325,15 @@
   <si>
     <t>AVG,STD controls</t>
   </si>
+  <si>
+    <t>preLBD possible/probable</t>
+  </si>
+  <si>
+    <t>14 participants</t>
+  </si>
+  <si>
+    <t>13 participants</t>
+  </si>
 </sst>
 </file>
 
@@ -334,7 +343,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +515,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1018,7 +1035,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1072,6 +1089,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % – Zvýraznění 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1654,7 +1673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1777,7 +1798,7 @@
       </c>
       <c r="X2" s="14">
         <f ca="1">YEARFRAC(W2,TODAY())</f>
-        <v>72.544444444444451</v>
+        <v>72.563888888888883</v>
       </c>
       <c r="Y2" s="11" t="s">
         <v>45</v>
@@ -1841,7 +1862,7 @@
       </c>
       <c r="X3" s="14">
         <f t="shared" ref="X3:X19" ca="1" si="1">YEARFRAC(W3,TODAY())</f>
-        <v>76.091666666666669</v>
+        <v>76.111111111111114</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>46</v>
@@ -1907,7 +1928,7 @@
       </c>
       <c r="X4" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>63.37777777777778</v>
+        <v>63.397222222222226</v>
       </c>
       <c r="Y4" s="12" t="s">
         <v>47</v>
@@ -1971,7 +1992,7 @@
       </c>
       <c r="X5" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>57.155555555555559</v>
+        <v>57.174999999999997</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -2032,7 +2053,7 @@
       </c>
       <c r="X6" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>75.166666666666671</v>
+        <v>75.186111111111117</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -2093,7 +2114,7 @@
       </c>
       <c r="X7" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>65.5</v>
+        <v>65.519444444444446</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
@@ -2156,7 +2177,7 @@
       </c>
       <c r="X8" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>70.272222222222226</v>
+        <v>70.291666666666671</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
@@ -2219,7 +2240,7 @@
       </c>
       <c r="X9" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>77.313888888888883</v>
+        <v>77.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -2280,7 +2301,7 @@
       </c>
       <c r="X10" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>69.736111111111114</v>
+        <v>69.75555555555556</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -2341,7 +2362,7 @@
       </c>
       <c r="X11" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>63.013888888888886</v>
+        <v>63.033333333333331</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -2402,7 +2423,7 @@
       </c>
       <c r="X12" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>71.227777777777774</v>
+        <v>71.24722222222222</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
@@ -2465,7 +2486,7 @@
       </c>
       <c r="X13" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>74.516666666666666</v>
+        <v>74.536111111111111</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -2528,7 +2549,7 @@
       </c>
       <c r="X14" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>72.238888888888894</v>
+        <v>72.25833333333334</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -2589,7 +2610,7 @@
       </c>
       <c r="X15" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>61.394444444444446</v>
+        <v>61.413888888888891</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -2650,7 +2671,7 @@
       </c>
       <c r="X16" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>69.363888888888894</v>
+        <v>69.38333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -2711,7 +2732,7 @@
       </c>
       <c r="X17" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>74.352777777777774</v>
+        <v>74.37222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -2772,7 +2793,7 @@
       </c>
       <c r="X18" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>54.994444444444447</v>
+        <v>55.013888888888886</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -2833,7 +2854,7 @@
       </c>
       <c r="X19" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>61.611111111111114</v>
+        <v>61.630555555555553</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2894,7 +2915,7 @@
       </c>
       <c r="X20" s="14">
         <f t="shared" ref="X20:X28" ca="1" si="2">YEARFRAC(W20,TODAY())</f>
-        <v>69.597222222222229</v>
+        <v>69.61666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2955,7 +2976,7 @@
       </c>
       <c r="X21" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>83.597222222222229</v>
+        <v>83.61666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -3016,7 +3037,7 @@
       </c>
       <c r="X22" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>73.733333333333334</v>
+        <v>73.75277777777778</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -3077,7 +3098,7 @@
       </c>
       <c r="X23" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>70.158333333333331</v>
+        <v>70.177777777777777</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -3138,7 +3159,7 @@
       </c>
       <c r="X24" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>67.797222222222217</v>
+        <v>67.816666666666663</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -3199,7 +3220,7 @@
       </c>
       <c r="X25" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>56.1</v>
+        <v>56.119444444444447</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -3260,7 +3281,7 @@
       </c>
       <c r="X26" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>69.13333333333334</v>
+        <v>69.152777777777771</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -3321,7 +3342,7 @@
       </c>
       <c r="X27" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>53.386111111111113</v>
+        <v>53.405555555555559</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3384,7 +3405,7 @@
       </c>
       <c r="X28" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>68.094444444444449</v>
+        <v>68.113888888888894</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,7 +3443,7 @@
       <c r="X29" s="14"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>76</v>
       </c>
       <c r="P30" s="6" t="s">
@@ -3445,7 +3466,7 @@
       </c>
       <c r="X30" s="1">
         <f ca="1">AVERAGE(X2:X29)</f>
-        <v>68.20257201646092</v>
+        <v>68.222016460905351</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3493,7 +3514,7 @@
       </c>
       <c r="X31" s="1">
         <f ca="1">_xlfn.STDEV.P(X2:X28)</f>
-        <v>7.2211510730651378</v>
+        <v>7.2211510730652702</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3555,7 +3576,7 @@
       </c>
       <c r="X32" s="1">
         <f ca="1">MEDIAN(X2:X28)</f>
-        <v>69.597222222222229</v>
+        <v>69.61666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3672,7 +3693,6 @@
       <c r="U35" s="35"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
       <c r="C36" s="6" t="s">
         <v>1</v>
       </c>
@@ -3701,69 +3721,85 @@
       <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
-        <v>95</v>
+      <c r="A37" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C37" s="15">
-        <v>545.28571428571433</v>
-      </c>
-      <c r="D37" s="16">
-        <v>25.445714285714285</v>
-      </c>
-      <c r="E37" s="16">
-        <v>427.46428571428572</v>
-      </c>
-      <c r="F37" s="16">
-        <v>92.75</v>
-      </c>
-      <c r="G37" s="16">
-        <v>3.2857142857142856</v>
-      </c>
-      <c r="H37" s="8">
-        <v>3.1485714285714286</v>
-      </c>
-      <c r="I37" s="16">
-        <v>4.7785714285714276</v>
-      </c>
-      <c r="J37" s="44">
-        <v>78.735000000000014</v>
+        <f>AVERAGE(C3:C4,C6,C9,C12:C18,C21:C22,C24)</f>
+        <v>502.64115646258506</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" ref="D37:J37" si="6">AVERAGE(D3:D4,D6,D9,D12:D18,D21:D22,D24)</f>
+        <v>19.246998299319728</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="6"/>
+        <v>372.46853741496591</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="6"/>
+        <v>111.28784013605443</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="6"/>
+        <v>5.879251700680272</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="6"/>
+        <v>3.7953486394557818</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="6"/>
+        <v>3.860144557823129</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="6"/>
+        <v>73.936437074829925</v>
       </c>
       <c r="P37" s="27"/>
       <c r="Q37" s="35"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="1">
-        <v>111.79551911967718</v>
+        <f>_xlfn.STDEV.P(C3:C4,C6,C9,C12:C18,C21:C22,C24)</f>
+        <v>49.914180856971143</v>
       </c>
       <c r="D38" s="1">
-        <v>33.627707131244641</v>
+        <f t="shared" ref="D38:J38" si="7">_xlfn.STDEV.P(D3:D4,D6,D9,D12:D18,D21:D22,D24)</f>
+        <v>5.5029069353188778</v>
       </c>
       <c r="E38" s="1">
-        <v>76.985987438655187</v>
+        <f t="shared" si="7"/>
+        <v>53.17879978583899</v>
       </c>
       <c r="F38" s="1">
-        <v>18.593793767455491</v>
+        <f t="shared" si="7"/>
+        <v>27.350944219460114</v>
       </c>
       <c r="G38" s="1">
-        <v>1.2198750911856666</v>
-      </c>
-      <c r="H38">
-        <v>0.71327714509458917</v>
+        <f t="shared" si="7"/>
+        <v>2.1530457759168935</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="7"/>
+        <v>0.88475329201042852</v>
       </c>
       <c r="I38" s="1">
-        <v>1.0823304882124893</v>
-      </c>
-      <c r="J38">
-        <v>3.6997004383238039</v>
+        <f t="shared" si="7"/>
+        <v>1.1778491105606381</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="7"/>
+        <v>5.6675176254075943</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3771,56 +3807,180 @@
         <v>91</v>
       </c>
       <c r="C39" s="1">
-        <v>526.5</v>
+        <f>MEDIAN(C3:C4,C6,C9,C12:C18,C21:C22,C24)</f>
+        <v>500</v>
       </c>
       <c r="D39" s="1">
-        <v>11.375</v>
+        <f t="shared" ref="D39:J39" si="8">MEDIAN(D3:D4,D6,D9,D12:D18,D21:D22,D24)</f>
+        <v>17.256607142857142</v>
       </c>
       <c r="E39" s="1">
-        <v>399</v>
+        <f t="shared" si="8"/>
+        <v>373.53571428571428</v>
       </c>
       <c r="F39" s="1">
-        <v>92.75</v>
+        <f t="shared" si="8"/>
+        <v>109.25</v>
       </c>
       <c r="G39" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H39">
+        <f t="shared" si="8"/>
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="8"/>
+        <v>3.9158333333333335</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="8"/>
+        <v>3.800476190476191</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="8"/>
+        <v>73.691666666666663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="1">
-        <v>4.3849999999999998</v>
-      </c>
-      <c r="J39">
-        <v>77.400000000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="F41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="15">
+        <f>AVERAGE(C2,C5,C7:C8,C10:C11,C19:C20,C23,C25:C28)</f>
+        <v>475.94761904761896</v>
+      </c>
+      <c r="D42" s="15">
+        <f t="shared" ref="D42:J42" si="9">AVERAGE(D2,D5,D7:D8,D10:D11,D19:D20,D23,D25:D28)</f>
+        <v>20.426014652014651</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" si="9"/>
+        <v>360.09065934065933</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="9"/>
+        <v>95.801098901098911</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="9"/>
+        <v>4.515018315018315</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="9"/>
+        <v>3.8430732600732602</v>
+      </c>
+      <c r="I42" s="15">
+        <f t="shared" si="9"/>
+        <v>4.7050879120879125</v>
+      </c>
+      <c r="J42" s="15">
+        <f t="shared" si="9"/>
+        <v>75.627941391941391</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1">
+        <f>_xlfn.STDEV.P(C2,C5,C7:C8,C10:C11,C19:C20,C23,C25:C28)</f>
+        <v>72.550575008513803</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:J43" si="10">_xlfn.STDEV.P(D2,D5,D7:D8,D10:D11,D19:D20,D23,D25:D28)</f>
+        <v>7.3169291908094438</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="10"/>
+        <v>61.6762776850113</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="10"/>
+        <v>24.510197449473885</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8258811923472458</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="10"/>
+        <v>0.8199867617331027</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="10"/>
+        <v>2.6456343646928078</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="10"/>
+        <v>5.038661228106311</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="B44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1">
+        <f>MEDIAN(C2,C5,C7:C8,C10:C11,C19:C20,C23,C25:C28)</f>
+        <v>484.28571428571428</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" ref="D44:J44" si="11">MEDIAN(D2,D5,D7:D8,D10:D11,D19:D20,D23,D25:D28)</f>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="11"/>
+        <v>369.78571428571428</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="11"/>
+        <v>91.857142857142861</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="11"/>
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="11"/>
+        <v>3.7642857142857147</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="11"/>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="11"/>
+        <v>75.942857142857136</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
@@ -3831,43 +3991,127 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="C46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="15">
+        <v>545.28571428571433</v>
+      </c>
+      <c r="D47" s="16">
+        <v>25.445714285714285</v>
+      </c>
+      <c r="E47" s="16">
+        <v>427.46428571428572</v>
+      </c>
+      <c r="F47" s="16">
+        <v>92.75</v>
+      </c>
+      <c r="G47" s="16">
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="H47" s="8">
+        <v>3.1485714285714286</v>
+      </c>
+      <c r="I47" s="16">
+        <v>4.7785714285714276</v>
+      </c>
+      <c r="J47" s="44">
+        <v>78.735000000000014</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1">
+        <v>111.79551911967718</v>
+      </c>
+      <c r="D48" s="1">
+        <v>33.627707131244641</v>
+      </c>
+      <c r="E48" s="1">
+        <v>76.985987438655187</v>
+      </c>
+      <c r="F48" s="1">
+        <v>18.593793767455491</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.2198750911856666</v>
+      </c>
+      <c r="H48">
+        <v>0.71327714509458917</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.0823304882124893</v>
+      </c>
+      <c r="J48">
+        <v>3.6997004383238039</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="1">
+        <v>526.5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>11.375</v>
+      </c>
+      <c r="E49" s="1">
+        <v>399</v>
+      </c>
+      <c r="F49" s="1">
+        <v>92.75</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4.3849999999999998</v>
+      </c>
+      <c r="J49">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3876,7 +4120,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3885,7 +4129,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3894,7 +4138,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3903,7 +4147,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3912,7 +4156,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3921,7 +4165,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3930,7 +4174,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3939,7 +4183,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3948,7 +4192,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3957,7 +4201,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3966,7 +4210,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3975,7 +4219,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -4047,8 +4291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BC21AB-5616-4F0E-9F77-17EDCFCCE4F3}">
   <dimension ref="A1:AW37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,50 +4485,50 @@
         <v>0.79382240805487347</v>
       </c>
       <c r="AH2" s="22">
-        <f>_xlfn.NORM.S.DIST(I3,TRUE)</f>
+        <f t="shared" ref="AH2:AH28" si="5">_xlfn.NORM.S.DIST(I3,TRUE)</f>
         <v>0.36275882459132197</v>
       </c>
       <c r="AI2" s="22">
-        <f>_xlfn.NORM.S.DIST(H3,TRUE)</f>
+        <f t="shared" ref="AI2:AI28" si="6">_xlfn.NORM.S.DIST(H3,TRUE)</f>
         <v>0.704282572292389</v>
       </c>
       <c r="AJ2" s="22">
-        <f t="shared" ref="AJ2:AJ28" si="5">_xlfn.NORM.S.DIST(J3,TRUE)</f>
+        <f t="shared" ref="AJ2:AJ28" si="7">_xlfn.NORM.S.DIST(J3,TRUE)</f>
         <v>0.22521621169180087</v>
       </c>
       <c r="AL2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AN2" s="22">
-        <f t="shared" ref="AN2:AN28" si="6">_xlfn.NORM.S.DIST(C3,FALSE)</f>
+        <f t="shared" ref="AN2:AN28" si="8">_xlfn.NORM.S.DIST(C3,FALSE)</f>
         <v>0.15665920018195212</v>
       </c>
       <c r="AO2" s="22">
-        <f t="shared" ref="AO2:AO28" si="7">_xlfn.NORM.S.DIST(D3,FALSE)</f>
+        <f t="shared" ref="AO2:AO28" si="9">_xlfn.NORM.S.DIST(D3,FALSE)</f>
         <v>0.38536739973937018</v>
       </c>
       <c r="AP2" s="22">
-        <f t="shared" ref="AP2:AP28" si="8">_xlfn.NORM.S.DIST(E3,FALSE)</f>
+        <f t="shared" ref="AP2:AP28" si="10">_xlfn.NORM.S.DIST(E3,FALSE)</f>
         <v>9.655774662092674E-2</v>
       </c>
       <c r="AQ2" s="22">
-        <f t="shared" ref="AQ2:AQ28" si="9">_xlfn.NORM.S.DIST(F3,FALSE)</f>
+        <f t="shared" ref="AQ2:AQ28" si="11">_xlfn.NORM.S.DIST(F3,FALSE)</f>
         <v>0.29654307494599325</v>
       </c>
       <c r="AR2" s="22">
-        <f t="shared" ref="AR2:AR28" si="10">_xlfn.NORM.S.DIST(G3,FALSE)</f>
+        <f t="shared" ref="AR2:AR28" si="12">_xlfn.NORM.S.DIST(G3,FALSE)</f>
         <v>0.28509337146181229</v>
       </c>
       <c r="AS2" s="22">
-        <f>_xlfn.NORM.S.DIST(I3,FALSE)</f>
+        <f t="shared" ref="AS2:AS28" si="13">_xlfn.NORM.S.DIST(I3,FALSE)</f>
         <v>0.37509643884374366</v>
       </c>
       <c r="AT2" s="22">
-        <f>_xlfn.NORM.S.DIST(H3,FALSE)</f>
+        <f t="shared" ref="AT2:AT28" si="14">_xlfn.NORM.S.DIST(H3,FALSE)</f>
         <v>0.34542039930609653</v>
       </c>
       <c r="AU2" s="22">
-        <f t="shared" ref="AU2:AU28" si="11">_xlfn.NORM.S.DIST(J3,FALSE)</f>
+        <f t="shared" ref="AU2:AU28" si="15">_xlfn.NORM.S.DIST(J3,FALSE)</f>
         <v>0.30007576642706679</v>
       </c>
       <c r="AW2" s="3" t="s">
@@ -4299,39 +4543,39 @@
         <v>96</v>
       </c>
       <c r="C3" s="1">
-        <f>STANDARDIZE(mean!C2,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C2,mean!$C$47,mean!$C$48)</f>
         <v>-1.3672922140422212</v>
       </c>
       <c r="D3" s="1">
-        <f>STANDARDIZE(mean!D2,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D2,mean!$D$47,mean!$D$48)</f>
         <v>-0.26313335589716486</v>
       </c>
       <c r="E3" s="1">
-        <f>STANDARDIZE(mean!E2,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E2,mean!$E$47,mean!$E$48)</f>
         <v>-1.6844438285850829</v>
       </c>
       <c r="F3" s="1">
-        <f>STANDARDIZE(mean!F2,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F2,mean!$F$47,mean!$F$48)</f>
         <v>-0.77022627821629419</v>
       </c>
       <c r="G3" s="1">
-        <f>STANDARDIZE(mean!G2,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G2,mean!$G$47,mean!$G$48)</f>
         <v>0.81975606127676781</v>
       </c>
       <c r="H3" s="1">
-        <f>STANDARDIZE(mean!H2,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H2,mean!$H$47,mean!$H$48)</f>
         <v>0.53675790047411531</v>
       </c>
       <c r="I3" s="1">
-        <f>STANDARDIZE(mean!I2,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I2,mean!$I$47,mean!$I$48)</f>
         <v>-0.35109423982649118</v>
       </c>
       <c r="J3" s="1">
-        <f>STANDARDIZE(mean!J2,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J2,mean!$J$47,mean!$J$48)</f>
         <v>-0.75469430665794479</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f>IF(OR(OR(E3&lt;-1.6,I3&lt;-1.6,J3&lt;-1.6),OR(D3&gt;1.6,F3&gt;1.6,G3&gt;1.6,H3&gt;1.6)),"y","x")</f>
+        <f t="shared" ref="L3:L29" si="16">IF(OR(OR(E3&lt;-1.6,I3&lt;-1.6,J3&lt;-1.6),OR(D3&gt;1.6,F3&gt;1.6,G3&gt;1.6,H3&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M3" s="3" t="str">
@@ -4342,39 +4586,39 @@
         <v>89</v>
       </c>
       <c r="O3" s="1">
-        <f>STANDARDIZE(mean!C2,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C2,mean!$C$49,mean!$C$48)</f>
         <v>-1.199255834466004</v>
       </c>
       <c r="P3" s="1">
-        <f>STANDARDIZE(mean!D2,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D2,mean!$D$49,mean!$D$48)</f>
         <v>0.15529286123378866</v>
       </c>
       <c r="Q3" s="1">
-        <f>STANDARDIZE(mean!E2,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E2,mean!$E$49,mean!$E$48)</f>
         <v>-1.3147104957890732</v>
       </c>
       <c r="R3" s="1">
-        <f>STANDARDIZE(mean!F2,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F2,mean!$F$49,mean!$F$48)</f>
         <v>-0.77022627821629419</v>
       </c>
       <c r="S3" s="1">
-        <f>STANDARDIZE(mean!G2,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G2,mean!$G$49,mean!$G$48)</f>
         <v>0.64409404814603177</v>
       </c>
       <c r="T3" s="1">
-        <f>STANDARDIZE(mean!H2,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H2,mean!$H$49,mean!$H$48)</f>
         <v>0.74505201110586161</v>
       </c>
       <c r="U3" s="1">
-        <f>STANDARDIZE(mean!I2,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I2,mean!$I$49,mean!$I$48)</f>
         <v>1.2539079993803491E-2</v>
       </c>
       <c r="V3" s="1">
-        <f>STANDARDIZE(mean!J2,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J2,mean!$J$49,mean!$J$48)</f>
         <v>-0.39385428129501393</v>
       </c>
       <c r="X3" s="3" t="str">
-        <f>IF(OR(OR(Q3&lt;-1.6,U3&lt;-1.6,V3&lt;-1.6),OR(P3&gt;1.6,R3&gt;1.6,S3&gt;1.6,T3&gt;1.6)),"y","x")</f>
+        <f t="shared" ref="X3:X29" si="17">IF(OR(OR(Q3&lt;-1.6,U3&lt;-1.6,V3&lt;-1.6),OR(P3&gt;1.6,R3&gt;1.6,S3&gt;1.6,T3&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y3" s="3" t="str">
@@ -4402,50 +4646,50 @@
         <v>0.98248208998659858</v>
       </c>
       <c r="AH3" s="22">
-        <f>_xlfn.NORM.S.DIST(I4,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.64316553132862175</v>
       </c>
       <c r="AI3" s="22">
-        <f>_xlfn.NORM.S.DIST(H4,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.23668321680267773</v>
       </c>
       <c r="AJ3" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.7222135585813223</v>
       </c>
       <c r="AL3" t="s">
         <v>9</v>
       </c>
       <c r="AN3" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.34231895683322022</v>
       </c>
       <c r="AO3" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38102061748197996</v>
       </c>
       <c r="AP3" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.28074903248702188</v>
       </c>
       <c r="AQ3" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.36748787941055294</v>
       </c>
       <c r="AR3" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.3254551293593423E-2</v>
       </c>
       <c r="AS3" s="22">
-        <f>_xlfn.NORM.S.DIST(I4,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.37296955861359143</v>
       </c>
       <c r="AT3" s="22">
-        <f>_xlfn.NORM.S.DIST(H4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.30851280231346612</v>
       </c>
       <c r="AU3" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.33532590384457006</v>
       </c>
       <c r="AW3" s="11" t="s">
@@ -4457,83 +4701,83 @@
         <v>84</v>
       </c>
       <c r="C4" s="1">
-        <f>STANDARDIZE(mean!C3,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C3,mean!$C$47,mean!$C$48)</f>
         <v>0.55330610157035598</v>
       </c>
       <c r="D4" s="1">
-        <f>STANDARDIZE(mean!D3,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D3,mean!$D$47,mean!$D$48)</f>
         <v>-0.30319385874040461</v>
       </c>
       <c r="E4" s="1">
-        <f>STANDARDIZE(mean!E3,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E3,mean!$E$47,mean!$E$48)</f>
         <v>0.83827871061780335</v>
       </c>
       <c r="F4" s="1">
-        <f>STANDARDIZE(mean!F3,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F3,mean!$F$47,mean!$F$48)</f>
         <v>0.40528115886194072</v>
       </c>
       <c r="G4" s="1">
-        <f>STANDARDIZE(mean!G3,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G3,mean!$G$47,mean!$G$48)</f>
         <v>2.1079441575688311</v>
       </c>
       <c r="H4" s="1">
-        <f>STANDARDIZE(mean!H3,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H3,mean!$H$47,mean!$H$48)</f>
         <v>-0.71701241929004966</v>
       </c>
       <c r="I4" s="1">
-        <f>STANDARDIZE(mean!I3,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I3,mean!$I$47,mean!$I$48)</f>
         <v>0.36693307771340283</v>
       </c>
       <c r="J4" s="1">
-        <f>STANDARDIZE(mean!J3,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J3,mean!$J$47,mean!$J$48)</f>
         <v>0.58942996117336677</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f>IF(OR(OR(E4&lt;-1.6,I4&lt;-1.6,J4&lt;-1.6),OR(D4&gt;1.6,F4&gt;1.6,G4&gt;1.6,H4&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M29" si="12">IF(AND(L4="y",A4="y"),"TP",IF(AND(L4="y",A4="x"),"FP",IF(AND(L4="x",A4="y"),"FN","TN")))</f>
+        <f t="shared" ref="M4:M29" si="18">IF(AND(L4="y",A4="y"),"TP",IF(AND(L4="y",A4="x"),"FP",IF(AND(L4="x",A4="y"),"FN","TN")))</f>
         <v>TP</v>
       </c>
       <c r="O4" s="1">
-        <f>STANDARDIZE(mean!C3,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C3,mean!$C$49,mean!$C$48)</f>
         <v>0.72134248114657329</v>
       </c>
       <c r="P4" s="1">
-        <f>STANDARDIZE(mean!D3,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D3,mean!$D$49,mean!$D$48)</f>
         <v>0.11523235839054892</v>
       </c>
       <c r="Q4" s="1">
-        <f>STANDARDIZE(mean!E3,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E3,mean!$E$49,mean!$E$48)</f>
         <v>1.2080120434138131</v>
       </c>
       <c r="R4" s="1">
-        <f>STANDARDIZE(mean!F3,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F3,mean!$F$49,mean!$F$48)</f>
         <v>0.40528115886194072</v>
       </c>
       <c r="S4" s="1">
-        <f>STANDARDIZE(mean!G3,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G3,mean!$G$49,mean!$G$48)</f>
         <v>1.9322821444380951</v>
       </c>
       <c r="T4" s="1">
-        <f>STANDARDIZE(mean!H3,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H3,mean!$H$49,mean!$H$48)</f>
         <v>-0.50871830865830325</v>
       </c>
       <c r="U4" s="1">
-        <f>STANDARDIZE(mean!I3,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I3,mean!$I$49,mean!$I$48)</f>
         <v>0.73056639753369745</v>
       </c>
       <c r="V4" s="1">
-        <f>STANDARDIZE(mean!J3,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J3,mean!$J$49,mean!$J$48)</f>
         <v>0.95026998653629768</v>
       </c>
       <c r="X4" s="3" t="str">
-        <f>IF(OR(OR(Q4&lt;-1.6,U4&lt;-1.6,V4&lt;-1.6),OR(P4&gt;1.6,R4&gt;1.6,S4&gt;1.6,T4&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y4" s="3" t="str">
-        <f t="shared" ref="Y4:Y29" si="13">IF(AND(X4="y",A4="y"),"TP",IF(AND(X4="y",A4="x"),"FP",IF(AND(X4="x",A4="y"),"FN","TN")))</f>
+        <f t="shared" ref="Y4:Y29" si="19">IF(AND(X4="y",A4="y"),"TP",IF(AND(X4="y",A4="x"),"FP",IF(AND(X4="x",A4="y"),"FN","TN")))</f>
         <v>TP</v>
       </c>
       <c r="AC4" s="22">
@@ -4557,50 +4801,50 @@
         <v>0.9988358564086951</v>
       </c>
       <c r="AH4" s="22">
-        <f>_xlfn.NORM.S.DIST(I5,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>4.0903851587361033E-2</v>
       </c>
       <c r="AI4" s="22">
-        <f>_xlfn.NORM.S.DIST(H5,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.96999060024606942</v>
       </c>
       <c r="AJ4" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5123448045227568E-2</v>
       </c>
       <c r="AL4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="AN4" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.32740096876399682</v>
       </c>
       <c r="AO4" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37310534289976727</v>
       </c>
       <c r="AP4" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19394062440859311</v>
       </c>
       <c r="AQ4" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.0748341096749684E-2</v>
       </c>
       <c r="AR4" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.8705173270529611E-3</v>
       </c>
       <c r="AS4" s="22">
-        <f>_xlfn.NORM.S.DIST(I5,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>8.7751423000114681E-2</v>
       </c>
       <c r="AT4" s="22">
-        <f>_xlfn.NORM.S.DIST(H5,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>6.8059629764337964E-2</v>
       </c>
       <c r="AU4" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.8138123661940873E-2</v>
       </c>
       <c r="AW4" s="11" t="s">
@@ -4612,83 +4856,83 @@
         <v>84</v>
       </c>
       <c r="C5" s="1">
-        <f>STANDARDIZE(mean!C4,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C4,mean!$C$47,mean!$C$48)</f>
         <v>-0.62869884982128332</v>
       </c>
       <c r="D5" s="1">
-        <f>STANDARDIZE(mean!D4,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D4,mean!$D$47,mean!$D$48)</f>
         <v>-0.36593973647048417</v>
       </c>
       <c r="E5" s="1">
-        <f>STANDARDIZE(mean!E4,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E4,mean!$E$47,mean!$E$48)</f>
         <v>-1.2010534486936875</v>
       </c>
       <c r="F5" s="1">
-        <f>STANDARDIZE(mean!F4,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F4,mean!$F$47,mean!$F$48)</f>
         <v>1.8599395995164876</v>
       </c>
       <c r="G5" s="1">
-        <f>STANDARDIZE(mean!G4,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G4,mean!$G$47,mean!$G$48)</f>
         <v>3.0448082275994235</v>
       </c>
       <c r="H5" s="1">
-        <f>STANDARDIZE(mean!H4,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H4,mean!$H$47,mean!$H$48)</f>
         <v>1.8806554796462476</v>
       </c>
       <c r="I5" s="1">
-        <f>STANDARDIZE(mean!I4,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I4,mean!$I$47,mean!$I$48)</f>
         <v>-1.7402923128241716</v>
       </c>
       <c r="J5" s="1">
-        <f>STANDARDIZE(mean!J4,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J4,mean!$J$47,mean!$J$48)</f>
         <v>-2.1668420998697755</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f>IF(OR(OR(E5&lt;-1.6,I5&lt;-1.6,J5&lt;-1.6),OR(D5&gt;1.6,F5&gt;1.6,G5&gt;1.6,H5&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M5" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TP</v>
       </c>
       <c r="O5" s="1">
-        <f>STANDARDIZE(mean!C4,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C4,mean!$C$49,mean!$C$48)</f>
         <v>-0.46066247024506601</v>
       </c>
       <c r="P5" s="1">
-        <f>STANDARDIZE(mean!D4,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D4,mean!$D$49,mean!$D$48)</f>
         <v>5.2486480660469396E-2</v>
       </c>
       <c r="Q5" s="1">
-        <f>STANDARDIZE(mean!E4,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E4,mean!$E$49,mean!$E$48)</f>
         <v>-0.83132011589767785</v>
       </c>
       <c r="R5" s="1">
-        <f>STANDARDIZE(mean!F4,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F4,mean!$F$49,mean!$F$48)</f>
         <v>1.8599395995164876</v>
       </c>
       <c r="S5" s="1">
-        <f>STANDARDIZE(mean!G4,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G4,mean!$G$49,mean!$G$48)</f>
         <v>2.869146214468687</v>
       </c>
       <c r="T5" s="1">
-        <f>STANDARDIZE(mean!H4,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H4,mean!$H$49,mean!$H$48)</f>
         <v>2.088949590277994</v>
       </c>
       <c r="U5" s="1">
-        <f>STANDARDIZE(mean!I4,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I4,mean!$I$49,mean!$I$48)</f>
         <v>-1.3766589930038771</v>
       </c>
       <c r="V5" s="1">
-        <f>STANDARDIZE(mean!J4,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J4,mean!$J$49,mean!$J$48)</f>
         <v>-1.8060020745068446</v>
       </c>
       <c r="X5" s="3" t="str">
-        <f>IF(OR(OR(Q5&lt;-1.6,U5&lt;-1.6,V5&lt;-1.6),OR(P5&gt;1.6,R5&gt;1.6,S5&gt;1.6,T5&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y5" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TP</v>
       </c>
       <c r="AC5" s="22">
@@ -4712,50 +4956,50 @@
         <v>0.27909232471132872</v>
       </c>
       <c r="AH5" s="22">
-        <f>_xlfn.NORM.S.DIST(I6,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.70077866771427855</v>
       </c>
       <c r="AI5" s="22">
-        <f>_xlfn.NORM.S.DIST(H6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.46409304374539179</v>
       </c>
       <c r="AJ5" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.49299134762675639</v>
       </c>
       <c r="AL5" t="s">
         <v>11</v>
       </c>
       <c r="AN5" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.36460890492127129</v>
       </c>
       <c r="AO5" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39355950280099439</v>
       </c>
       <c r="AP5" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.35455365435855657</v>
       </c>
       <c r="AQ5" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.28139508490129922</v>
       </c>
       <c r="AR5" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.33609308972659285</v>
       </c>
       <c r="AS5" s="22">
-        <f>_xlfn.NORM.S.DIST(I6,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.34728340818509101</v>
       </c>
       <c r="AT5" s="22">
-        <f>_xlfn.NORM.S.DIST(H6,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.39732527763109393</v>
       </c>
       <c r="AU5" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.39888071451335688</v>
       </c>
       <c r="AW5" t="s">
@@ -4767,83 +5011,83 @@
         <v>74</v>
       </c>
       <c r="C6" s="1">
-        <f>STANDARDIZE(mean!C5,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C5,mean!$C$47,mean!$C$48)</f>
         <v>-0.42424393931029725</v>
       </c>
       <c r="D6" s="1">
-        <f>STANDARDIZE(mean!D5,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D5,mean!$D$47,mean!$D$48)</f>
         <v>0.16483006472085895</v>
       </c>
       <c r="E6" s="1">
-        <f>STANDARDIZE(mean!E5,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E5,mean!$E$47,mean!$E$48)</f>
         <v>-0.48570991146477077</v>
       </c>
       <c r="F6" s="1">
-        <f>STANDARDIZE(mean!F5,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F5,mean!$F$47,mean!$F$48)</f>
         <v>-0.83553224694286321</v>
       </c>
       <c r="G6" s="1">
-        <f>STANDARDIZE(mean!G5,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G5,mean!$G$47,mean!$G$48)</f>
         <v>-0.58554004376911961</v>
       </c>
       <c r="H6" s="1">
-        <f>STANDARDIZE(mean!H5,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H5,mean!$H$47,mean!$H$48)</f>
         <v>-9.0127259407968105E-2</v>
       </c>
       <c r="I6" s="1">
-        <f>STANDARDIZE(mean!I5,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I5,mean!$I$47,mean!$I$48)</f>
         <v>0.52664135973973836</v>
       </c>
       <c r="J6" s="1">
-        <f>STANDARDIZE(mean!J5,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J5,mean!$J$47,mean!$J$48)</f>
         <v>-1.7568989998947324E-2</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f>IF(OR(OR(E6&lt;-1.6,I6&lt;-1.6,J6&lt;-1.6),OR(D6&gt;1.6,F6&gt;1.6,G6&gt;1.6,H6&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TN</v>
       </c>
       <c r="O6" s="1">
-        <f>STANDARDIZE(mean!C5,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C5,mean!$C$49,mean!$C$48)</f>
         <v>-0.25620755973407994</v>
       </c>
       <c r="P6" s="1">
-        <f>STANDARDIZE(mean!D5,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D5,mean!$D$49,mean!$D$48)</f>
         <v>0.58325628185181244</v>
       </c>
       <c r="Q6" s="1">
-        <f>STANDARDIZE(mean!E5,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E5,mean!$E$49,mean!$E$48)</f>
         <v>-0.11597657866876107</v>
       </c>
       <c r="R6" s="1">
-        <f>STANDARDIZE(mean!F5,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F5,mean!$F$49,mean!$F$48)</f>
         <v>-0.83553224694286321</v>
       </c>
       <c r="S6" s="1">
-        <f>STANDARDIZE(mean!G5,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G5,mean!$G$49,mean!$G$48)</f>
         <v>-0.76120205689985565</v>
       </c>
       <c r="T6" s="1">
-        <f>STANDARDIZE(mean!H5,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H5,mean!$H$49,mean!$H$48)</f>
         <v>0.11816685122377828</v>
       </c>
       <c r="U6" s="1">
-        <f>STANDARDIZE(mean!I5,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I5,mean!$I$49,mean!$I$48)</f>
         <v>0.89027467956003303</v>
       </c>
       <c r="V6" s="1">
-        <f>STANDARDIZE(mean!J5,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J5,mean!$J$49,mean!$J$48)</f>
         <v>0.34327103536398357</v>
       </c>
       <c r="X6" s="3" t="str">
-        <f>IF(OR(OR(Q6&lt;-1.6,U6&lt;-1.6,V6&lt;-1.6),OR(P6&gt;1.6,R6&gt;1.6,S6&gt;1.6,T6&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y6" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TN</v>
       </c>
       <c r="AC6" s="22">
@@ -4867,50 +5111,50 @@
         <v>0.99999993173622082</v>
       </c>
       <c r="AH6" s="22">
-        <f>_xlfn.NORM.S.DIST(I7,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>6.0287706986371899E-3</v>
       </c>
       <c r="AI6" s="22">
-        <f>_xlfn.NORM.S.DIST(H7,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.9995911393953113</v>
       </c>
       <c r="AJ6" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.7239724851588E-7</v>
       </c>
       <c r="AL6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="AN6" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.36656095129075478</v>
       </c>
       <c r="AO6" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39748620700323872</v>
       </c>
       <c r="AP6" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.1092794076592029</v>
       </c>
       <c r="AQ6" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1602923252784798E-4</v>
       </c>
       <c r="AR6" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.7189554358486531E-7</v>
       </c>
       <c r="AS6" s="22">
-        <f>_xlfn.NORM.S.DIST(I7,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.7075122354814901E-2</v>
       </c>
       <c r="AT6" s="22">
-        <f>_xlfn.NORM.S.DIST(H7,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>1.474812316530328E-3</v>
       </c>
       <c r="AU6" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.3788872683528789E-6</v>
       </c>
       <c r="AW6" s="11" t="s">
@@ -4922,83 +5166,83 @@
         <v>84</v>
       </c>
       <c r="C7" s="1">
-        <f>STANDARDIZE(mean!C6,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C6,mean!$C$47,mean!$C$48)</f>
         <v>-0.41146550740336046</v>
       </c>
       <c r="D7" s="1">
-        <f>STANDARDIZE(mean!D6,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D6,mean!$D$47,mean!$D$48)</f>
         <v>8.5516216567806516E-2</v>
       </c>
       <c r="E7" s="1">
-        <f>STANDARDIZE(mean!E6,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E6,mean!$E$47,mean!$E$48)</f>
         <v>-1.6092910056077261</v>
       </c>
       <c r="F7" s="1">
-        <f>STANDARDIZE(mean!F6,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F6,mean!$F$47,mean!$F$48)</f>
         <v>4.0355247145447235</v>
       </c>
       <c r="G7" s="1">
-        <f>STANDARDIZE(mean!G6,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G6,mean!$G$47,mean!$G$48)</f>
         <v>5.2698603939220776</v>
       </c>
       <c r="H7" s="1">
-        <f>STANDARDIZE(mean!H6,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H6,mean!$H$47,mean!$H$48)</f>
         <v>3.3467255660158477</v>
       </c>
       <c r="I7" s="1">
-        <f>STANDARDIZE(mean!I6,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I6,mean!$I$47,mean!$I$48)</f>
         <v>-2.510455805075142</v>
       </c>
       <c r="J7" s="1">
-        <f>STANDARDIZE(mean!J6,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J6,mean!$J$47,mean!$J$48)</f>
         <v>-4.8330167763029435</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f>IF(OR(OR(E7&lt;-1.6,I7&lt;-1.6,J7&lt;-1.6),OR(D7&gt;1.6,F7&gt;1.6,G7&gt;1.6,H7&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TP</v>
       </c>
       <c r="O7" s="1">
-        <f>STANDARDIZE(mean!C6,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C6,mean!$C$49,mean!$C$48)</f>
         <v>-0.24342912782714315</v>
       </c>
       <c r="P7" s="1">
-        <f>STANDARDIZE(mean!D6,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D6,mean!$D$49,mean!$D$48)</f>
         <v>0.50394243369876002</v>
       </c>
       <c r="Q7" s="1">
-        <f>STANDARDIZE(mean!E6,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E6,mean!$E$49,mean!$E$48)</f>
         <v>-1.2395576728117164</v>
       </c>
       <c r="R7" s="1">
-        <f>STANDARDIZE(mean!F6,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F6,mean!$F$49,mean!$F$48)</f>
         <v>4.0355247145447235</v>
       </c>
       <c r="S7" s="1">
-        <f>STANDARDIZE(mean!G6,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G6,mean!$G$49,mean!$G$48)</f>
         <v>5.094198380791342</v>
       </c>
       <c r="T7" s="1">
-        <f>STANDARDIZE(mean!H6,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H6,mean!$H$49,mean!$H$48)</f>
         <v>3.5550196766475941</v>
       </c>
       <c r="U7" s="1">
-        <f>STANDARDIZE(mean!I6,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I6,mean!$I$49,mean!$I$48)</f>
         <v>-2.1468224852548472</v>
       </c>
       <c r="V7" s="1">
-        <f>STANDARDIZE(mean!J6,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J6,mean!$J$49,mean!$J$48)</f>
         <v>-4.4721767509400125</v>
       </c>
       <c r="X7" s="3" t="str">
-        <f>IF(OR(OR(Q7&lt;-1.6,U7&lt;-1.6,V7&lt;-1.6),OR(P7&gt;1.6,R7&gt;1.6,S7&gt;1.6,T7&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y7" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TP</v>
       </c>
       <c r="AC7" s="22">
@@ -5022,50 +5266,50 @@
         <v>0.68026216820753871</v>
       </c>
       <c r="AH7" s="22">
-        <f>_xlfn.NORM.S.DIST(I8,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.23800094547910097</v>
       </c>
       <c r="AI7" s="22">
-        <f>_xlfn.NORM.S.DIST(H8,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.77066733284078803</v>
       </c>
       <c r="AJ7" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.32913107195394942</v>
       </c>
       <c r="AL7" t="s">
         <v>13</v>
       </c>
       <c r="AN7" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.33387270964666144</v>
       </c>
       <c r="AO7" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37801204830059199</v>
       </c>
       <c r="AP7" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.30131610880593129</v>
       </c>
       <c r="AQ7" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.39672233535656437</v>
       </c>
       <c r="AR7" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.35748823770316207</v>
       </c>
       <c r="AS7" s="22">
-        <f>_xlfn.NORM.S.DIST(I8,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.3094548188437316</v>
       </c>
       <c r="AT7" s="22">
-        <f>_xlfn.NORM.S.DIST(H8,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.30315429355367207</v>
       </c>
       <c r="AU7" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.3617654217430904</v>
       </c>
       <c r="AW7" t="s">
@@ -5077,83 +5321,83 @@
         <v>74</v>
       </c>
       <c r="C8" s="1">
-        <f>STANDARDIZE(mean!C7,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C7,mean!$C$47,mean!$C$48)</f>
         <v>-0.59675277005394189</v>
       </c>
       <c r="D8" s="1">
-        <f>STANDARDIZE(mean!D7,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D7,mean!$D$47,mean!$D$48)</f>
         <v>-0.32830070622752516</v>
       </c>
       <c r="E8" s="1">
-        <f>STANDARDIZE(mean!E7,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E7,mean!$E$47,mean!$E$48)</f>
         <v>-0.74920869820019531</v>
       </c>
       <c r="F8" s="1">
-        <f>STANDARDIZE(mean!F7,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F7,mean!$F$47,mean!$F$48)</f>
         <v>0.10564200823415475</v>
       </c>
       <c r="G8" s="1">
-        <f>STANDARDIZE(mean!G7,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G7,mean!$G$47,mean!$G$48)</f>
         <v>0.46843203501529601</v>
       </c>
       <c r="H8" s="1">
-        <f>STANDARDIZE(mean!H7,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H7,mean!$H$47,mean!$H$48)</f>
         <v>0.74104635513217443</v>
       </c>
       <c r="I8" s="1">
-        <f>STANDARDIZE(mean!I7,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I7,mean!$I$47,mean!$I$48)</f>
         <v>-0.7127477049109221</v>
       </c>
       <c r="J8" s="1">
-        <f>STANDARDIZE(mean!J7,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J7,mean!$J$47,mean!$J$48)</f>
         <v>-0.44231380316023644</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f>IF(OR(OR(E8&lt;-1.6,I8&lt;-1.6,J8&lt;-1.6),OR(D8&gt;1.6,F8&gt;1.6,G8&gt;1.6,H8&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TN</v>
       </c>
       <c r="O8" s="1">
-        <f>STANDARDIZE(mean!C7,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C7,mean!$C$49,mean!$C$48)</f>
         <v>-0.42871639047772458</v>
       </c>
       <c r="P8" s="1">
-        <f>STANDARDIZE(mean!D7,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D7,mean!$D$49,mean!$D$48)</f>
         <v>9.0125510903428394E-2</v>
       </c>
       <c r="Q8" s="1">
-        <f>STANDARDIZE(mean!E7,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E7,mean!$E$49,mean!$E$48)</f>
         <v>-0.37947536540418564</v>
       </c>
       <c r="R8" s="1">
-        <f>STANDARDIZE(mean!F7,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F7,mean!$F$49,mean!$F$48)</f>
         <v>0.10564200823415475</v>
       </c>
       <c r="S8" s="1">
-        <f>STANDARDIZE(mean!G7,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G7,mean!$G$49,mean!$G$48)</f>
         <v>0.29277002188455997</v>
       </c>
       <c r="T8" s="1">
-        <f>STANDARDIZE(mean!H7,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H7,mean!$H$49,mean!$H$48)</f>
         <v>0.94934046576392084</v>
       </c>
       <c r="U8" s="1">
-        <f>STANDARDIZE(mean!I7,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I7,mean!$I$49,mean!$I$48)</f>
         <v>-0.34911438509062742</v>
       </c>
       <c r="V8" s="1">
-        <f>STANDARDIZE(mean!J7,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J7,mean!$J$49,mean!$J$48)</f>
         <v>-8.1473777797305566E-2</v>
       </c>
       <c r="X8" s="3" t="str">
-        <f>IF(OR(OR(Q8&lt;-1.6,U8&lt;-1.6,V8&lt;-1.6),OR(P8&gt;1.6,R8&gt;1.6,S8&gt;1.6,T8&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y8" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TN</v>
       </c>
       <c r="AC8" s="22">
@@ -5177,50 +5421,50 @@
         <v>9.2217281373197471E-2</v>
       </c>
       <c r="AH8" s="22">
-        <f>_xlfn.NORM.S.DIST(I9,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.840021689251637</v>
       </c>
       <c r="AI8" s="22">
-        <f>_xlfn.NORM.S.DIST(H9,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.3966465887673486</v>
       </c>
       <c r="AJ8" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.86386208366228345</v>
       </c>
       <c r="AL8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="AN8" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13521698985158337</v>
       </c>
       <c r="AO8" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.36384155287704972</v>
       </c>
       <c r="AP8" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.13789977250112015</v>
       </c>
       <c r="AQ8" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.0798389522720012E-2</v>
       </c>
       <c r="AR8" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16534841291015259</v>
       </c>
       <c r="AS8" s="22">
-        <f>_xlfn.NORM.S.DIST(I9,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.24329017077134116</v>
       </c>
       <c r="AT8" s="22">
-        <f>_xlfn.NORM.S.DIST(H9,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.38547839208146129</v>
       </c>
       <c r="AU8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.2183707073622323</v>
       </c>
       <c r="AW8" s="3" t="s">
@@ -5232,83 +5476,83 @@
         <v>74</v>
       </c>
       <c r="C9" s="1">
-        <f>STANDARDIZE(mean!C8,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C8,mean!$C$47,mean!$C$48)</f>
         <v>-1.471010486353524</v>
       </c>
       <c r="D9" s="1">
-        <f>STANDARDIZE(mean!D8,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D8,mean!$D$47,mean!$D$48)</f>
         <v>-0.42918123724740476</v>
       </c>
       <c r="E9" s="1">
-        <f>STANDARDIZE(mean!E8,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E8,mean!$E$47,mean!$E$48)</f>
         <v>-1.4575936407089867</v>
       </c>
       <c r="F9" s="1">
-        <f>STANDARDIZE(mean!F8,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F8,mean!$F$47,mean!$F$48)</f>
         <v>-2.0302473218818529</v>
       </c>
       <c r="G9" s="1">
-        <f>STANDARDIZE(mean!G8,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G8,mean!$G$47,mean!$G$48)</f>
         <v>-1.3272240992100048</v>
       </c>
       <c r="H9" s="1">
-        <f>STANDARDIZE(mean!H8,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H8,mean!$H$47,mean!$H$48)</f>
         <v>-0.26203666161205308</v>
       </c>
       <c r="I9" s="1">
-        <f>STANDARDIZE(mean!I8,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I8,mean!$I$47,mean!$I$48)</f>
         <v>0.99454702898218761</v>
       </c>
       <c r="J9" s="1">
-        <f>STANDARDIZE(mean!J8,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J8,mean!$J$47,mean!$J$48)</f>
         <v>1.0978366314724775</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f>IF(OR(OR(E9&lt;-1.6,I9&lt;-1.6,J9&lt;-1.6),OR(D9&gt;1.6,F9&gt;1.6,G9&gt;1.6,H9&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TN</v>
       </c>
       <c r="O9" s="1">
-        <f>STANDARDIZE(mean!C8,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C8,mean!$C$49,mean!$C$48)</f>
         <v>-1.3029741067773066</v>
       </c>
       <c r="P9" s="1">
-        <f>STANDARDIZE(mean!D8,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D8,mean!$D$49,mean!$D$48)</f>
         <v>-1.0755020116451222E-2</v>
       </c>
       <c r="Q9" s="1">
-        <f>STANDARDIZE(mean!E8,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E8,mean!$E$49,mean!$E$48)</f>
         <v>-1.0878603079129769</v>
       </c>
       <c r="R9" s="1">
-        <f>STANDARDIZE(mean!F8,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F8,mean!$F$49,mean!$F$48)</f>
         <v>-2.0302473218818529</v>
       </c>
       <c r="S9" s="1">
-        <f>STANDARDIZE(mean!G8,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G8,mean!$G$49,mean!$G$48)</f>
         <v>-1.5028861123407409</v>
       </c>
       <c r="T9" s="1">
-        <f>STANDARDIZE(mean!H8,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H8,mean!$H$49,mean!$H$48)</f>
         <v>-5.3742550980306662E-2</v>
       </c>
       <c r="U9" s="1">
-        <f>STANDARDIZE(mean!I8,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I8,mean!$I$49,mean!$I$48)</f>
         <v>1.3581803488024824</v>
       </c>
       <c r="V9" s="1">
-        <f>STANDARDIZE(mean!J8,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J8,mean!$J$49,mean!$J$48)</f>
         <v>1.4586766568354084</v>
       </c>
       <c r="X9" s="3" t="str">
-        <f>IF(OR(OR(Q9&lt;-1.6,U9&lt;-1.6,V9&lt;-1.6),OR(P9&gt;1.6,R9&gt;1.6,S9&gt;1.6,T9&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y9" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TN</v>
       </c>
       <c r="AC9" s="22">
@@ -5332,50 +5576,50 @@
         <v>0.25975722482376412</v>
       </c>
       <c r="AH9" s="22">
-        <f>_xlfn.NORM.S.DIST(I10,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.92608987463289283</v>
       </c>
       <c r="AI9" s="22">
-        <f>_xlfn.NORM.S.DIST(H10,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.22933266715921194</v>
       </c>
       <c r="AJ9" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.8730823857683313</v>
       </c>
       <c r="AL9" t="s">
         <v>15</v>
       </c>
       <c r="AN9" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.35686150618445572</v>
       </c>
       <c r="AO9" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38078515434669985</v>
       </c>
       <c r="AP9" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.38691662624900125</v>
       </c>
       <c r="AQ9" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.18051191015565443</v>
       </c>
       <c r="AR9" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.32420893671151013</v>
       </c>
       <c r="AS9" s="22">
-        <f>_xlfn.NORM.S.DIST(I10,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.13998230229611777</v>
       </c>
       <c r="AT9" s="22">
-        <f>_xlfn.NORM.S.DIST(H10,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.30315429355367207</v>
       </c>
       <c r="AU9" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.20805055648444665</v>
       </c>
       <c r="AW9" t="s">
@@ -5387,83 +5631,83 @@
         <v>84</v>
       </c>
       <c r="C10" s="1">
-        <f>STANDARDIZE(mean!C9,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C9,mean!$C$47,mean!$C$48)</f>
         <v>-0.47216305896130945</v>
       </c>
       <c r="D10" s="1">
-        <f>STANDARDIZE(mean!D9,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D9,mean!$D$47,mean!$D$48)</f>
         <v>-0.30522591323245302</v>
       </c>
       <c r="E10" s="1">
-        <f>STANDARDIZE(mean!E9,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E9,mean!$E$47,mean!$E$48)</f>
         <v>-0.24741670116002304</v>
       </c>
       <c r="F10" s="1">
-        <f>STANDARDIZE(mean!F9,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F9,mean!$F$47,mean!$F$48)</f>
         <v>-1.2593807890702005</v>
       </c>
       <c r="G10" s="1">
-        <f>STANDARDIZE(mean!G9,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G9,mean!$G$47,mean!$G$48)</f>
         <v>-0.64409404814603177</v>
       </c>
       <c r="H10" s="1">
-        <f>STANDARDIZE(mean!H9,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H9,mean!$H$47,mean!$H$48)</f>
         <v>-0.74104635513217443</v>
       </c>
       <c r="I10" s="1">
-        <f>STANDARDIZE(mean!I9,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I9,mean!$I$47,mean!$I$48)</f>
         <v>1.4472738119163486</v>
       </c>
       <c r="J10" s="1">
-        <f>STANDARDIZE(mean!J9,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J9,mean!$J$47,mean!$J$48)</f>
         <v>1.1410833760852619</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f>IF(OR(OR(E10&lt;-1.6,I10&lt;-1.6,J10&lt;-1.6),OR(D10&gt;1.6,F10&gt;1.6,G10&gt;1.6,H10&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>FN</v>
       </c>
       <c r="O10" s="1">
-        <f>STANDARDIZE(mean!C9,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C9,mean!$C$49,mean!$C$48)</f>
         <v>-0.30412667938509214</v>
       </c>
       <c r="P10" s="1">
-        <f>STANDARDIZE(mean!D9,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D9,mean!$D$49,mean!$D$48)</f>
         <v>0.11320030389850053</v>
       </c>
       <c r="Q10" s="1">
-        <f>STANDARDIZE(mean!E9,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E9,mean!$E$49,mean!$E$48)</f>
         <v>0.1223166316359867</v>
       </c>
       <c r="R10" s="1">
-        <f>STANDARDIZE(mean!F9,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F9,mean!$F$49,mean!$F$48)</f>
         <v>-1.2593807890702005</v>
       </c>
       <c r="S10" s="1">
-        <f>STANDARDIZE(mean!G9,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G9,mean!$G$49,mean!$G$48)</f>
         <v>-0.81975606127676781</v>
       </c>
       <c r="T10" s="1">
-        <f>STANDARDIZE(mean!H9,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H9,mean!$H$49,mean!$H$48)</f>
         <v>-0.53275224450042813</v>
       </c>
       <c r="U10" s="1">
-        <f>STANDARDIZE(mean!I9,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I9,mean!$I$49,mean!$I$48)</f>
         <v>1.8109071317366434</v>
       </c>
       <c r="V10" s="1">
-        <f>STANDARDIZE(mean!J9,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J9,mean!$J$49,mean!$J$48)</f>
         <v>1.5019234014481928</v>
       </c>
       <c r="X10" s="3" t="str">
-        <f>IF(OR(OR(Q10&lt;-1.6,U10&lt;-1.6,V10&lt;-1.6),OR(P10&gt;1.6,R10&gt;1.6,S10&gt;1.6,T10&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y10" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>FN</v>
       </c>
       <c r="AC10" s="22">
@@ -5487,50 +5731,50 @@
         <v>0.99996578395635982</v>
       </c>
       <c r="AH10" s="22">
-        <f>_xlfn.NORM.S.DIST(I11,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>5.8589486734564433E-2</v>
       </c>
       <c r="AI10" s="22">
-        <f>_xlfn.NORM.S.DIST(H11,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.93969181803717827</v>
       </c>
       <c r="AJ10" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.716730054001939E-2</v>
       </c>
       <c r="AL10" t="s">
         <v>16</v>
       </c>
       <c r="AN10" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39607463578955499</v>
       </c>
       <c r="AO10" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38392427438894211</v>
       </c>
       <c r="AP10" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.35048730307580395</v>
       </c>
       <c r="AQ10" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.7598202809904459E-2</v>
       </c>
       <c r="AR10" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4398582855238231E-4</v>
       </c>
       <c r="AS10" s="22">
-        <f>_xlfn.NORM.S.DIST(I11,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.11692153377509704</v>
       </c>
       <c r="AT10" s="22">
-        <f>_xlfn.NORM.S.DIST(H11,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.11960172025658505</v>
       </c>
       <c r="AU10" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.13005724467268245</v>
       </c>
       <c r="AW10" s="11" t="s">
@@ -5542,83 +5786,83 @@
         <v>74</v>
       </c>
       <c r="C11" s="1">
-        <f>STANDARDIZE(mean!C10,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C10,mean!$C$47,mean!$C$48)</f>
         <v>-0.1201172599252046</v>
       </c>
       <c r="D11" s="1">
-        <f>STANDARDIZE(mean!D10,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D10,mean!$D$47,mean!$D$48)</f>
         <v>-0.27702496186719611</v>
       </c>
       <c r="E11" s="1">
-        <f>STANDARDIZE(mean!E10,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E10,mean!$E$47,mean!$E$48)</f>
         <v>-0.50890522719852282</v>
       </c>
       <c r="F11" s="1">
-        <f>STANDARDIZE(mean!F10,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F10,mean!$F$47,mean!$F$48)</f>
         <v>1.8842692741401117</v>
       </c>
       <c r="G11" s="1">
-        <f>STANDARDIZE(mean!G10,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G10,mean!$G$47,mean!$G$48)</f>
         <v>3.9816722976300145</v>
       </c>
       <c r="H11" s="1">
-        <f>STANDARDIZE(mean!H10,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H10,mean!$H$47,mean!$H$48)</f>
         <v>1.5521916898038788</v>
       </c>
       <c r="I11" s="1">
-        <f>STANDARDIZE(mean!I10,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I10,mean!$I$47,mean!$I$48)</f>
         <v>-1.5667250476467891</v>
       </c>
       <c r="J11" s="1">
-        <f>STANDARDIZE(mean!J10,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J10,mean!$J$47,mean!$J$48)</f>
         <v>-1.4972254663935356</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f>IF(OR(OR(E11&lt;-1.6,I11&lt;-1.6,J11&lt;-1.6),OR(D11&gt;1.6,F11&gt;1.6,G11&gt;1.6,H11&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>FP</v>
       </c>
       <c r="O11" s="1">
-        <f>STANDARDIZE(mean!C10,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C10,mean!$C$49,mean!$C$48)</f>
         <v>4.7919119651012705E-2</v>
       </c>
       <c r="P11" s="1">
-        <f>STANDARDIZE(mean!D10,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D10,mean!$D$49,mean!$D$48)</f>
         <v>0.14140125526375741</v>
       </c>
       <c r="Q11" s="1">
-        <f>STANDARDIZE(mean!E10,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E10,mean!$E$49,mean!$E$48)</f>
         <v>-0.13917189440251312</v>
       </c>
       <c r="R11" s="1">
-        <f>STANDARDIZE(mean!F10,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F10,mean!$F$49,mean!$F$48)</f>
         <v>1.8842692741401117</v>
       </c>
       <c r="S11" s="1">
-        <f>STANDARDIZE(mean!G10,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G10,mean!$G$49,mean!$G$48)</f>
         <v>3.8060102844992785</v>
       </c>
       <c r="T11" s="1">
-        <f>STANDARDIZE(mean!H10,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H10,mean!$H$49,mean!$H$48)</f>
         <v>1.7604858004356252</v>
       </c>
       <c r="U11" s="1">
-        <f>STANDARDIZE(mean!I10,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I10,mean!$I$49,mean!$I$48)</f>
         <v>-1.2030917278264943</v>
       </c>
       <c r="V11" s="1">
-        <f>STANDARDIZE(mean!J10,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J10,mean!$J$49,mean!$J$48)</f>
         <v>-1.1363854410306047</v>
       </c>
       <c r="X11" s="3" t="str">
-        <f>IF(OR(OR(Q11&lt;-1.6,U11&lt;-1.6,V11&lt;-1.6),OR(P11&gt;1.6,R11&gt;1.6,S11&gt;1.6,T11&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y11" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>FP</v>
       </c>
       <c r="AC11" s="22">
@@ -5642,50 +5886,50 @@
         <v>0.75886244574774975</v>
       </c>
       <c r="AH11" s="22">
-        <f>_xlfn.NORM.S.DIST(I12,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.28293048670536869</v>
       </c>
       <c r="AI11" s="22">
-        <f>_xlfn.NORM.S.DIST(H12,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.80599142759323805</v>
       </c>
       <c r="AJ11" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.37261710800777159</v>
       </c>
       <c r="AL11" t="s">
         <v>17</v>
       </c>
       <c r="AN11" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.3437641333953777</v>
       </c>
       <c r="AO11" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38795971419819708</v>
       </c>
       <c r="AP11" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31687372038140738</v>
       </c>
       <c r="AQ11" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.3984825982123717</v>
       </c>
       <c r="AR11" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.31167457135032695</v>
       </c>
       <c r="AS11" s="22">
-        <f>_xlfn.NORM.S.DIST(I12,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.33831861993442014</v>
       </c>
       <c r="AT11" s="22">
-        <f>_xlfn.NORM.S.DIST(H12,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.27485490593212164</v>
       </c>
       <c r="AU11" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.3784284669532379</v>
       </c>
       <c r="AW11" t="s">
@@ -5697,83 +5941,83 @@
         <v>74</v>
       </c>
       <c r="C12" s="1">
-        <f>STANDARDIZE(mean!C11,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C11,mean!$C$47,mean!$C$48)</f>
         <v>-0.54563904242619521</v>
       </c>
       <c r="D12" s="1">
-        <f>STANDARDIZE(mean!D11,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D11,mean!$D$47,mean!$D$48)</f>
         <v>-0.23628474741686009</v>
       </c>
       <c r="E12" s="1">
-        <f>STANDARDIZE(mean!E11,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E11,mean!$E$47,mean!$E$48)</f>
         <v>-0.6786949383695885</v>
       </c>
       <c r="F12" s="1">
-        <f>STANDARDIZE(mean!F11,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F11,mean!$F$47,mean!$F$48)</f>
         <v>-4.8019094651888451E-2</v>
       </c>
       <c r="G12" s="1">
-        <f>STANDARDIZE(mean!G11,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G11,mean!$G$47,mean!$G$48)</f>
         <v>0.70264805252294427</v>
       </c>
       <c r="H12" s="1">
-        <f>STANDARDIZE(mean!H11,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H11,mean!$H$47,mean!$H$48)</f>
         <v>0.86321886232964185</v>
       </c>
       <c r="I12" s="1">
-        <f>STANDARDIZE(mean!I11,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I11,mean!$I$47,mean!$I$48)</f>
         <v>-0.57415787340046598</v>
       </c>
       <c r="J12" s="1">
-        <f>STANDARDIZE(mean!J11,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J11,mean!$J$47,mean!$J$48)</f>
         <v>-0.3249297820683883</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f>IF(OR(OR(E12&lt;-1.6,I12&lt;-1.6,J12&lt;-1.6),OR(D12&gt;1.6,F12&gt;1.6,G12&gt;1.6,H12&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TN</v>
       </c>
       <c r="O12" s="1">
-        <f>STANDARDIZE(mean!C11,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C11,mean!$C$49,mean!$C$48)</f>
         <v>-0.3776026628499779</v>
       </c>
       <c r="P12" s="1">
-        <f>STANDARDIZE(mean!D11,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D11,mean!$D$49,mean!$D$48)</f>
         <v>0.18214146971409345</v>
       </c>
       <c r="Q12" s="1">
-        <f>STANDARDIZE(mean!E11,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E11,mean!$E$49,mean!$E$48)</f>
         <v>-0.30896160557357882</v>
       </c>
       <c r="R12" s="1">
-        <f>STANDARDIZE(mean!F11,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F11,mean!$F$49,mean!$F$48)</f>
         <v>-4.8019094651888451E-2</v>
       </c>
       <c r="S12" s="1">
-        <f>STANDARDIZE(mean!G11,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G11,mean!$G$49,mean!$G$48)</f>
         <v>0.52698603939220812</v>
       </c>
       <c r="T12" s="1">
-        <f>STANDARDIZE(mean!H11,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H11,mean!$H$49,mean!$H$48)</f>
         <v>1.0715129729613881</v>
       </c>
       <c r="U12" s="1">
-        <f>STANDARDIZE(mean!I11,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I11,mean!$I$49,mean!$I$48)</f>
         <v>-0.21052455358017133</v>
       </c>
       <c r="V12" s="1">
-        <f>STANDARDIZE(mean!J11,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J11,mean!$J$49,mean!$J$48)</f>
         <v>3.5910243294542593E-2</v>
       </c>
       <c r="X12" s="3" t="str">
-        <f>IF(OR(OR(Q12&lt;-1.6,U12&lt;-1.6,V12&lt;-1.6),OR(P12&gt;1.6,R12&gt;1.6,S12&gt;1.6,T12&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y12" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TN</v>
       </c>
       <c r="AC12" s="22">
@@ -5797,50 +6041,50 @@
         <v>0.99999996417198733</v>
       </c>
       <c r="AH12" s="22">
-        <f>_xlfn.NORM.S.DIST(I13,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>3.2310979389729967E-2</v>
       </c>
       <c r="AI12" s="22">
-        <f>_xlfn.NORM.S.DIST(H13,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.88093339635805723</v>
       </c>
       <c r="AJ12" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.321440173545428E-2</v>
       </c>
       <c r="AL12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AN12" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39242836741028519</v>
       </c>
       <c r="AO12" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37511627361688304</v>
       </c>
       <c r="AP12" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31567387219112453</v>
       </c>
       <c r="AQ12" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.3933637238862417E-2</v>
       </c>
       <c r="AR12" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9926050082285448E-7</v>
       </c>
       <c r="AS12" s="22">
-        <f>_xlfn.NORM.S.DIST(I13,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>7.2349988068860407E-2</v>
       </c>
       <c r="AT12" s="22">
-        <f>_xlfn.NORM.S.DIST(H13,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.19894157377153968</v>
       </c>
       <c r="AU12" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.4917521287286018E-2</v>
       </c>
       <c r="AW12" s="11" t="s">
@@ -5852,83 +6096,83 @@
         <v>84</v>
       </c>
       <c r="C13" s="1">
-        <f>STANDARDIZE(mean!C12,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C12,mean!$C$47,mean!$C$48)</f>
         <v>-0.1814537330785008</v>
       </c>
       <c r="D13" s="1">
-        <f>STANDARDIZE(mean!D12,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D12,mean!$D$47,mean!$D$48)</f>
         <v>-0.35094359913892148</v>
       </c>
       <c r="E13" s="1">
-        <f>STANDARDIZE(mean!E12,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E12,mean!$E$47,mean!$E$48)</f>
         <v>-0.68426181414568932</v>
       </c>
       <c r="F13" s="1">
-        <f>STANDARDIZE(mean!F12,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F12,mean!$F$47,mean!$F$48)</f>
         <v>2.3721432758033005</v>
       </c>
       <c r="G13" s="1">
-        <f>STANDARDIZE(mean!G12,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G12,mean!$G$47,mean!$G$48)</f>
         <v>5.3869684026759028</v>
       </c>
       <c r="H13" s="1">
-        <f>STANDARDIZE(mean!H12,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H12,mean!$H$47,mean!$H$48)</f>
         <v>1.1796656842509479</v>
       </c>
       <c r="I13" s="1">
-        <f>STANDARDIZE(mean!I12,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I12,mean!$I$47,mean!$I$48)</f>
         <v>-1.8478644201394312</v>
       </c>
       <c r="J13" s="1">
-        <f>STANDARDIZE(mean!J12,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J12,mean!$J$47,mean!$J$48)</f>
         <v>-1.9914739762539391</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f>IF(OR(OR(E13&lt;-1.6,I13&lt;-1.6,J13&lt;-1.6),OR(D13&gt;1.6,F13&gt;1.6,G13&gt;1.6,H13&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TP</v>
       </c>
       <c r="O13" s="1">
-        <f>STANDARDIZE(mean!C12,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C12,mean!$C$49,mean!$C$48)</f>
         <v>-1.3417353502283477E-2</v>
       </c>
       <c r="P13" s="1">
-        <f>STANDARDIZE(mean!D12,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D12,mean!$D$49,mean!$D$48)</f>
         <v>6.7482617992032076E-2</v>
       </c>
       <c r="Q13" s="1">
-        <f>STANDARDIZE(mean!E12,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E12,mean!$E$49,mean!$E$48)</f>
         <v>-0.31452848134967953</v>
       </c>
       <c r="R13" s="1">
-        <f>STANDARDIZE(mean!F12,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F12,mean!$F$49,mean!$F$48)</f>
         <v>2.3721432758033005</v>
       </c>
       <c r="S13" s="1">
-        <f>STANDARDIZE(mean!G12,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G12,mean!$G$49,mean!$G$48)</f>
         <v>5.2113063895451672</v>
       </c>
       <c r="T13" s="1">
-        <f>STANDARDIZE(mean!H12,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H12,mean!$H$49,mean!$H$48)</f>
         <v>1.3879597948826943</v>
       </c>
       <c r="U13" s="1">
-        <f>STANDARDIZE(mean!I12,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I12,mean!$I$49,mean!$I$48)</f>
         <v>-1.4842311003191366</v>
       </c>
       <c r="V13" s="1">
-        <f>STANDARDIZE(mean!J12,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J12,mean!$J$49,mean!$J$48)</f>
         <v>-1.6306339508910082</v>
       </c>
       <c r="X13" s="3" t="str">
-        <f>IF(OR(OR(Q13&lt;-1.6,U13&lt;-1.6,V13&lt;-1.6),OR(P13&gt;1.6,R13&gt;1.6,S13&gt;1.6,T13&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y13" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TP</v>
       </c>
       <c r="AC13" s="22">
@@ -5952,50 +6196,50 @@
         <v>0.9988358564086951</v>
       </c>
       <c r="AH13" s="22">
-        <f>_xlfn.NORM.S.DIST(I14,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.2679864592596268E-2</v>
       </c>
       <c r="AI13" s="22">
-        <f>_xlfn.NORM.S.DIST(H14,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.99796417071262522</v>
       </c>
       <c r="AJ13" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.1237375995858035E-3</v>
       </c>
       <c r="AL13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AN13" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39871361395138705</v>
       </c>
       <c r="AO13" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38575778866098948</v>
       </c>
       <c r="AP13" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31836607123085653</v>
       </c>
       <c r="AQ13" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.8638903331902948E-3</v>
       </c>
       <c r="AR13" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.8705173270529611E-3</v>
       </c>
       <c r="AS13" s="22">
-        <f>_xlfn.NORM.S.DIST(I14,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>5.3850386037037283E-2</v>
       </c>
       <c r="AT13" s="22">
-        <f>_xlfn.NORM.S.DIST(H14,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>6.4432150308241553E-3</v>
       </c>
       <c r="AU13" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.7313269693280394E-2</v>
       </c>
       <c r="AW13" s="11" t="s">
@@ -6007,83 +6251,83 @@
         <v>84</v>
       </c>
       <c r="C14" s="1">
-        <f>STANDARDIZE(mean!C13,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C13,mean!$C$47,mean!$C$48)</f>
         <v>-3.3862844553382544E-2</v>
       </c>
       <c r="D14" s="1">
-        <f>STANDARDIZE(mean!D13,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D13,mean!$D$47,mean!$D$48)</f>
         <v>-0.25925687563794375</v>
       </c>
       <c r="E14" s="1">
-        <f>STANDARDIZE(mean!E13,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E13,mean!$E$47,mean!$E$48)</f>
         <v>-0.671736343649463</v>
       </c>
       <c r="F14" s="1">
-        <f>STANDARDIZE(mean!F13,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F13,mean!$F$47,mean!$F$48)</f>
         <v>3.0453709828227793</v>
       </c>
       <c r="G14" s="1">
-        <f>STANDARDIZE(mean!G13,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G13,mean!$G$47,mean!$G$48)</f>
         <v>3.0448082275994235</v>
       </c>
       <c r="H14" s="1">
-        <f>STANDARDIZE(mean!H13,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H13,mean!$H$47,mean!$H$48)</f>
         <v>2.8725560401305983</v>
       </c>
       <c r="I14" s="1">
-        <f>STANDARDIZE(mean!I13,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I13,mean!$I$47,mean!$I$48)</f>
         <v>-2.0013031621688664</v>
       </c>
       <c r="J14" s="1">
-        <f>STANDARDIZE(mean!J13,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J13,mean!$J$47,mean!$J$48)</f>
         <v>-2.5049325356186865</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f>IF(OR(OR(E14&lt;-1.6,I14&lt;-1.6,J14&lt;-1.6),OR(D14&gt;1.6,F14&gt;1.6,G14&gt;1.6,H14&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TP</v>
       </c>
       <c r="O14" s="1">
-        <f>STANDARDIZE(mean!C13,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C13,mean!$C$49,mean!$C$48)</f>
         <v>0.13417353502283477</v>
       </c>
       <c r="P14" s="1">
-        <f>STANDARDIZE(mean!D13,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D13,mean!$D$49,mean!$D$48)</f>
         <v>0.15916934149300979</v>
       </c>
       <c r="Q14" s="1">
-        <f>STANDARDIZE(mean!E13,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E13,mean!$E$49,mean!$E$48)</f>
         <v>-0.30200301085345327</v>
       </c>
       <c r="R14" s="1">
-        <f>STANDARDIZE(mean!F13,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F13,mean!$F$49,mean!$F$48)</f>
         <v>3.0453709828227793</v>
       </c>
       <c r="S14" s="1">
-        <f>STANDARDIZE(mean!G13,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G13,mean!$G$49,mean!$G$48)</f>
         <v>2.869146214468687</v>
       </c>
       <c r="T14" s="1">
-        <f>STANDARDIZE(mean!H13,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H13,mean!$H$49,mean!$H$48)</f>
         <v>3.0808501507623447</v>
       </c>
       <c r="U14" s="1">
-        <f>STANDARDIZE(mean!I13,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I13,mean!$I$49,mean!$I$48)</f>
         <v>-1.6376698423485716</v>
       </c>
       <c r="V14" s="1">
-        <f>STANDARDIZE(mean!J13,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J13,mean!$J$49,mean!$J$48)</f>
         <v>-2.1440925102557555</v>
       </c>
       <c r="X14" s="3" t="str">
-        <f>IF(OR(OR(Q14&lt;-1.6,U14&lt;-1.6,V14&lt;-1.6),OR(P14&gt;1.6,R14&gt;1.6,S14&gt;1.6,T14&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y14" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TP</v>
       </c>
       <c r="AC14" s="22">
@@ -6107,50 +6351,50 @@
         <v>0.62258917938363378</v>
       </c>
       <c r="AH14" s="22">
-        <f>_xlfn.NORM.S.DIST(I15,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.19208021879471934</v>
       </c>
       <c r="AI14" s="22">
-        <f>_xlfn.NORM.S.DIST(H15,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.834401429806923</v>
       </c>
       <c r="AJ14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.9577030623128991E-2</v>
       </c>
       <c r="AL14" t="s">
         <v>20</v>
       </c>
       <c r="AN14" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22112017560707486</v>
       </c>
       <c r="AO14" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39888776351170818</v>
       </c>
       <c r="AP14" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.13018651830336322</v>
       </c>
       <c r="AQ14" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.37289107957647205</v>
       </c>
       <c r="AR14" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.37995576612686893</v>
       </c>
       <c r="AS14" s="22">
-        <f>_xlfn.NORM.S.DIST(I15,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.2731835364306851</v>
       </c>
       <c r="AT14" s="22">
-        <f>_xlfn.NORM.S.DIST(H15,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.24881535487214765</v>
       </c>
       <c r="AU14" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.13364303290643254</v>
       </c>
       <c r="AW14" t="s">
@@ -6162,83 +6406,83 @@
         <v>84</v>
       </c>
       <c r="C15" s="1">
-        <f>STANDARDIZE(mean!C14,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C14,mean!$C$47,mean!$C$48)</f>
         <v>-1.086379685954731</v>
       </c>
       <c r="D15" s="1">
-        <f>STANDARDIZE(mean!D14,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D14,mean!$D$47,mean!$D$48)</f>
         <v>1.6532568776769979E-2</v>
       </c>
       <c r="E15" s="1">
-        <f>STANDARDIZE(mean!E14,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E14,mean!$E$47,mean!$E$48)</f>
         <v>-1.4965617711416903</v>
       </c>
       <c r="F15" s="1">
-        <f>STANDARDIZE(mean!F14,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F14,mean!$F$47,mean!$F$48)</f>
         <v>-0.36750613773578772</v>
       </c>
       <c r="G15" s="1">
-        <f>STANDARDIZE(mean!G14,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G14,mean!$G$47,mean!$G$48)</f>
         <v>0.31228802334353056</v>
       </c>
       <c r="H15" s="1">
-        <f>STANDARDIZE(mean!H14,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H14,mean!$H$47,mean!$H$48)</f>
         <v>0.97170537828367598</v>
       </c>
       <c r="I15" s="1">
-        <f>STANDARDIZE(mean!I14,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I14,mean!$I$47,mean!$I$48)</f>
         <v>-0.87025614834185483</v>
       </c>
       <c r="J15" s="1">
-        <f>STANDARDIZE(mean!J14,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J14,mean!$J$47,mean!$J$48)</f>
         <v>-1.4789485683726562</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f>IF(OR(OR(E15&lt;-1.6,I15&lt;-1.6,J15&lt;-1.6),OR(D15&gt;1.6,F15&gt;1.6,G15&gt;1.6,H15&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>FN</v>
       </c>
       <c r="O15" s="1">
-        <f>STANDARDIZE(mean!C14,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C14,mean!$C$49,mean!$C$48)</f>
         <v>-0.91834330637851369</v>
       </c>
       <c r="P15" s="1">
-        <f>STANDARDIZE(mean!D14,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D14,mean!$D$49,mean!$D$48)</f>
         <v>0.43495878590772352</v>
       </c>
       <c r="Q15" s="1">
-        <f>STANDARDIZE(mean!E14,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E14,mean!$E$49,mean!$E$48)</f>
         <v>-1.1268284383456806</v>
       </c>
       <c r="R15" s="1">
-        <f>STANDARDIZE(mean!F14,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F14,mean!$F$49,mean!$F$48)</f>
         <v>-0.36750613773578772</v>
       </c>
       <c r="S15" s="1">
-        <f>STANDARDIZE(mean!G14,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G14,mean!$G$49,mean!$G$48)</f>
         <v>0.1366260102127945</v>
       </c>
       <c r="T15" s="1">
-        <f>STANDARDIZE(mean!H14,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H14,mean!$H$49,mean!$H$48)</f>
         <v>1.1799994889154224</v>
       </c>
       <c r="U15" s="1">
-        <f>STANDARDIZE(mean!I14,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I14,mean!$I$49,mean!$I$48)</f>
         <v>-0.50662282852156015</v>
       </c>
       <c r="V15" s="1">
-        <f>STANDARDIZE(mean!J14,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J14,mean!$J$49,mean!$J$48)</f>
         <v>-1.1181085430097253</v>
       </c>
       <c r="X15" s="3" t="str">
-        <f>IF(OR(OR(Q15&lt;-1.6,U15&lt;-1.6,V15&lt;-1.6),OR(P15&gt;1.6,R15&gt;1.6,S15&gt;1.6,T15&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y15" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>FN</v>
       </c>
       <c r="AC15" s="22">
@@ -6262,50 +6506,50 @@
         <v>0.85405214970289256</v>
       </c>
       <c r="AH15" s="22">
-        <f>_xlfn.NORM.S.DIST(I16,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.20134726986659598</v>
       </c>
       <c r="AI15" s="22">
-        <f>_xlfn.NORM.S.DIST(H16,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.95695772851105854</v>
       </c>
       <c r="AJ15" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.25286604444987459</v>
       </c>
       <c r="AL15" t="s">
         <v>21</v>
       </c>
       <c r="AN15" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39233706550132069</v>
       </c>
       <c r="AO15" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37787476851471152</v>
       </c>
       <c r="AP15" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.39866072920269374</v>
       </c>
       <c r="AQ15" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.12215328704962715</v>
       </c>
       <c r="AR15" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.22892356587065785</v>
       </c>
       <c r="AS15" s="22">
-        <f>_xlfn.NORM.S.DIST(I16,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.28109257394104353</v>
       </c>
       <c r="AT15" s="22">
-        <f>_xlfn.NORM.S.DIST(H16,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>9.1447202572688985E-2</v>
       </c>
       <c r="AU15" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.31969679182402361</v>
       </c>
       <c r="AW15" t="s">
@@ -6317,83 +6561,83 @@
         <v>84</v>
       </c>
       <c r="C16" s="1">
-        <f>STANDARDIZE(mean!C15,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C15,mean!$C$47,mean!$C$48)</f>
         <v>0.18273157626919315</v>
       </c>
       <c r="D16" s="1">
-        <f>STANDARDIZE(mean!D15,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D15,mean!$D$47,mean!$D$48)</f>
         <v>-0.32940523758905665</v>
       </c>
       <c r="E16" s="1">
-        <f>STANDARDIZE(mean!E15,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E15,mean!$E$47,mean!$E$48)</f>
         <v>3.7576411488678095E-2</v>
       </c>
       <c r="F16" s="1">
-        <f>STANDARDIZE(mean!F15,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F15,mean!$F$47,mean!$F$48)</f>
         <v>1.5385317926465132</v>
       </c>
       <c r="G16" s="1">
-        <f>STANDARDIZE(mean!G15,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G15,mean!$G$47,mean!$G$48)</f>
         <v>1.0539720787844156</v>
       </c>
       <c r="H16" s="1">
-        <f>STANDARDIZE(mean!H15,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H15,mean!$H$47,mean!$H$48)</f>
         <v>1.7164235847250637</v>
       </c>
       <c r="I16" s="1">
-        <f>STANDARDIZE(mean!I15,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I15,mean!$I$47,mean!$I$48)</f>
         <v>-0.83681860169171296</v>
       </c>
       <c r="J16" s="1">
-        <f>STANDARDIZE(mean!J15,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J15,mean!$J$47,mean!$J$48)</f>
         <v>-0.66549789589407138</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f>IF(OR(OR(E16&lt;-1.6,I16&lt;-1.6,J16&lt;-1.6),OR(D16&gt;1.6,F16&gt;1.6,G16&gt;1.6,H16&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TP</v>
       </c>
       <c r="O16" s="1">
-        <f>STANDARDIZE(mean!C15,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C15,mean!$C$49,mean!$C$48)</f>
         <v>0.35076795584541043</v>
       </c>
       <c r="P16" s="1">
-        <f>STANDARDIZE(mean!D15,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D15,mean!$D$49,mean!$D$48)</f>
         <v>8.9020979541896861E-2</v>
       </c>
       <c r="Q16" s="1">
-        <f>STANDARDIZE(mean!E15,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E15,mean!$E$49,mean!$E$48)</f>
         <v>0.4073097442846878</v>
       </c>
       <c r="R16" s="1">
-        <f>STANDARDIZE(mean!F15,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F15,mean!$F$49,mean!$F$48)</f>
         <v>1.5385317926465132</v>
       </c>
       <c r="S16" s="1">
-        <f>STANDARDIZE(mean!G15,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G15,mean!$G$49,mean!$G$48)</f>
         <v>0.87831006565367953</v>
       </c>
       <c r="T16" s="1">
-        <f>STANDARDIZE(mean!H15,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H15,mean!$H$49,mean!$H$48)</f>
         <v>1.9247176953568101</v>
       </c>
       <c r="U16" s="1">
-        <f>STANDARDIZE(mean!I15,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I15,mean!$I$49,mean!$I$48)</f>
         <v>-0.47318528187141834</v>
       </c>
       <c r="V16" s="1">
-        <f>STANDARDIZE(mean!J15,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J15,mean!$J$49,mean!$J$48)</f>
         <v>-0.30465787053114052</v>
       </c>
       <c r="X16" s="3" t="str">
-        <f>IF(OR(OR(Q16&lt;-1.6,U16&lt;-1.6,V16&lt;-1.6),OR(P16&gt;1.6,R16&gt;1.6,S16&gt;1.6,T16&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y16" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TP</v>
       </c>
       <c r="AC16" s="22">
@@ -6417,50 +6661,50 @@
         <v>0.99994435616170663</v>
       </c>
       <c r="AH16" s="22">
-        <f>_xlfn.NORM.S.DIST(I17,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.17434552641858389</v>
       </c>
       <c r="AI16" s="22">
-        <f>_xlfn.NORM.S.DIST(H17,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.72268426006388564</v>
       </c>
       <c r="AJ16" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7979744448061767E-3</v>
       </c>
       <c r="AL16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="AN16" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.36846327788048672</v>
       </c>
       <c r="AO16" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39385577979846054</v>
       </c>
       <c r="AP16" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.22992559117744038</v>
       </c>
       <c r="AQ16" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.10098440781877022</v>
       </c>
       <c r="AR16" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.2795390861729664E-4</v>
       </c>
       <c r="AS16" s="22">
-        <f>_xlfn.NORM.S.DIST(I17,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.25716277849331493</v>
       </c>
       <c r="AT16" s="22">
-        <f>_xlfn.NORM.S.DIST(H17,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.33504812783177101</v>
       </c>
       <c r="AU16" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.130952350370288E-2</v>
       </c>
       <c r="AW16" s="11" t="s">
@@ -6472,83 +6716,83 @@
         <v>84</v>
       </c>
       <c r="C17" s="1">
-        <f>STANDARDIZE(mean!C16,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C16,mean!$C$47,mean!$C$48)</f>
         <v>-0.39868707549642368</v>
       </c>
       <c r="D17" s="1">
-        <f>STANDARDIZE(mean!D16,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D16,mean!$D$47,mean!$D$48)</f>
         <v>0.16019952939751514</v>
       </c>
       <c r="E17" s="1">
-        <f>STANDARDIZE(mean!E16,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E16,mean!$E$47,mean!$E$48)</f>
         <v>-1.049819990109623</v>
       </c>
       <c r="F17" s="1">
-        <f>STANDARDIZE(mean!F16,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F16,mean!$F$47,mean!$F$48)</f>
         <v>1.6576191473831967</v>
       </c>
       <c r="G17" s="1">
-        <f>STANDARDIZE(mean!G16,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G16,mean!$G$47,mean!$G$48)</f>
         <v>3.8645642888761911</v>
       </c>
       <c r="H17" s="1">
-        <f>STANDARDIZE(mean!H16,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H16,mean!$H$47,mean!$H$48)</f>
         <v>0.59083425611889573</v>
       </c>
       <c r="I17" s="1">
-        <f>STANDARDIZE(mean!I16,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I16,mean!$I$47,mean!$I$48)</f>
         <v>-0.93713124164213923</v>
       </c>
       <c r="J17" s="1">
-        <f>STANDARDIZE(mean!J16,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J16,mean!$J$47,mean!$J$48)</f>
         <v>-2.6695211507186829</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f>IF(OR(OR(E17&lt;-1.6,I17&lt;-1.6,J17&lt;-1.6),OR(D17&gt;1.6,F17&gt;1.6,G17&gt;1.6,H17&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TP</v>
       </c>
       <c r="O17" s="1">
-        <f>STANDARDIZE(mean!C16,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C16,mean!$C$49,mean!$C$48)</f>
         <v>-0.23065069592020637</v>
       </c>
       <c r="P17" s="1">
-        <f>STANDARDIZE(mean!D16,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D16,mean!$D$49,mean!$D$48)</f>
         <v>0.57862574652846865</v>
       </c>
       <c r="Q17" s="1">
-        <f>STANDARDIZE(mean!E16,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E16,mean!$E$49,mean!$E$48)</f>
         <v>-0.6800866573136134</v>
       </c>
       <c r="R17" s="1">
-        <f>STANDARDIZE(mean!F16,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F16,mean!$F$49,mean!$F$48)</f>
         <v>1.6576191473831967</v>
       </c>
       <c r="S17" s="1">
-        <f>STANDARDIZE(mean!G16,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G16,mean!$G$49,mean!$G$48)</f>
         <v>3.688902275745455</v>
       </c>
       <c r="T17" s="1">
-        <f>STANDARDIZE(mean!H16,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H16,mean!$H$49,mean!$H$48)</f>
         <v>0.79912836675064214</v>
       </c>
       <c r="U17" s="1">
-        <f>STANDARDIZE(mean!I16,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I16,mean!$I$49,mean!$I$48)</f>
         <v>-0.57349792182184456</v>
       </c>
       <c r="V17" s="1">
-        <f>STANDARDIZE(mean!J16,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J16,mean!$J$49,mean!$J$48)</f>
         <v>-2.308681125355752</v>
       </c>
       <c r="X17" s="3" t="str">
-        <f>IF(OR(OR(Q17&lt;-1.6,U17&lt;-1.6,V17&lt;-1.6),OR(P17&gt;1.6,R17&gt;1.6,S17&gt;1.6,T17&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y17" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TP</v>
       </c>
       <c r="AC17" s="22">
@@ -6572,50 +6816,50 @@
         <v>0.94944667595764842</v>
       </c>
       <c r="AH17" s="22">
-        <f>_xlfn.NORM.S.DIST(I18,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.33349292145709691</v>
       </c>
       <c r="AI17" s="22">
-        <f>_xlfn.NORM.S.DIST(H18,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.44979544823217987</v>
       </c>
       <c r="AJ17" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.30155748431822738</v>
       </c>
       <c r="AL17" t="s">
         <v>23</v>
       </c>
       <c r="AN17" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.347314490137342</v>
       </c>
       <c r="AO17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39499400304704513</v>
       </c>
       <c r="AP17" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31305648019694016</v>
       </c>
       <c r="AQ17" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.39872965748397926</v>
       </c>
       <c r="AR17" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.10404429748145086</v>
       </c>
       <c r="AS17" s="22">
-        <f>_xlfn.NORM.S.DIST(I18,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.36366847861654067</v>
       </c>
       <c r="AT17" s="22">
-        <f>_xlfn.NORM.S.DIST(H18,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.39577912137969867</v>
       </c>
       <c r="AU17" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.34850587413264184</v>
       </c>
       <c r="AW17" t="s">
@@ -6627,83 +6871,83 @@
         <v>84</v>
       </c>
       <c r="C18" s="1">
-        <f>STANDARDIZE(mean!C17,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C17,mean!$C$47,mean!$C$48)</f>
         <v>-0.52647139456579006</v>
       </c>
       <c r="D18" s="1">
-        <f>STANDARDIZE(mean!D17,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D17,mean!$D$47,mean!$D$48)</f>
         <v>-0.14104015847248744</v>
       </c>
       <c r="E18" s="1">
-        <f>STANDARDIZE(mean!E17,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E17,mean!$E$47,mean!$E$48)</f>
         <v>-0.69632337832724067</v>
       </c>
       <c r="F18" s="1">
-        <f>STANDARDIZE(mean!F17,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F17,mean!$F$47,mean!$F$48)</f>
         <v>-3.2652984363284517E-2</v>
       </c>
       <c r="G18" s="1">
-        <f>STANDARDIZE(mean!G17,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G17,mean!$G$47,mean!$G$48)</f>
         <v>1.6395121225535356</v>
       </c>
       <c r="H18" s="1">
-        <f>STANDARDIZE(mean!H17,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H17,mean!$H$47,mean!$H$48)</f>
         <v>-0.12617816317115324</v>
       </c>
       <c r="I18" s="1">
-        <f>STANDARDIZE(mean!I17,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I17,mean!$I$47,mean!$I$48)</f>
         <v>-0.43028842926103877</v>
       </c>
       <c r="J18" s="1">
-        <f>STANDARDIZE(mean!J17,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J17,mean!$J$47,mean!$J$48)</f>
         <v>-0.5199262644742485</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f>IF(OR(OR(E18&lt;-1.6,I18&lt;-1.6,J18&lt;-1.6),OR(D18&gt;1.6,F18&gt;1.6,G18&gt;1.6,H18&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TP</v>
       </c>
       <c r="O18" s="1">
-        <f>STANDARDIZE(mean!C17,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C17,mean!$C$49,mean!$C$48)</f>
         <v>-0.35843501498957275</v>
       </c>
       <c r="P18" s="1">
-        <f>STANDARDIZE(mean!D17,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D17,mean!$D$49,mean!$D$48)</f>
         <v>0.27738605865846611</v>
       </c>
       <c r="Q18" s="1">
-        <f>STANDARDIZE(mean!E17,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E17,mean!$E$49,mean!$E$48)</f>
         <v>-0.32659004553123089</v>
       </c>
       <c r="R18" s="1">
-        <f>STANDARDIZE(mean!F17,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F17,mean!$F$49,mean!$F$48)</f>
         <v>-3.2652984363284517E-2</v>
       </c>
       <c r="S18" s="1">
-        <f>STANDARDIZE(mean!G17,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G17,mean!$G$49,mean!$G$48)</f>
         <v>1.4638501094227996</v>
       </c>
       <c r="T18" s="1">
-        <f>STANDARDIZE(mean!H17,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H17,mean!$H$49,mean!$H$48)</f>
         <v>8.2115947460593156E-2</v>
       </c>
       <c r="U18" s="1">
-        <f>STANDARDIZE(mean!I17,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I17,mean!$I$49,mean!$I$48)</f>
         <v>-6.665510944074414E-2</v>
       </c>
       <c r="V18" s="1">
-        <f>STANDARDIZE(mean!J17,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J17,mean!$J$49,mean!$J$48)</f>
         <v>-0.15908623911131758</v>
       </c>
       <c r="X18" s="3" t="str">
-        <f>IF(OR(OR(Q18&lt;-1.6,U18&lt;-1.6,V18&lt;-1.6),OR(P18&gt;1.6,R18&gt;1.6,S18&gt;1.6,T18&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y18" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>FN</v>
       </c>
       <c r="AC18" s="22">
@@ -6727,50 +6971,50 @@
         <v>0.94944667595764842</v>
       </c>
       <c r="AH18" s="22">
-        <f>_xlfn.NORM.S.DIST(I19,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>5.9053899895706204E-2</v>
       </c>
       <c r="AI18" s="22">
-        <f>_xlfn.NORM.S.DIST(H19,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.8954008850781916</v>
       </c>
       <c r="AJ18" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0325265682794941E-2</v>
       </c>
       <c r="AL18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="AN18" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.20079409435155809</v>
       </c>
       <c r="AO18" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38872532120569792</v>
       </c>
       <c r="AP18" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.2099398831684623E-2</v>
       </c>
       <c r="AQ18" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35967601160843266</v>
       </c>
       <c r="AR18" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.10404429748145086</v>
       </c>
       <c r="AS18" s="22">
-        <f>_xlfn.NORM.S.DIST(I19,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.11764822108702239</v>
       </c>
       <c r="AT18" s="22">
-        <f>_xlfn.NORM.S.DIST(H19,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.1813327328097161</v>
       </c>
       <c r="AU18" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.9085062365835194E-2</v>
       </c>
       <c r="AW18" s="11" t="s">
@@ -6782,83 +7026,83 @@
         <v>84</v>
       </c>
       <c r="C19" s="1">
-        <f>STANDARDIZE(mean!C18,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C18,mean!$C$47,mean!$C$48)</f>
         <v>-1.1717822058660907</v>
       </c>
       <c r="D19" s="1">
-        <f>STANDARDIZE(mean!D18,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D18,mean!$D$47,mean!$D$48)</f>
         <v>-0.22778835232815606</v>
       </c>
       <c r="E19" s="1">
-        <f>STANDARDIZE(mean!E18,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E18,mean!$E$47,mean!$E$48)</f>
         <v>-1.7122782074655851</v>
       </c>
       <c r="F19" s="1">
-        <f>STANDARDIZE(mean!F18,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F18,mean!$F$47,mean!$F$48)</f>
         <v>0.45522101729990427</v>
       </c>
       <c r="G19" s="1">
-        <f>STANDARDIZE(mean!G18,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G18,mean!$G$47,mean!$G$48)</f>
         <v>1.6395121225535356</v>
       </c>
       <c r="H19" s="1">
-        <f>STANDARDIZE(mean!H18,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H18,mean!$H$47,mean!$H$48)</f>
         <v>1.2557731477510097</v>
       </c>
       <c r="I19" s="1">
-        <f>STANDARDIZE(mean!I18,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I18,mean!$I$47,mean!$I$48)</f>
         <v>-1.5627653381750615</v>
       </c>
       <c r="J19" s="1">
-        <f>STANDARDIZE(mean!J18,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J18,mean!$J$47,mean!$J$48)</f>
         <v>-2.0470769336132371</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f>IF(OR(OR(E19&lt;-1.6,I19&lt;-1.6,J19&lt;-1.6),OR(D19&gt;1.6,F19&gt;1.6,G19&gt;1.6,H19&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TP</v>
       </c>
       <c r="O19" s="1">
-        <f>STANDARDIZE(mean!C18,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C18,mean!$C$49,mean!$C$48)</f>
         <v>-1.0037458262898735</v>
       </c>
       <c r="P19" s="1">
-        <f>STANDARDIZE(mean!D18,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D18,mean!$D$49,mean!$D$48)</f>
         <v>0.19063786480279749</v>
       </c>
       <c r="Q19" s="1">
-        <f>STANDARDIZE(mean!E18,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E18,mean!$E$49,mean!$E$48)</f>
         <v>-1.3425448746695754</v>
       </c>
       <c r="R19" s="1">
-        <f>STANDARDIZE(mean!F18,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F18,mean!$F$49,mean!$F$48)</f>
         <v>0.45522101729990427</v>
       </c>
       <c r="S19" s="1">
-        <f>STANDARDIZE(mean!G18,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G18,mean!$G$49,mean!$G$48)</f>
         <v>1.4638501094227996</v>
       </c>
       <c r="T19" s="1">
-        <f>STANDARDIZE(mean!H18,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H18,mean!$H$49,mean!$H$48)</f>
         <v>1.4640672583827561</v>
       </c>
       <c r="U19" s="1">
-        <f>STANDARDIZE(mean!I18,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I18,mean!$I$49,mean!$I$48)</f>
         <v>-1.1991320183547669</v>
       </c>
       <c r="V19" s="1">
-        <f>STANDARDIZE(mean!J18,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J18,mean!$J$49,mean!$J$48)</f>
         <v>-1.6862369082503059</v>
       </c>
       <c r="X19" s="3" t="str">
-        <f>IF(OR(OR(Q19&lt;-1.6,U19&lt;-1.6,V19&lt;-1.6),OR(P19&gt;1.6,R19&gt;1.6,S19&gt;1.6,T19&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y19" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TP</v>
       </c>
       <c r="AC19" s="22">
@@ -6882,50 +7126,50 @@
         <v>0.98696113182316392</v>
       </c>
       <c r="AH19" s="22">
-        <f>_xlfn.NORM.S.DIST(I20,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>3.40680119738394E-2</v>
       </c>
       <c r="AI19" s="22">
-        <f>_xlfn.NORM.S.DIST(H20,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.99618213905365571</v>
       </c>
       <c r="AJ19" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3457300038786256E-3</v>
       </c>
       <c r="AL19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="AN19" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.27349795517147291</v>
       </c>
       <c r="AO19" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.3983230961488361</v>
       </c>
       <c r="AP19" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.12333100371133292</v>
       </c>
       <c r="AQ19" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.19139557958232606</v>
       </c>
       <c r="AR19" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.3561788552344249E-2</v>
       </c>
       <c r="AS19" s="22">
-        <f>_xlfn.NORM.S.DIST(I20,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>7.5575722319138408E-2</v>
       </c>
       <c r="AT19" s="22">
-        <f>_xlfn.NORM.S.DIST(H20,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>1.1362593483393656E-2</v>
       </c>
       <c r="AU19" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.2759038978665108E-2</v>
       </c>
       <c r="AW19" s="11" t="s">
@@ -6937,83 +7181,83 @@
         <v>74</v>
       </c>
       <c r="C20" s="1">
-        <f>STANDARDIZE(mean!C19,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C19,mean!$C$47,mean!$C$48)</f>
         <v>-0.86893336967169199</v>
       </c>
       <c r="D20" s="1">
-        <f>STANDARDIZE(mean!D19,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D19,mean!$D$47,mean!$D$48)</f>
         <v>-5.5736351781898612E-2</v>
       </c>
       <c r="E20" s="1">
-        <f>STANDARDIZE(mean!E19,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E19,mean!$E$47,mean!$E$48)</f>
         <v>-1.5322825573716685</v>
       </c>
       <c r="F20" s="1">
-        <f>STANDARDIZE(mean!F19,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F19,mean!$F$47,mean!$F$48)</f>
         <v>1.2120019490136704</v>
       </c>
       <c r="G20" s="1">
-        <f>STANDARDIZE(mean!G19,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G19,mean!$G$47,mean!$G$48)</f>
         <v>2.2250521663226555</v>
       </c>
       <c r="H20" s="1">
-        <f>STANDARDIZE(mean!H19,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H19,mean!$H$47,mean!$H$48)</f>
         <v>2.6677668784758288</v>
       </c>
       <c r="I20" s="1">
-        <f>STANDARDIZE(mean!I19,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I19,mean!$I$47,mean!$I$48)</f>
         <v>-1.8241061633090665</v>
       </c>
       <c r="J20" s="1">
-        <f>STANDARDIZE(mean!J19,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J19,mean!$J$47,mean!$J$48)</f>
         <v>-2.6239576162159275</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f>IF(OR(OR(E20&lt;-1.6,I20&lt;-1.6,J20&lt;-1.6),OR(D20&gt;1.6,F20&gt;1.6,G20&gt;1.6,H20&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>FP</v>
       </c>
       <c r="O20" s="1">
-        <f>STANDARDIZE(mean!C19,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C19,mean!$C$49,mean!$C$48)</f>
         <v>-0.70089699009547468</v>
       </c>
       <c r="P20" s="1">
-        <f>STANDARDIZE(mean!D19,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D19,mean!$D$49,mean!$D$48)</f>
         <v>0.36268986534905495</v>
       </c>
       <c r="Q20" s="1">
-        <f>STANDARDIZE(mean!E19,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E19,mean!$E$49,mean!$E$48)</f>
         <v>-1.1625492245756588</v>
       </c>
       <c r="R20" s="1">
-        <f>STANDARDIZE(mean!F19,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F19,mean!$F$49,mean!$F$48)</f>
         <v>1.2120019490136704</v>
       </c>
       <c r="S20" s="1">
-        <f>STANDARDIZE(mean!G19,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G19,mean!$G$49,mean!$G$48)</f>
         <v>2.0493901531919194</v>
       </c>
       <c r="T20" s="1">
-        <f>STANDARDIZE(mean!H19,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H19,mean!$H$49,mean!$H$48)</f>
         <v>2.8760609891075752</v>
       </c>
       <c r="U20" s="1">
-        <f>STANDARDIZE(mean!I19,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I19,mean!$I$49,mean!$I$48)</f>
         <v>-1.4604728434887719</v>
       </c>
       <c r="V20" s="1">
-        <f>STANDARDIZE(mean!J19,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J19,mean!$J$49,mean!$J$48)</f>
         <v>-2.2631175908529966</v>
       </c>
       <c r="X20" s="3" t="str">
-        <f>IF(OR(OR(Q20&lt;-1.6,U20&lt;-1.6,V20&lt;-1.6),OR(P20&gt;1.6,R20&gt;1.6,S20&gt;1.6,T20&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y20" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>FP</v>
       </c>
       <c r="AC20" s="22">
@@ -7037,50 +7281,50 @@
         <v>0.99977866150682837</v>
       </c>
       <c r="AH20" s="22">
-        <f>_xlfn.NORM.S.DIST(I21,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>2.44595832149603E-2</v>
       </c>
       <c r="AI20" s="22">
-        <f>_xlfn.NORM.S.DIST(H21,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.99971006413272612</v>
       </c>
       <c r="AJ20" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4852422190939895E-4</v>
       </c>
       <c r="AL20" s="11" t="s">
         <v>27</v>
       </c>
       <c r="AN20" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37878525605152058</v>
       </c>
       <c r="AO20" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37373409789465267</v>
       </c>
       <c r="AP20" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18856150255549786</v>
       </c>
       <c r="AQ20" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8436745366192647E-2</v>
       </c>
       <c r="AR20" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.3309147772231483E-4</v>
       </c>
       <c r="AS20" s="22">
-        <f>_xlfn.NORM.S.DIST(I21,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>5.7383358617301317E-2</v>
       </c>
       <c r="AT20" s="22">
-        <f>_xlfn.NORM.S.DIST(H21,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>1.0715039274226598E-3</v>
       </c>
       <c r="AU20" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.7370469882215462E-4</v>
       </c>
       <c r="AW20" s="11" t="s">
@@ -7092,83 +7336,83 @@
         <v>74</v>
       </c>
       <c r="C21" s="1">
-        <f>STANDARDIZE(mean!C20,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C20,mean!$C$47,mean!$C$48)</f>
         <v>-0.32201648405480393</v>
       </c>
       <c r="D21" s="1">
-        <f>STANDARDIZE(mean!D20,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D20,mean!$D$47,mean!$D$48)</f>
         <v>0.36130920114714055</v>
       </c>
       <c r="E21" s="1">
-        <f>STANDARDIZE(mean!E20,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E20,mean!$E$47,mean!$E$48)</f>
         <v>-1.2242487644274396</v>
       </c>
       <c r="F21" s="1">
-        <f>STANDARDIZE(mean!F20,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F20,mean!$F$47,mean!$F$48)</f>
         <v>2.4797060478235311</v>
       </c>
       <c r="G21" s="1">
-        <f>STANDARDIZE(mean!G20,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G20,mean!$G$47,mean!$G$48)</f>
         <v>3.513240262614719</v>
       </c>
       <c r="H21" s="1">
-        <f>STANDARDIZE(mean!H20,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H20,mean!$H$47,mean!$H$48)</f>
         <v>3.4408584813975018</v>
       </c>
       <c r="I21" s="1">
-        <f>STANDARDIZE(mean!I20,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I20,mean!$I$47,mean!$I$48)</f>
         <v>-1.9692955106057366</v>
       </c>
       <c r="J21" s="1">
-        <f>STANDARDIZE(mean!J20,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J20,mean!$J$47,mean!$J$48)</f>
         <v>-3.6178604790133395</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f>IF(OR(OR(E21&lt;-1.6,I21&lt;-1.6,J21&lt;-1.6),OR(D21&gt;1.6,F21&gt;1.6,G21&gt;1.6,H21&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>FP</v>
       </c>
       <c r="O21" s="1">
-        <f>STANDARDIZE(mean!C20,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C20,mean!$C$49,mean!$C$48)</f>
         <v>-0.15398010447858665</v>
       </c>
       <c r="P21" s="1">
-        <f>STANDARDIZE(mean!D20,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D20,mean!$D$49,mean!$D$48)</f>
         <v>0.77973541827809412</v>
       </c>
       <c r="Q21" s="1">
-        <f>STANDARDIZE(mean!E20,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E20,mean!$E$49,mean!$E$48)</f>
         <v>-0.85451543163142996</v>
       </c>
       <c r="R21" s="1">
-        <f>STANDARDIZE(mean!F20,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F20,mean!$F$49,mean!$F$48)</f>
         <v>2.4797060478235311</v>
       </c>
       <c r="S21" s="1">
-        <f>STANDARDIZE(mean!G20,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G20,mean!$G$49,mean!$G$48)</f>
         <v>3.337578249483983</v>
       </c>
       <c r="T21" s="1">
-        <f>STANDARDIZE(mean!H20,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H20,mean!$H$49,mean!$H$48)</f>
         <v>3.6491525920292482</v>
       </c>
       <c r="U21" s="1">
-        <f>STANDARDIZE(mean!I20,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I20,mean!$I$49,mean!$I$48)</f>
         <v>-1.6056621907854418</v>
       </c>
       <c r="V21" s="1">
-        <f>STANDARDIZE(mean!J20,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J20,mean!$J$49,mean!$J$48)</f>
         <v>-3.2570204536504086</v>
       </c>
       <c r="X21" s="3" t="str">
-        <f>IF(OR(OR(Q21&lt;-1.6,U21&lt;-1.6,V21&lt;-1.6),OR(P21&gt;1.6,R21&gt;1.6,S21&gt;1.6,T21&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y21" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>FP</v>
       </c>
       <c r="AC21" s="22">
@@ -7192,50 +7436,50 @@
         <v>0.45338723167029488</v>
       </c>
       <c r="AH21" s="22">
-        <f>_xlfn.NORM.S.DIST(I22,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.78886842948939184</v>
       </c>
       <c r="AI21" s="22">
-        <f>_xlfn.NORM.S.DIST(H22,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.33922272143580856</v>
       </c>
       <c r="AJ21" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.75569681689185941</v>
       </c>
       <c r="AL21" t="s">
         <v>28</v>
       </c>
       <c r="AN21" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39799363076075323</v>
       </c>
       <c r="AO21" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39632077509228908</v>
       </c>
       <c r="AP21" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.39641546115809612</v>
       </c>
       <c r="AQ21" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.31784122198761022</v>
       </c>
       <c r="AR21" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.39621603400589123</v>
       </c>
       <c r="AS21" s="22">
-        <f>_xlfn.NORM.S.DIST(I22,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.2891115854152978</v>
       </c>
       <c r="AT21" s="22">
-        <f>_xlfn.NORM.S.DIST(H22,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.36608890788429482</v>
       </c>
       <c r="AU21" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.31388285587883552</v>
       </c>
       <c r="AW21" t="s">
@@ -7247,83 +7491,83 @@
         <v>84</v>
       </c>
       <c r="C22" s="1">
-        <f>STANDARDIZE(mean!C21,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C21,mean!$C$47,mean!$C$48)</f>
         <v>-6.9003532297458467E-2</v>
       </c>
       <c r="D22" s="1">
-        <f>STANDARDIZE(mean!D21,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D21,mean!$D$47,mean!$D$48)</f>
         <v>-0.11482877962383539</v>
       </c>
       <c r="E22" s="1">
-        <f>STANDARDIZE(mean!E21,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E21,mean!$E$47,mean!$E$48)</f>
         <v>0.11272923446603576</v>
       </c>
       <c r="F22" s="1">
-        <f>STANDARDIZE(mean!F21,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F21,mean!$F$47,mean!$F$48)</f>
         <v>-0.67418808891251725</v>
       </c>
       <c r="G22" s="1">
-        <f>STANDARDIZE(mean!G21,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G21,mean!$G$47,mean!$G$48)</f>
         <v>-0.11710800875382392</v>
       </c>
       <c r="H22" s="1">
-        <f>STANDARDIZE(mean!H21,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H21,mean!$H$47,mean!$H$48)</f>
         <v>-0.41458539327664917</v>
       </c>
       <c r="I22" s="1">
-        <f>STANDARDIZE(mean!I21,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I21,mean!$I$47,mean!$I$48)</f>
         <v>0.80250111960341031</v>
       </c>
       <c r="J22" s="1">
-        <f>STANDARDIZE(mean!J21,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J21,mean!$J$47,mean!$J$48)</f>
         <v>0.69252711127705691</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f>IF(OR(OR(E22&lt;-1.6,I22&lt;-1.6,J22&lt;-1.6),OR(D22&gt;1.6,F22&gt;1.6,G22&gt;1.6,H22&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>FN</v>
       </c>
       <c r="O22" s="1">
-        <f>STANDARDIZE(mean!C21,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C21,mean!$C$49,mean!$C$48)</f>
         <v>9.9032847278758843E-2</v>
       </c>
       <c r="P22" s="1">
-        <f>STANDARDIZE(mean!D21,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D21,mean!$D$49,mean!$D$48)</f>
         <v>0.30359743750711815</v>
       </c>
       <c r="Q22" s="1">
-        <f>STANDARDIZE(mean!E21,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E21,mean!$E$49,mean!$E$48)</f>
         <v>0.48246256726204551</v>
       </c>
       <c r="R22" s="1">
-        <f>STANDARDIZE(mean!F21,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F21,mean!$F$49,mean!$F$48)</f>
         <v>-0.67418808891251725</v>
       </c>
       <c r="S22" s="1">
-        <f>STANDARDIZE(mean!G21,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G21,mean!$G$49,mean!$G$48)</f>
         <v>-0.29277002188455997</v>
       </c>
       <c r="T22" s="1">
-        <f>STANDARDIZE(mean!H21,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H21,mean!$H$49,mean!$H$48)</f>
         <v>-0.20629128264490279</v>
       </c>
       <c r="U22" s="1">
-        <f>STANDARDIZE(mean!I21,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I21,mean!$I$49,mean!$I$48)</f>
         <v>1.166134439423705</v>
       </c>
       <c r="V22" s="1">
-        <f>STANDARDIZE(mean!J21,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J21,mean!$J$49,mean!$J$48)</f>
         <v>1.0533671366399879</v>
       </c>
       <c r="X22" s="3" t="str">
-        <f>IF(OR(OR(Q22&lt;-1.6,U22&lt;-1.6,V22&lt;-1.6),OR(P22&gt;1.6,R22&gt;1.6,S22&gt;1.6,T22&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y22" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>FN</v>
       </c>
       <c r="AC22" s="22">
@@ -7347,50 +7591,50 @@
         <v>0.9011597526727354</v>
       </c>
       <c r="AH22" s="22">
-        <f>_xlfn.NORM.S.DIST(I23,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.35683446867137886</v>
       </c>
       <c r="AI22" s="22">
-        <f>_xlfn.NORM.S.DIST(H23,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.36674725560117616</v>
       </c>
       <c r="AJ22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.3239790472787315</v>
       </c>
       <c r="AL22" t="s">
         <v>29</v>
       </c>
       <c r="AN22" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.30399147462048348</v>
       </c>
       <c r="AO22" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39532302038092904</v>
       </c>
       <c r="AP22" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.26219586709533832</v>
       </c>
       <c r="AQ22" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.36862306568302167</v>
       </c>
       <c r="AR22" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.1740082061811688</v>
       </c>
       <c r="AS22" s="22">
-        <f>_xlfn.NORM.S.DIST(I23,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.37296955861359166</v>
       </c>
       <c r="AT22" s="22">
-        <f>_xlfn.NORM.S.DIST(H23,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.37647557548050176</v>
       </c>
       <c r="AU22" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.35944984634637445</v>
       </c>
       <c r="AW22" t="s">
@@ -7402,83 +7646,83 @@
         <v>84</v>
       </c>
       <c r="C23" s="1">
-        <f>STANDARDIZE(mean!C22,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C22,mean!$C$47,mean!$C$48)</f>
         <v>-0.737315521030245</v>
       </c>
       <c r="D23" s="1">
-        <f>STANDARDIZE(mean!D22,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D22,mean!$D$47,mean!$D$48)</f>
         <v>-0.13500771795950761</v>
       </c>
       <c r="E23" s="1">
-        <f>STANDARDIZE(mean!E22,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E22,mean!$E$47,mean!$E$48)</f>
         <v>-0.91621497148321063</v>
       </c>
       <c r="F23" s="1">
-        <f>STANDARDIZE(mean!F22,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F22,mean!$F$47,mean!$F$48)</f>
         <v>-0.39759810371763799</v>
       </c>
       <c r="G23" s="1">
-        <f>STANDARDIZE(mean!G22,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G22,mean!$G$47,mean!$G$48)</f>
         <v>1.2881880962920635</v>
       </c>
       <c r="H23" s="1">
-        <f>STANDARDIZE(mean!H22,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H22,mean!$H$47,mean!$H$48)</f>
         <v>-0.34048075776343101</v>
       </c>
       <c r="I23" s="1">
-        <f>STANDARDIZE(mean!I22,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I22,mean!$I$47,mean!$I$48)</f>
         <v>-0.36693307771340117</v>
       </c>
       <c r="J23" s="1">
-        <f>STANDARDIZE(mean!J22,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J22,mean!$J$47,mean!$J$48)</f>
         <v>-0.45660067414838296</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f>IF(OR(OR(E23&lt;-1.6,I23&lt;-1.6,J23&lt;-1.6),OR(D23&gt;1.6,F23&gt;1.6,G23&gt;1.6,H23&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>FN</v>
       </c>
       <c r="O23" s="1">
-        <f>STANDARDIZE(mean!C22,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C22,mean!$C$49,mean!$C$48)</f>
         <v>-0.56927914145402769</v>
       </c>
       <c r="P23" s="1">
-        <f>STANDARDIZE(mean!D22,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D22,mean!$D$49,mean!$D$48)</f>
         <v>0.2834184991714459</v>
       </c>
       <c r="Q23" s="1">
-        <f>STANDARDIZE(mean!E22,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E22,mean!$E$49,mean!$E$48)</f>
         <v>-0.54648163868720101</v>
       </c>
       <c r="R23" s="1">
-        <f>STANDARDIZE(mean!F22,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F22,mean!$F$49,mean!$F$48)</f>
         <v>-0.39759810371763799</v>
       </c>
       <c r="S23" s="1">
-        <f>STANDARDIZE(mean!G22,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G22,mean!$G$49,mean!$G$48)</f>
         <v>1.1125260831613273</v>
       </c>
       <c r="T23" s="1">
-        <f>STANDARDIZE(mean!H22,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H22,mean!$H$49,mean!$H$48)</f>
         <v>-0.1321866471316846</v>
       </c>
       <c r="U23" s="1">
-        <f>STANDARDIZE(mean!I22,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I22,mean!$I$49,mean!$I$48)</f>
         <v>-3.2997578931065271E-3</v>
       </c>
       <c r="V23" s="1">
-        <f>STANDARDIZE(mean!J22,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J22,mean!$J$49,mean!$J$48)</f>
         <v>-9.5760648785452041E-2</v>
       </c>
       <c r="X23" s="3" t="str">
-        <f>IF(OR(OR(Q23&lt;-1.6,U23&lt;-1.6,V23&lt;-1.6),OR(P23&gt;1.6,R23&gt;1.6,S23&gt;1.6,T23&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y23" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>FN</v>
       </c>
       <c r="AC23" s="22">
@@ -7502,50 +7746,50 @@
         <v>0.96050871036810848</v>
       </c>
       <c r="AH23" s="22">
-        <f>_xlfn.NORM.S.DIST(I24,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.11056097286630645</v>
       </c>
       <c r="AI23" s="22">
-        <f>_xlfn.NORM.S.DIST(H24,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.96395422507189454</v>
       </c>
       <c r="AJ23" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16416275195876803</v>
       </c>
       <c r="AL23" t="s">
         <v>30</v>
       </c>
       <c r="AN23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37369081351407157</v>
       </c>
       <c r="AO23" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38579069609876154</v>
       </c>
       <c r="AP23" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.3935084948184121</v>
       </c>
       <c r="AQ23" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.8315066052467106E-2</v>
       </c>
       <c r="AR23" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.528167512908949E-2</v>
       </c>
       <c r="AS23" s="22">
-        <f>_xlfn.NORM.S.DIST(I24,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.18872278023808978</v>
       </c>
       <c r="AT23" s="22">
-        <f>_xlfn.NORM.S.DIST(H24,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>7.9157894421541961E-2</v>
       </c>
       <c r="AU23" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.2474160120160431</v>
       </c>
       <c r="AW23" t="s">
@@ -7557,83 +7801,83 @@
         <v>74</v>
       </c>
       <c r="C24" s="1">
-        <f>STANDARDIZE(mean!C23,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C23,mean!$C$47,mean!$C$48)</f>
         <v>0.36162962296630619</v>
       </c>
       <c r="D24" s="1">
-        <f>STANDARDIZE(mean!D23,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D23,mean!$D$47,mean!$D$48)</f>
         <v>-0.25892764032825638</v>
       </c>
       <c r="E24" s="1">
-        <f>STANDARDIZE(mean!E23,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E23,mean!$E$47,mean!$E$48)</f>
         <v>0.1656145543389905</v>
       </c>
       <c r="F24" s="1">
-        <f>STANDARDIZE(mean!F23,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F23,mean!$F$47,mean!$F$48)</f>
         <v>1.9610998255831338</v>
       </c>
       <c r="G24" s="1">
-        <f>STANDARDIZE(mean!G23,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G23,mean!$G$47,mean!$G$48)</f>
         <v>1.7566201313073597</v>
       </c>
       <c r="H24" s="1">
-        <f>STANDARDIZE(mean!H23,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H23,mean!$H$47,mean!$H$48)</f>
         <v>1.7985395321856563</v>
       </c>
       <c r="I24" s="1">
-        <f>STANDARDIZE(mean!I23,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I23,mean!$I$47,mean!$I$48)</f>
         <v>-1.2235502267637517</v>
       </c>
       <c r="J24" s="1">
-        <f>STANDARDIZE(mean!J23,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J23,mean!$J$47,mean!$J$48)</f>
         <v>-0.97749226774345388</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f>IF(OR(OR(E24&lt;-1.6,I24&lt;-1.6,J24&lt;-1.6),OR(D24&gt;1.6,F24&gt;1.6,G24&gt;1.6,H24&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>FP</v>
       </c>
       <c r="O24" s="1">
-        <f>STANDARDIZE(mean!C23,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C23,mean!$C$49,mean!$C$48)</f>
         <v>0.5296660025425235</v>
       </c>
       <c r="P24" s="1">
-        <f>STANDARDIZE(mean!D23,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D23,mean!$D$49,mean!$D$48)</f>
         <v>0.15949857680269713</v>
       </c>
       <c r="Q24" s="1">
-        <f>STANDARDIZE(mean!E23,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E23,mean!$E$49,mean!$E$48)</f>
         <v>0.53534788713500026</v>
       </c>
       <c r="R24" s="1">
-        <f>STANDARDIZE(mean!F23,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F23,mean!$F$49,mean!$F$48)</f>
         <v>1.9610998255831338</v>
       </c>
       <c r="S24" s="1">
-        <f>STANDARDIZE(mean!G23,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G23,mean!$G$49,mean!$G$48)</f>
         <v>1.5809581181766237</v>
       </c>
       <c r="T24" s="1">
-        <f>STANDARDIZE(mean!H23,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H23,mean!$H$49,mean!$H$48)</f>
         <v>2.0068336428174027</v>
       </c>
       <c r="U24" s="1">
-        <f>STANDARDIZE(mean!I23,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I23,mean!$I$49,mean!$I$48)</f>
         <v>-0.85991690694345702</v>
       </c>
       <c r="V24" s="1">
-        <f>STANDARDIZE(mean!J23,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J23,mean!$J$49,mean!$J$48)</f>
         <v>-0.61665224238052296</v>
       </c>
       <c r="X24" s="3" t="str">
-        <f>IF(OR(OR(Q24&lt;-1.6,U24&lt;-1.6,V24&lt;-1.6),OR(P24&gt;1.6,R24&gt;1.6,S24&gt;1.6,T24&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y24" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>FP</v>
       </c>
       <c r="AC24" s="22">
@@ -7657,50 +7901,50 @@
         <v>0.96951604735065777</v>
       </c>
       <c r="AH24" s="22">
-        <f>_xlfn.NORM.S.DIST(I25,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>8.1885849017312481E-2</v>
       </c>
       <c r="AI24" s="22">
-        <f>_xlfn.NORM.S.DIST(H25,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.88871490688010724</v>
       </c>
       <c r="AJ24" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10612574664125871</v>
       </c>
       <c r="AL24" t="s">
         <v>31</v>
       </c>
       <c r="AN24" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37403512114492221</v>
       </c>
       <c r="AO24" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.3801923527616462</v>
       </c>
       <c r="AP24" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31123063833302417</v>
       </c>
       <c r="AQ24" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.16703297020013061</v>
       </c>
       <c r="AR24" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.895045301054388E-2</v>
       </c>
       <c r="AS24" s="22">
-        <f>_xlfn.NORM.S.DIST(I25,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.15130408825164543</v>
       </c>
       <c r="AT24" s="22">
-        <f>_xlfn.NORM.S.DIST(H25,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.18960739069842347</v>
       </c>
       <c r="AU24" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.18324343209992883</v>
       </c>
       <c r="AW24" t="s">
@@ -7712,83 +7956,83 @@
         <v>84</v>
       </c>
       <c r="C25" s="1">
-        <f>STANDARDIZE(mean!C24,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C24,mean!$C$47,mean!$C$48)</f>
         <v>-0.35907393658491993</v>
       </c>
       <c r="D25" s="1">
-        <f>STANDARDIZE(mean!D24,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D24,mean!$D$47,mean!$D$48)</f>
         <v>-0.31028834863947252</v>
       </c>
       <c r="E25" s="1">
-        <f>STANDARDIZE(mean!E24,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E24,mean!$E$47,mean!$E$48)</f>
         <v>-0.70467369199139096</v>
       </c>
       <c r="F25" s="1">
-        <f>STANDARDIZE(mean!F24,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F24,mean!$F$47,mean!$F$48)</f>
         <v>1.319564721033901</v>
       </c>
       <c r="G25" s="1">
-        <f>STANDARDIZE(mean!G24,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G24,mean!$G$47,mean!$G$48)</f>
         <v>1.8737281400611834</v>
       </c>
       <c r="H25" s="1">
-        <f>STANDARDIZE(mean!H24,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H24,mean!$H$47,mean!$H$48)</f>
         <v>1.2197222439878228</v>
       </c>
       <c r="I25" s="1">
-        <f>STANDARDIZE(mean!I24,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I24,mean!$I$47,mean!$I$48)</f>
         <v>-1.3924978308907854</v>
       </c>
       <c r="J25" s="1">
-        <f>STANDARDIZE(mean!J24,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J24,mean!$J$47,mean!$J$48)</f>
         <v>-1.2473982899250333</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f>IF(OR(OR(E25&lt;-1.6,I25&lt;-1.6,J25&lt;-1.6),OR(D25&gt;1.6,F25&gt;1.6,G25&gt;1.6,H25&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M25" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TP</v>
       </c>
       <c r="O25" s="1">
-        <f>STANDARDIZE(mean!C24,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C24,mean!$C$49,mean!$C$48)</f>
         <v>-0.19103755700870262</v>
       </c>
       <c r="P25" s="1">
-        <f>STANDARDIZE(mean!D24,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D24,mean!$D$49,mean!$D$48)</f>
         <v>0.10813786849148099</v>
       </c>
       <c r="Q25" s="1">
-        <f>STANDARDIZE(mean!E24,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E24,mean!$E$49,mean!$E$48)</f>
         <v>-0.33494035919538123</v>
       </c>
       <c r="R25" s="1">
-        <f>STANDARDIZE(mean!F24,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F24,mean!$F$49,mean!$F$48)</f>
         <v>1.319564721033901</v>
       </c>
       <c r="S25" s="1">
-        <f>STANDARDIZE(mean!G24,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G24,mean!$G$49,mean!$G$48)</f>
         <v>1.6980661269304473</v>
       </c>
       <c r="T25" s="1">
-        <f>STANDARDIZE(mean!H24,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H24,mean!$H$49,mean!$H$48)</f>
         <v>1.428016354619569</v>
       </c>
       <c r="U25" s="1">
-        <f>STANDARDIZE(mean!I24,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I24,mean!$I$49,mean!$I$48)</f>
         <v>-1.0288645110704908</v>
       </c>
       <c r="V25" s="1">
-        <f>STANDARDIZE(mean!J24,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J24,mean!$J$49,mean!$J$48)</f>
         <v>-0.8865582645621024</v>
       </c>
       <c r="X25" s="3" t="str">
-        <f>IF(OR(OR(Q25&lt;-1.6,U25&lt;-1.6,V25&lt;-1.6),OR(P25&gt;1.6,R25&gt;1.6,S25&gt;1.6,T25&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y25" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TP</v>
       </c>
       <c r="AC25" s="22">
@@ -7812,50 +8056,50 @@
         <v>0.68026216820753871</v>
       </c>
       <c r="AH25" s="22">
-        <f>_xlfn.NORM.S.DIST(I26,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.25337354554493896</v>
       </c>
       <c r="AI25" s="22">
-        <f>_xlfn.NORM.S.DIST(H26,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.84457282153314228</v>
       </c>
       <c r="AJ25" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18501834994039074</v>
       </c>
       <c r="AL25" t="s">
         <v>32</v>
       </c>
       <c r="AN25" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.30255660316624222</v>
       </c>
       <c r="AO25" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39886545026474807</v>
       </c>
       <c r="AP25" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.23508117555922181</v>
       </c>
       <c r="AQ25" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.39262785247150578</v>
       </c>
       <c r="AR25" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.35748823770316207</v>
       </c>
       <c r="AS25" s="22">
-        <f>_xlfn.NORM.S.DIST(I26,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.32003413006158882</v>
       </c>
       <c r="AT25" s="22">
-        <f>_xlfn.NORM.S.DIST(H26,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.2387210198278287</v>
       </c>
       <c r="AU25" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.26694592851586901</v>
       </c>
       <c r="AW25" t="s">
@@ -7867,83 +8111,83 @@
         <v>74</v>
       </c>
       <c r="C26" s="1">
-        <f>STANDARDIZE(mean!C25,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C25,mean!$C$47,mean!$C$48)</f>
         <v>-0.74370473698371298</v>
       </c>
       <c r="D26" s="1">
-        <f>STANDARDIZE(mean!D25,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D25,mean!$D$47,mean!$D$48)</f>
         <v>-1.9626672654906401E-2</v>
       </c>
       <c r="E26" s="1">
-        <f>STANDARDIZE(mean!E25,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E25,mean!$E$47,mean!$E$48)</f>
         <v>-1.0284802996345714</v>
       </c>
       <c r="F26" s="1">
-        <f>STANDARDIZE(mean!F25,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F25,mean!$F$47,mean!$F$48)</f>
         <v>-0.17863103210502573</v>
       </c>
       <c r="G26" s="1">
-        <f>STANDARDIZE(mean!G25,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G25,mean!$G$47,mean!$G$48)</f>
         <v>0.46843203501529601</v>
       </c>
       <c r="H26" s="1">
-        <f>STANDARDIZE(mean!H25,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H25,mean!$H$47,mean!$H$48)</f>
         <v>1.0134309613429193</v>
       </c>
       <c r="I26" s="1">
-        <f>STANDARDIZE(mean!I25,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I25,mean!$I$47,mean!$I$48)</f>
         <v>-0.66391128809295175</v>
       </c>
       <c r="J26" s="1">
-        <f>STANDARDIZE(mean!J25,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J25,mean!$J$47,mean!$J$48)</f>
         <v>-0.89640462159447798</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f>IF(OR(OR(E26&lt;-1.6,I26&lt;-1.6,J26&lt;-1.6),OR(D26&gt;1.6,F26&gt;1.6,G26&gt;1.6,H26&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TN</v>
       </c>
       <c r="O26" s="1">
-        <f>STANDARDIZE(mean!C25,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C25,mean!$C$49,mean!$C$48)</f>
         <v>-0.57566835740749567</v>
       </c>
       <c r="P26" s="1">
-        <f>STANDARDIZE(mean!D25,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D25,mean!$D$49,mean!$D$48)</f>
         <v>0.39879954447604715</v>
       </c>
       <c r="Q26" s="1">
-        <f>STANDARDIZE(mean!E25,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E25,mean!$E$49,mean!$E$48)</f>
         <v>-0.65874696683856182</v>
       </c>
       <c r="R26" s="1">
-        <f>STANDARDIZE(mean!F25,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F25,mean!$F$49,mean!$F$48)</f>
         <v>-0.17863103210502573</v>
       </c>
       <c r="S26" s="1">
-        <f>STANDARDIZE(mean!G25,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G25,mean!$G$49,mean!$G$48)</f>
         <v>0.29277002188455997</v>
       </c>
       <c r="T26" s="1">
-        <f>STANDARDIZE(mean!H25,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H25,mean!$H$49,mean!$H$48)</f>
         <v>1.2217250719746657</v>
       </c>
       <c r="U26" s="1">
-        <f>STANDARDIZE(mean!I25,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I25,mean!$I$49,mean!$I$48)</f>
         <v>-0.30027796827265707</v>
       </c>
       <c r="V26" s="1">
-        <f>STANDARDIZE(mean!J25,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J25,mean!$J$49,mean!$J$48)</f>
         <v>-0.53556459623154717</v>
       </c>
       <c r="X26" s="3" t="str">
-        <f>IF(OR(OR(Q26&lt;-1.6,U26&lt;-1.6,V26&lt;-1.6),OR(P26&gt;1.6,R26&gt;1.6,S26&gt;1.6,T26&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y26" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TN</v>
       </c>
       <c r="AC26" s="22">
@@ -7967,50 +8211,50 @@
         <v>0.92003337695277054</v>
       </c>
       <c r="AH26" s="22">
-        <f>_xlfn.NORM.S.DIST(I27,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.50842441660324034</v>
       </c>
       <c r="AI26" s="22">
-        <f>_xlfn.NORM.S.DIST(H27,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.36599349731854208</v>
       </c>
       <c r="AJ26" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.64103480503959043</v>
       </c>
       <c r="AL26" t="s">
         <v>33</v>
       </c>
       <c r="AN26" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.36636796933729304</v>
       </c>
       <c r="AO26" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38736814709968742</v>
       </c>
       <c r="AP26" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.33455217170324136</v>
       </c>
       <c r="AQ26" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35777024914204453</v>
       </c>
       <c r="AR26" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14861932550743104</v>
       </c>
       <c r="AS26" s="22">
-        <f>_xlfn.NORM.S.DIST(I27,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.39885332839489374</v>
       </c>
       <c r="AT26" s="22">
-        <f>_xlfn.NORM.S.DIST(H27,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.37621818055120931</v>
       </c>
       <c r="AU26" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.37374531052015081</v>
       </c>
       <c r="AW26" t="s">
@@ -8022,83 +8266,83 @@
         <v>74</v>
       </c>
       <c r="C27" s="1">
-        <f>STANDARDIZE(mean!C26,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C26,mean!$C$47,mean!$C$48)</f>
         <v>0.41274335059405332</v>
       </c>
       <c r="D27" s="1">
-        <f>STANDARDIZE(mean!D26,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D26,mean!$D$47,mean!$D$48)</f>
         <v>-0.24265704373338817</v>
       </c>
       <c r="E27" s="1">
-        <f>STANDARDIZE(mean!E26,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E26,mean!$E$47,mean!$E$48)</f>
         <v>0.59333617646938075</v>
       </c>
       <c r="F27" s="1">
-        <f>STANDARDIZE(mean!F26,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F26,mean!$F$47,mean!$F$48)</f>
         <v>0.46674560001635801</v>
       </c>
       <c r="G27" s="1">
-        <f>STANDARDIZE(mean!G26,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G26,mean!$G$47,mean!$G$48)</f>
         <v>1.4052961050458876</v>
       </c>
       <c r="H27" s="1">
-        <f>STANDARDIZE(mean!H26,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H26,mean!$H$47,mean!$H$48)</f>
         <v>-0.34248358575027582</v>
       </c>
       <c r="I27" s="1">
-        <f>STANDARDIZE(mean!I26,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I26,mean!$I$47,mean!$I$48)</f>
         <v>2.1118450515880297E-2</v>
       </c>
       <c r="J27" s="1">
-        <f>STANDARDIZE(mean!J26,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J26,mean!$J$47,mean!$J$48)</f>
         <v>0.36122615701125294</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f>IF(OR(OR(E27&lt;-1.6,I27&lt;-1.6,J27&lt;-1.6),OR(D27&gt;1.6,F27&gt;1.6,G27&gt;1.6,H27&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TN</v>
       </c>
       <c r="O27" s="1">
-        <f>STANDARDIZE(mean!C26,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C26,mean!$C$49,mean!$C$48)</f>
         <v>0.58077973017027062</v>
       </c>
       <c r="P27" s="1">
-        <f>STANDARDIZE(mean!D26,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D26,mean!$D$49,mean!$D$48)</f>
         <v>0.17576917339756537</v>
       </c>
       <c r="Q27" s="1">
-        <f>STANDARDIZE(mean!E26,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E26,mean!$E$49,mean!$E$48)</f>
         <v>0.96306950926539048</v>
       </c>
       <c r="R27" s="1">
-        <f>STANDARDIZE(mean!F26,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F26,mean!$F$49,mean!$F$48)</f>
         <v>0.46674560001635801</v>
       </c>
       <c r="S27" s="1">
-        <f>STANDARDIZE(mean!G26,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G26,mean!$G$49,mean!$G$48)</f>
         <v>1.2296340919151516</v>
       </c>
       <c r="T27" s="1">
-        <f>STANDARDIZE(mean!H26,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H26,mean!$H$49,mean!$H$48)</f>
         <v>-0.13418947511852944</v>
       </c>
       <c r="U27" s="1">
-        <f>STANDARDIZE(mean!I26,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I26,mean!$I$49,mean!$I$48)</f>
         <v>0.38475177033617497</v>
       </c>
       <c r="V27" s="1">
-        <f>STANDARDIZE(mean!J26,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J26,mean!$J$49,mean!$J$48)</f>
         <v>0.72206618237418385</v>
       </c>
       <c r="X27" s="3" t="str">
-        <f>IF(OR(OR(Q27&lt;-1.6,U27&lt;-1.6,V27&lt;-1.6),OR(P27&gt;1.6,R27&gt;1.6,S27&gt;1.6,T27&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y27" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TN</v>
       </c>
       <c r="AC27" s="22">
@@ -8122,50 +8366,50 @@
         <v>0.27909232471132872</v>
       </c>
       <c r="AH27" s="22">
-        <f>_xlfn.NORM.S.DIST(I28,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>0.99999999999999822</v>
       </c>
       <c r="AI27" s="22">
-        <f>_xlfn.NORM.S.DIST(H28,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.27865941327409449</v>
       </c>
       <c r="AJ27" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.87895641599564822</v>
       </c>
       <c r="AL27" t="s">
         <v>34</v>
       </c>
       <c r="AN27" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.35846354648924006</v>
       </c>
       <c r="AO27" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37492017186837073</v>
       </c>
       <c r="AP27" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.38754512002439578</v>
       </c>
       <c r="AQ27" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.2076301964617559</v>
       </c>
       <c r="AR27" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.33609308972659285</v>
       </c>
       <c r="AS27" s="22">
-        <f>_xlfn.NORM.S.DIST(I28,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>1.4256183509144002E-14</v>
       </c>
       <c r="AT27" s="22">
-        <f>_xlfn.NORM.S.DIST(H28,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.33583932386440252</v>
       </c>
       <c r="AU27" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.20126396463215609</v>
       </c>
       <c r="AW27" s="11" t="s">
@@ -8177,83 +8421,83 @@
         <v>74</v>
       </c>
       <c r="C28" s="1">
-        <f>STANDARDIZE(mean!C27,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C27,mean!$C$47,mean!$C$48)</f>
         <v>-0.46257923503110709</v>
       </c>
       <c r="D28" s="1">
-        <f>STANDARDIZE(mean!D27,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D27,mean!$D$47,mean!$D$48)</f>
         <v>-0.35243046827944469</v>
       </c>
       <c r="E28" s="1">
-        <f>STANDARDIZE(mean!E27,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E27,mean!$E$47,mean!$E$48)</f>
         <v>-0.24076737731634743</v>
       </c>
       <c r="F28" s="1">
-        <f>STANDARDIZE(mean!F27,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F27,mean!$F$47,mean!$F$48)</f>
         <v>-1.1428544527149505</v>
       </c>
       <c r="G28" s="1">
-        <f>STANDARDIZE(mean!G27,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G27,mean!$G$47,mean!$G$48)</f>
         <v>-0.58554004376911961</v>
       </c>
       <c r="H28" s="1">
-        <f>STANDARDIZE(mean!H27,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H27,mean!$H$47,mean!$H$48)</f>
         <v>-0.58682860014520855</v>
       </c>
       <c r="I28" s="1">
-        <f>STANDARDIZE(mean!I27,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I27,mean!$I$47,mean!$I$48)</f>
         <v>7.8692626234794965</v>
       </c>
       <c r="J28" s="1">
-        <f>STANDARDIZE(mean!J27,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J27,mean!$J$47,mean!$J$48)</f>
         <v>1.1697858286110137</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f>IF(OR(OR(E28&lt;-1.6,I28&lt;-1.6,J28&lt;-1.6),OR(D28&gt;1.6,F28&gt;1.6,G28&gt;1.6,H28&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>TN</v>
       </c>
       <c r="O28" s="1">
-        <f>STANDARDIZE(mean!C27,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C27,mean!$C$49,mean!$C$48)</f>
         <v>-0.29454285545488978</v>
       </c>
       <c r="P28" s="1">
-        <f>STANDARDIZE(mean!D27,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D27,mean!$D$49,mean!$D$48)</f>
         <v>6.5995748851508843E-2</v>
       </c>
       <c r="Q28" s="1">
-        <f>STANDARDIZE(mean!E27,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E27,mean!$E$49,mean!$E$48)</f>
         <v>0.12896595547966228</v>
       </c>
       <c r="R28" s="1">
-        <f>STANDARDIZE(mean!F27,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F27,mean!$F$49,mean!$F$48)</f>
         <v>-1.1428544527149505</v>
       </c>
       <c r="S28" s="1">
-        <f>STANDARDIZE(mean!G27,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G27,mean!$G$49,mean!$G$48)</f>
         <v>-0.76120205689985565</v>
       </c>
       <c r="T28" s="1">
-        <f>STANDARDIZE(mean!H27,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H27,mean!$H$49,mean!$H$48)</f>
         <v>-0.37853448951346219</v>
       </c>
       <c r="U28" s="1">
-        <f>STANDARDIZE(mean!I27,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I27,mean!$I$49,mean!$I$48)</f>
         <v>8.2328959432997895</v>
       </c>
       <c r="V28" s="1">
-        <f>STANDARDIZE(mean!J27,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J27,mean!$J$49,mean!$J$48)</f>
         <v>1.5306258539739446</v>
       </c>
       <c r="X28" s="3" t="str">
-        <f>IF(OR(OR(Q28&lt;-1.6,U28&lt;-1.6,V28&lt;-1.6),OR(P28&gt;1.6,R28&gt;1.6,S28&gt;1.6,T28&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
       <c r="Y28" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>TN</v>
       </c>
       <c r="AC28" s="22">
@@ -8277,50 +8521,50 @@
         <v>0.60165670321163112</v>
       </c>
       <c r="AH28" s="22">
-        <f>_xlfn.NORM.S.DIST(I29,TRUE)</f>
+        <f t="shared" si="5"/>
         <v>7.9476643365541305E-2</v>
       </c>
       <c r="AI28" s="22">
-        <f>_xlfn.NORM.S.DIST(H29,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>0.90749260220219763</v>
       </c>
       <c r="AJ28" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.3333831663833079E-3</v>
       </c>
       <c r="AL28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="AN28" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.3767941377202542E-2</v>
       </c>
       <c r="AO28" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39893999945875475</v>
       </c>
       <c r="AP28" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5629323221062183E-2</v>
       </c>
       <c r="AQ28" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.24904536398459387</v>
       </c>
       <c r="AR28" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.38591925913084013</v>
       </c>
       <c r="AS28" s="22">
-        <f>_xlfn.NORM.S.DIST(I29,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.14792995001673809</v>
       </c>
       <c r="AT28" s="22">
-        <f>_xlfn.NORM.S.DIST(H29,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.16573320810201778</v>
       </c>
       <c r="AU28" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.2720153628183401E-2</v>
       </c>
       <c r="AW28" s="11" t="s">
@@ -8332,83 +8576,83 @@
         <v>74</v>
       </c>
       <c r="C29" s="1">
-        <f>STANDARDIZE(mean!C28,mean!$C$37,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C28,mean!$C$47,mean!$C$48)</f>
         <v>-1.914975805573526</v>
       </c>
       <c r="D29" s="1">
-        <f>STANDARDIZE(mean!D28,mean!$D$37,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D28,mean!$D$47,mean!$D$48)</f>
         <v>-3.3815652453041711E-3</v>
       </c>
       <c r="E29" s="1">
-        <f>STANDARDIZE(mean!E28,mean!$E$37,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E28,mean!$E$47,mean!$E$48)</f>
         <v>-2.5454539486219634</v>
       </c>
       <c r="F29" s="1">
-        <f>STANDARDIZE(mean!F28,mean!$F$37,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F28,mean!$F$47,mean!$F$48)</f>
         <v>-0.97075401748258117</v>
       </c>
       <c r="G29" s="1">
-        <f>STANDARDIZE(mean!G28,mean!$G$37,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G28,mean!$G$47,mean!$G$48)</f>
         <v>0.25763761925841289</v>
       </c>
       <c r="H29" s="1">
-        <f>STANDARDIZE(mean!H28,mean!$H$37,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H28,mean!$H$47,mean!$H$48)</f>
         <v>1.3254715616931698</v>
       </c>
       <c r="I29" s="1">
-        <f>STANDARDIZE(mean!I28,mean!$I$37,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I28,mean!$I$47,mean!$I$48)</f>
         <v>-1.4086006494091432</v>
       </c>
       <c r="J29" s="1">
-        <f>STANDARDIZE(mean!J28,mean!$J$37,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J28,mean!$J$47,mean!$J$48)</f>
         <v>-2.393977606471509</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f>IF(OR(OR(E29&lt;-1.6,I29&lt;-1.6,J29&lt;-1.6),OR(D29&gt;1.6,F29&gt;1.6,G29&gt;1.6,H29&gt;1.6)),"y","x")</f>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>FP</v>
       </c>
       <c r="O29" s="1">
-        <f>STANDARDIZE(mean!C28,mean!$C$39,mean!$C$38)</f>
+        <f>STANDARDIZE(mean!C28,mean!$C$49,mean!$C$48)</f>
         <v>-1.7469394259973088</v>
       </c>
       <c r="P29" s="1">
-        <f>STANDARDIZE(mean!D28,mean!$D$39,mean!$D$38)</f>
+        <f>STANDARDIZE(mean!D28,mean!$D$49,mean!$D$48)</f>
         <v>0.41504465188564937</v>
       </c>
       <c r="Q29" s="1">
-        <f>STANDARDIZE(mean!E28,mean!$E$39,mean!$E$38)</f>
+        <f>STANDARDIZE(mean!E28,mean!$E$49,mean!$E$48)</f>
         <v>-2.1757206158259539</v>
       </c>
       <c r="R29" s="1">
-        <f>STANDARDIZE(mean!F28,mean!$F$39,mean!$F$38)</f>
+        <f>STANDARDIZE(mean!F28,mean!$F$49,mean!$F$48)</f>
         <v>-0.97075401748258117</v>
       </c>
       <c r="S29" s="1">
-        <f>STANDARDIZE(mean!G28,mean!$G$39,mean!$G$38)</f>
+        <f>STANDARDIZE(mean!G28,mean!$G$49,mean!$G$48)</f>
         <v>8.1975606127676848E-2</v>
       </c>
       <c r="T29" s="1">
-        <f>STANDARDIZE(mean!H28,mean!$H$39,mean!$H$38)</f>
+        <f>STANDARDIZE(mean!H28,mean!$H$49,mean!$H$48)</f>
         <v>1.5337656723249162</v>
       </c>
       <c r="U29" s="1">
-        <f>STANDARDIZE(mean!I28,mean!$I$39,mean!$I$38)</f>
+        <f>STANDARDIZE(mean!I28,mean!$I$49,mean!$I$48)</f>
         <v>-1.0449673295888486</v>
       </c>
       <c r="V29" s="1">
-        <f>STANDARDIZE(mean!J28,mean!$J$39,mean!$J$38)</f>
+        <f>STANDARDIZE(mean!J28,mean!$J$49,mean!$J$48)</f>
         <v>-2.0331375811085781</v>
       </c>
       <c r="X29" s="3" t="str">
-        <f>IF(OR(OR(Q29&lt;-1.6,U29&lt;-1.6,V29&lt;-1.6),OR(P29&gt;1.6,R29&gt;1.6,S29&gt;1.6,T29&gt;1.6)),"y","x")</f>
+        <f t="shared" si="17"/>
         <v>y</v>
       </c>
       <c r="Y29" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>FP</v>
       </c>
     </row>
@@ -8453,7 +8697,7 @@
         <v>53</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D34" si="14">COUNTIF($M$3:$M$29,C32)</f>
+        <f t="shared" ref="D32:D34" si="20">COUNTIF($M$3:$M$29,C32)</f>
         <v>4</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -8470,7 +8714,7 @@
         <v>53</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:P34" si="15">COUNTIF($Y$3:$Y$29,O32)</f>
+        <f t="shared" ref="P32:P34" si="21">COUNTIF($Y$3:$Y$29,O32)</f>
         <v>5</v>
       </c>
       <c r="R32" s="6" t="s">
@@ -8486,7 +8730,7 @@
         <v>54</v>
       </c>
       <c r="D33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -8503,7 +8747,7 @@
         <v>54</v>
       </c>
       <c r="P33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="R33" s="6" t="s">
@@ -8519,7 +8763,7 @@
         <v>51</v>
       </c>
       <c r="D34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -8536,7 +8780,7 @@
         <v>51</v>
       </c>
       <c r="P34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="R34" s="6" t="s">
@@ -8633,7 +8877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F9D45B-100C-4CE5-9AB8-30256B6220D3}">
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12610,31 +12856,31 @@
       <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="51">
         <v>940</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="51">
         <v>16.5</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="51">
         <v>722</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="51">
         <v>202</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="51">
         <v>11</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="51">
         <v>3.07</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="51">
         <v>3.57</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="51">
         <v>76.81</v>
       </c>
     </row>
@@ -12642,31 +12888,31 @@
       <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="51">
         <v>710</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="51">
         <v>10</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="51">
         <v>508</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="51">
         <v>192.5</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="51">
         <v>11</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="51">
         <v>3.78</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="51">
         <v>2.64</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="51">
         <v>71.55</v>
       </c>
     </row>
@@ -12674,31 +12920,31 @@
       <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="51">
         <v>660</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="51">
         <v>29.58</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="51">
         <v>484</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="51">
         <v>146.5</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="51">
         <v>8</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="51">
         <v>2.98</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="51">
         <v>3.3</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="51">
         <v>73.33</v>
       </c>
     </row>
@@ -12706,31 +12952,31 @@
       <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="51">
         <v>720</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="51">
         <v>15.67</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="51">
         <v>509</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="51">
         <v>195.5</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="51">
         <v>12</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="51">
         <v>4.13</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="51">
         <v>2.6</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="51">
         <v>70.69</v>
       </c>
     </row>
@@ -12738,31 +12984,31 @@
       <c r="A129">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="51">
         <v>540</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="51">
         <v>10</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="51">
         <v>444.5</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="51">
         <v>86</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="51">
         <v>6</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="51">
         <v>2.56</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="51">
         <v>5.17</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="51">
         <v>82.31</v>
       </c>
     </row>
@@ -12770,31 +13016,31 @@
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="52">
         <v>720</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="52">
         <v>10</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="52">
         <v>710.5</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="52">
         <v>0</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130" s="52">
         <v>0</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H130" s="52">
         <v>0</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="I130" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="J130" s="2">
+      <c r="J130" s="52">
         <v>98.68</v>
       </c>
     </row>
@@ -12802,31 +13048,31 @@
       <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="52">
         <v>690</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="52">
         <v>10</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="52">
         <v>680.5</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="52">
         <v>0</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131" s="52">
         <v>0</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H131" s="52">
         <v>0</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="I131" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="J131" s="2">
+      <c r="J131" s="52">
         <v>98.62</v>
       </c>
     </row>
